--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
@@ -38,6 +40,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -749,19 +753,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF3300"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -799,7 +803,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -828,7 +832,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,9 +922,9 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF3300"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -935,34 +955,33 @@
   </sheetPr>
   <dimension ref="A1:R65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.02040816326531"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31632653061224"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -1355,48 +1374,48 @@
       <c r="R7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="7" t="n">
         <f aca="false">IF(I8="Incerto",MAX(G8,J8-(ABS(F8*J8))),J8)</f>
+        <v>100000</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <f aca="false">IF(I8="Incerto",MIN(H8,J8+(ABS(F8*J8))),J8)</f>
+        <v>100000</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="8" t="n">
         <v>200000</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">IF(I8="Incerto",MIN(H8,J8+(ABS(F8*J8))),J8)</f>
+      <c r="H8" s="8" t="n">
         <v>200000</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="K8" s="1" t="n">
+      <c r="J8" s="5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="1" t="n">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5" t="n">
         <f aca="false">C8=D8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="5" t="n">
         <f aca="false">D8&gt;C8</f>
         <v>0</v>
       </c>
@@ -1469,50 +1488,50 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="10" t="n">
         <f aca="false">IF(I10="Incerto",MAX(G10,J10-(ABS(F10*J10))),J10)</f>
         <v>25000</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="10" t="n">
         <f aca="false">IF(I10="Incerto",MIN(H10,J10+(ABS(F10*J10))),J10)</f>
         <v>100000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="n">
         <f aca="false">J10/2</f>
         <v>25000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="11" t="n">
         <f aca="false">J10*2</f>
         <v>100000</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="9" t="n">
         <v>60000000</v>
       </c>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="1" t="n">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="9" t="n">
         <f aca="false">C10=D10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="9" t="n">
         <f aca="false">D10&gt;C10</f>
         <v>1</v>
       </c>
@@ -1530,11 +1549,11 @@
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="12" t="n">
         <f aca="false">IF(I11="Incerto",MAX(G11,J11-(ABS(F11*J11))),J11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="12" t="n">
         <f aca="false">IF(I11="Incerto",MIN(H11,J11+(ABS(F11*J11))),J11)</f>
         <v>0.006</v>
       </c>
@@ -1606,7 +1625,7 @@
       <c r="I12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="K12" s="1" t="n">
@@ -1634,50 +1653,50 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="10" t="n">
         <f aca="false">IF(I13="Incerto",MAX(G13,J13-(ABS(F13*J13))),J13)</f>
-        <v>5000</v>
-      </c>
-      <c r="D13" s="2" t="n">
+        <v>64250</v>
+      </c>
+      <c r="D13" s="10" t="n">
         <f aca="false">IF(I13="Incerto",MIN(H13,J13+(ABS(F13*J13))),J13)</f>
         <v>300000</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">J13/10</f>
-        <v>5000</v>
-      </c>
-      <c r="H13" s="0" t="n">
+      <c r="G13" s="11" t="n">
+        <f aca="false">J53</f>
+        <v>64250</v>
+      </c>
+      <c r="H13" s="11" t="n">
         <f aca="false">J13*10</f>
         <v>500000</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="9" t="n">
         <v>100000000</v>
       </c>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="1" t="n">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="9" t="n">
         <f aca="false">C13=D13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="9" t="n">
         <f aca="false">D13&gt;C13</f>
         <v>1</v>
       </c>
@@ -2372,7 +2391,7 @@
       <c r="Q26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3649,41 +3668,42 @@
       <c r="Q52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="0"/>
-      <c r="C53" s="2" t="n">
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="n">
         <f aca="false">IF(I53="Incerto",MAX(G53,J53-(ABS(F53*J53))),J53)</f>
-        <v>2500</v>
-      </c>
-      <c r="D53" s="2" t="n">
+        <v>64250</v>
+      </c>
+      <c r="D53" s="7" t="n">
         <f aca="false">IF(I53="Incerto",MIN(H53,J53+(ABS(F53*J53))),J53)</f>
-        <v>2500</v>
-      </c>
-      <c r="E53" s="0"/>
-      <c r="F53" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="1" t="n">
+        <v>64250</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="5" t="n">
         <f aca="false">J53*0.1</f>
-        <v>250</v>
-      </c>
-      <c r="H53" s="1" t="n">
+        <v>6425</v>
+      </c>
+      <c r="H53" s="5" t="n">
         <f aca="false">J53*10</f>
-        <v>25000</v>
-      </c>
-      <c r="I53" s="1" t="s">
+        <v>642500</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="1" t="n">
+      <c r="J53" s="5" t="n">
+        <f aca="false">J54*5</f>
+        <v>64250</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="5" t="n">
         <f aca="false">D53&gt;C53</f>
         <v>0</v>
       </c>
@@ -3693,41 +3713,41 @@
       <c r="Q53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="0"/>
-      <c r="C54" s="2" t="n">
+      <c r="B54" s="8"/>
+      <c r="C54" s="7" t="n">
         <f aca="false">IF(I54="Incerto",MAX(G54,J54-(ABS(F54*J54))),J54)</f>
-        <v>1831</v>
-      </c>
-      <c r="D54" s="2" t="n">
+        <v>12850</v>
+      </c>
+      <c r="D54" s="7" t="n">
         <f aca="false">IF(I54="Incerto",MIN(H54,J54+(ABS(F54*J54))),J54)</f>
-        <v>1831</v>
-      </c>
-      <c r="E54" s="0"/>
-      <c r="F54" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="1" t="n">
+        <v>12850</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="5" t="n">
         <f aca="false">J54*0.1</f>
-        <v>183.1</v>
-      </c>
-      <c r="H54" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="H54" s="5" t="n">
         <f aca="false">J54*10</f>
-        <v>18310</v>
-      </c>
-      <c r="I54" s="1" t="s">
+        <v>128500</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="1" t="n">
-        <v>1831</v>
-      </c>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="1" t="n">
+      <c r="J54" s="5" t="n">
+        <v>12850</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="5" t="n">
         <f aca="false">D54&gt;C54</f>
         <v>0</v>
       </c>
@@ -4242,11 +4262,11 @@
       <c r="B66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="8" t="n">
+      <c r="C66" s="12" t="n">
         <f aca="false">IF(I66="Incerto",MAX(G66,J66-(ABS(F66*J66))),J66)</f>
         <v>0.05</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="12" t="n">
         <f aca="false">IF(I66="Incerto",MIN(H66,J66+(ABS(F66*J66))),J66)</f>
         <v>0.15</v>
       </c>
@@ -4294,11 +4314,11 @@
       <c r="B67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="8" t="n">
+      <c r="C67" s="12" t="n">
         <f aca="false">IF(I67="Incerto",MAX(G67,J67-(ABS(F67*J67))),J67)</f>
         <v>0.05</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67" s="12" t="n">
         <f aca="false">IF(I67="Incerto",MIN(H67,J67+(ABS(F67*J67))),J67)</f>
         <v>0.15</v>
       </c>
@@ -4343,11 +4363,11 @@
       <c r="B68" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="8" t="n">
+      <c r="C68" s="12" t="n">
         <f aca="false">IF(I68="Incerto",MAX(G68,J68-(ABS(F68*J68))),J68)</f>
         <v>0.05</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D68" s="12" t="n">
         <f aca="false">IF(I68="Incerto",MIN(H68,J68+(ABS(F68*J68))),J68)</f>
         <v>0.15</v>
       </c>
@@ -4698,50 +4718,51 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="7" t="n">
         <f aca="false">IF(I75="Incerto",MAX(G75,J75-(ABS(F75*J75))),J75)</f>
-        <v>200000</v>
-      </c>
-      <c r="D75" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D75" s="7" t="n">
         <f aca="false">IF(I75="Incerto",MIN(H75,J75+(ABS(F75*J75))),J75)</f>
-        <v>200000</v>
-      </c>
-      <c r="E75" s="1" t="s">
+        <v>100000</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G75" s="1" t="n">
+      <c r="F75" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="5" t="n">
         <f aca="false">J75/10</f>
-        <v>20000</v>
-      </c>
-      <c r="H75" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H75" s="5" t="n">
         <f aca="false">J75*10</f>
-        <v>2000000</v>
-      </c>
-      <c r="I75" s="1" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="K75" s="1" t="n">
+      <c r="J75" s="5" t="n">
+        <f aca="false">$J$8</f>
+        <v>100000</v>
+      </c>
+      <c r="K75" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L75" s="0"/>
-      <c r="M75" s="0"/>
-      <c r="N75" s="1" t="n">
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="5" t="n">
         <f aca="false">C75=D75</f>
         <v>1</v>
       </c>
-      <c r="O75" s="1" t="n">
+      <c r="O75" s="5" t="n">
         <f aca="false">D75&gt;C75</f>
         <v>0</v>
       </c>
@@ -4750,50 +4771,51 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="7" t="n">
         <f aca="false">IF(I76="Incerto",MAX(G76,J76-(ABS(F76*J76))),J76)</f>
-        <v>200000</v>
-      </c>
-      <c r="D76" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D76" s="7" t="n">
         <f aca="false">IF(I76="Incerto",MIN(H76,J76+(ABS(F76*J76))),J76)</f>
-        <v>200000</v>
-      </c>
-      <c r="E76" s="1" t="s">
+        <v>100000</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F76" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G76" s="1" t="n">
+      <c r="F76" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="5" t="n">
         <f aca="false">J76/10</f>
-        <v>20000</v>
-      </c>
-      <c r="H76" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H76" s="5" t="n">
         <f aca="false">J76*10</f>
-        <v>2000000</v>
-      </c>
-      <c r="I76" s="1" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="K76" s="1" t="n">
+      <c r="J76" s="5" t="n">
+        <f aca="false">$J$8</f>
+        <v>100000</v>
+      </c>
+      <c r="K76" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L76" s="0"/>
-      <c r="M76" s="0"/>
-      <c r="N76" s="1" t="n">
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="5" t="n">
         <f aca="false">C76=D76</f>
         <v>1</v>
       </c>
-      <c r="O76" s="1" t="n">
+      <c r="O76" s="5" t="n">
         <f aca="false">D76&gt;C76</f>
         <v>0</v>
       </c>
@@ -4802,50 +4824,51 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="7" t="n">
         <f aca="false">IF(I77="Incerto",MAX(G77,J77-(ABS(F77*J77))),J77)</f>
-        <v>200000</v>
-      </c>
-      <c r="D77" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D77" s="7" t="n">
         <f aca="false">IF(I77="Incerto",MIN(H77,J77+(ABS(F77*J77))),J77)</f>
-        <v>200000</v>
-      </c>
-      <c r="E77" s="1" t="s">
+        <v>100000</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F77" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G77" s="1" t="n">
+      <c r="F77" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="5" t="n">
         <f aca="false">J77/10</f>
-        <v>20000</v>
-      </c>
-      <c r="H77" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="5" t="n">
         <f aca="false">J77*10</f>
-        <v>2000000</v>
-      </c>
-      <c r="I77" s="1" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J77" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="K77" s="1" t="n">
+      <c r="J77" s="5" t="n">
+        <f aca="false">$J$8</f>
+        <v>100000</v>
+      </c>
+      <c r="K77" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L77" s="0"/>
-      <c r="M77" s="0"/>
-      <c r="N77" s="1" t="n">
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="5" t="n">
         <f aca="false">C77=D77</f>
         <v>1</v>
       </c>
-      <c r="O77" s="1" t="n">
+      <c r="O77" s="5" t="n">
         <f aca="false">D77&gt;C77</f>
         <v>0</v>
       </c>
@@ -4854,50 +4877,51 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="7" t="n">
         <f aca="false">IF(I78="Incerto",MAX(G78,J78-(ABS(F78*J78))),J78)</f>
-        <v>200000</v>
-      </c>
-      <c r="D78" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D78" s="7" t="n">
         <f aca="false">IF(I78="Incerto",MIN(H78,J78+(ABS(F78*J78))),J78)</f>
-        <v>200000</v>
-      </c>
-      <c r="E78" s="1" t="s">
+        <v>100000</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F78" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G78" s="1" t="n">
+      <c r="F78" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="5" t="n">
         <f aca="false">J78/10</f>
-        <v>20000</v>
-      </c>
-      <c r="H78" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="5" t="n">
         <f aca="false">J78*10</f>
-        <v>2000000</v>
-      </c>
-      <c r="I78" s="1" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J78" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="K78" s="1" t="n">
+      <c r="J78" s="5" t="n">
+        <f aca="false">$J$8</f>
+        <v>100000</v>
+      </c>
+      <c r="K78" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L78" s="0"/>
-      <c r="M78" s="0"/>
-      <c r="N78" s="1" t="n">
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="5" t="n">
         <f aca="false">C78=D78</f>
         <v>1</v>
       </c>
-      <c r="O78" s="1" t="n">
+      <c r="O78" s="5" t="n">
         <f aca="false">D78&gt;C78</f>
         <v>0</v>
       </c>
@@ -4927,17 +4951,16 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,14 +5030,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.75"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5106,11 +5129,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -5155,11 +5178,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,10 @@
     <sheet name="levers" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="configs" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="VariableNames" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="RangesPlausiveis" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">params!$A$1:$O$78</definedName>
@@ -26,22 +27,28 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="216">
   <si>
     <t xml:space="preserve">Variavel</t>
   </si>
@@ -686,6 +693,21 @@
   </si>
   <si>
     <t xml:space="preserve">Replicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fIndustryOrderRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sPrice1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sPrice2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sPrice3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sPrice4</t>
   </si>
 </sst>
 </file>
@@ -955,7 +977,7 @@
   </sheetPr>
   <dimension ref="A1:R65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -965,23 +987,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.61224489795918"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.44897959183673"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -4957,10 +4977,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,14 +5051,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5104,7 +5125,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15"/>
+  <autoFilter ref="A1:H17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5129,7 +5150,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,10 +5199,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,4 +5353,103 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.0714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">12000*1.5^10</f>
+        <v>691980.46875</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">200000*4</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">200000*4</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">200000*4</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">200000*4</f>
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="RangesPlausiveis" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">params!$A$1:$O$78</definedName>
@@ -30,25 +30,27 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -977,31 +979,31 @@
   </sheetPr>
   <dimension ref="A1:R65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6071428571429"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.47959183673469"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.31632653061224"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -2937,11 +2939,11 @@
       </c>
       <c r="C37" s="2" t="n">
         <f aca="false">IF(I37="Incerto",MAX(G37,J37-(ABS(F37*J37))),J37)</f>
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="D37" s="2" t="n">
         <f aca="false">IF(I37="Incerto",MIN(H37,J37+(ABS(F37*J37))),J37)</f>
-        <v>100000</v>
+        <v>9000000</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -2951,17 +2953,17 @@
       </c>
       <c r="G37" s="1" t="n">
         <f aca="false">J37/4</f>
-        <v>25000</v>
+        <v>1500000</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">J37*4</f>
-        <v>400000</v>
+        <v>24000000</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>100000</v>
+        <v>6000000</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>100000</v>
@@ -2971,7 +2973,7 @@
       <c r="N37" s="0"/>
       <c r="O37" s="1" t="n">
         <f aca="false">D37&gt;C37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>39</v>
@@ -4977,11 +4979,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,14 +5053,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5125,7 +5127,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H17"/>
+  <autoFilter ref="A1:G15"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5150,7 +5152,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5199,11 +5201,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,14 +5364,14 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="RangesPlausiveis" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">params!$A$1:$O$78</definedName>
@@ -31,26 +31,28 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -979,31 +981,31 @@
   </sheetPr>
   <dimension ref="A1:R65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.17857142857143"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -2939,11 +2941,11 @@
       </c>
       <c r="C37" s="2" t="n">
         <f aca="false">IF(I37="Incerto",MAX(G37,J37-(ABS(F37*J37))),J37)</f>
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="D37" s="2" t="n">
         <f aca="false">IF(I37="Incerto",MIN(H37,J37+(ABS(F37*J37))),J37)</f>
-        <v>9000000</v>
+        <v>4500000</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -2953,17 +2955,17 @@
       </c>
       <c r="G37" s="1" t="n">
         <f aca="false">J37/4</f>
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">J37*4</f>
-        <v>24000000</v>
+        <v>12000000</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>100000</v>
@@ -4971,19 +4973,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,10 +5023,21 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -5052,15 +5064,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.96428571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5127,7 +5137,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15"/>
+  <autoFilter ref="A1:H17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5152,7 +5162,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,11 +5211,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5370,8 +5379,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -32,6 +32,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
@@ -53,6 +55,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -438,7 +442,7 @@
     <t xml:space="preserve">aTempodeInutilizacaoPatente</t>
   </si>
   <si>
-    <t xml:space="preserve">Tempo de Inutilização (após a expiração de uma patente).</t>
+    <t xml:space="preserve">results</t>
   </si>
   <si>
     <t xml:space="preserve">aPerfSlope</t>
@@ -982,30 +986,28 @@
   <dimension ref="A1:R65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="J38" activeCellId="0" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -1291,11 +1293,11 @@
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">IF(I6="Incerto",MAX(G6,J6-(ABS(F6*J6))),J6)</f>
-        <v>0.0666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">IF(I6="Incerto",MIN(H6,J6+(ABS(F6*J6))),J6)</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
@@ -1304,12 +1306,12 @@
         <v>10</v>
       </c>
       <c r="G6" s="0" t="n">
-        <f aca="false">1/15</f>
-        <v>0.0666666666666667</v>
+        <f aca="false">1/10</f>
+        <v>0.1</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">1/2</f>
-        <v>0.5</v>
+        <f aca="false">1/5</f>
+        <v>0.2</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>38</v>
@@ -4976,15 +4978,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.05</v>
@@ -5023,10 +5026,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,7 +5040,7 @@
         <v>0.45</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -5065,12 +5068,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5162,7 +5165,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,10 +5214,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,8 +5383,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="RangesPlausiveis" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">params!$A$1:$O$78</definedName>
@@ -34,29 +34,31 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="217">
   <si>
     <t xml:space="preserve">Variavel</t>
   </si>
@@ -716,6 +718,9 @@
   </si>
   <si>
     <t xml:space="preserve">sPrice4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VariacaoDemanda</t>
   </si>
 </sst>
 </file>
@@ -985,29 +990,29 @@
   </sheetPr>
   <dimension ref="A1:R65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.96428571428571"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -4977,17 +4982,17 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,12 +5073,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5140,7 +5145,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H17"/>
+  <autoFilter ref="A1:G15"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5165,7 +5170,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,11 +5219,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,16 +5380,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,6 +5461,17 @@
       <c r="C6" s="0" t="n">
         <f aca="false">200000*4</f>
         <v>800000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -35,6 +35,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
@@ -59,6 +61,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -991,28 +995,28 @@
   <dimension ref="A1:R65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -4988,11 +4992,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,12 +5076,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -5170,7 +5173,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,11 +5222,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,8 +5390,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -67,16 +67,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">params!$A$1:$O$78</definedName>
   </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="220">
   <si>
     <t>Variavel</t>
   </si>
@@ -727,6 +722,18 @@
   </si>
   <si>
     <t>VariacaoDemanda</t>
+  </si>
+  <si>
+    <t>aModoInitialCumulativeAdopters</t>
+  </si>
+  <si>
+    <t>Modo de Inicialização dos Cumulative Adopters</t>
+  </si>
+  <si>
+    <t>1 - Tradicional: Industry Demand X Initial Diffusion Fraction (Sterman)
+2 - ReorderShare -&gt; Intalled Base -&gt; Adopters (Novo)
+3 - ReorderShare -&gt; InitialAdoptionRate -&gt; Initial Cumulative Adopters (Implementado Inicialmente)
+}</t>
   </si>
 </sst>
 </file>
@@ -805,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -824,6 +831,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,13 +1219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI78"/>
+  <dimension ref="A1:AMI79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,6 +5189,51 @@
       </c>
       <c r="P78" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="18">
+        <v>2</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
+      <c r="H79" s="18">
+        <v>3</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="18">
+        <v>2</v>
+      </c>
+      <c r="K79" s="17">
+        <v>1</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -831,7 +831,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1221,11 +1220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,11 +4067,11 @@
       </c>
       <c r="B56"/>
       <c r="C56" s="2">
-        <f t="shared" ref="C56:C78" si="10">IF(I56="Incerto",MAX(G56,J56-(ABS(F56*J56))),J56)</f>
+        <f t="shared" ref="C56:C79" si="10">IF(I56="Incerto",MAX(G56,J56-(ABS(F56*J56))),J56)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" ref="D56:D78" si="11">IF(I56="Incerto",MIN(H56,J56+(ABS(F56*J56))),J56)</f>
+        <f t="shared" ref="D56:D79" si="11">IF(I56="Incerto",MIN(H56,J56+(ABS(F56*J56))),J56)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -5192,47 +5191,49 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="225" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="17">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="17">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="18">
-        <v>0</v>
-      </c>
-      <c r="G79" s="17">
-        <v>1</v>
-      </c>
-      <c r="H79" s="18">
+      <c r="F79" s="17">
+        <v>0</v>
+      </c>
+      <c r="G79" s="16">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17">
         <v>3</v>
       </c>
-      <c r="I79" s="17" t="s">
+      <c r="I79" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="18">
+      <c r="J79" s="17">
         <v>2</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K79" s="16">
         <v>1</v>
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
-      <c r="P79" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q79" s="19" t="s">
+      <c r="P79" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q79" s="18" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5247,14 +5248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375"/>
     <col min="3" max="3" width="15.7109375"/>
-    <col min="4" max="4" width="14.5703125"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,7 +5296,7 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -5304,7 +5307,7 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
         <v>0.15</v>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="223">
   <si>
     <t>Variavel</t>
   </si>
@@ -734,6 +734,15 @@
 2 - ReorderShare -&gt; Intalled Base -&gt; Adopters (Novo)
 3 - ReorderShare -&gt; InitialAdoptionRate -&gt; Initial Cumulative Adopters (Implementado Inicialmente)
 }</t>
+  </si>
+  <si>
+    <t>aInitialPatentLefts</t>
+  </si>
+  <si>
+    <t>Número Inicial de Patentes Abertas de Impressoras Profissionais.</t>
+  </si>
+  <si>
+    <t>patentes</t>
   </si>
 </sst>
 </file>
@@ -812,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -836,6 +845,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,13 +1230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI79"/>
+  <dimension ref="A1:AMI80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,6 +5249,48 @@
         <v>219</v>
       </c>
     </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="21">
+        <v>0</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="20">
+        <v>0</v>
+      </c>
+      <c r="H80" s="20">
+        <v>10000</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" s="20">
+        <v>0</v>
+      </c>
+      <c r="K80" s="20">
+        <v>0</v>
+      </c>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5248,7 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -1233,15 +1233,15 @@
   <dimension ref="A1:AMI80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1"/>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="1"/>
     <col min="3" max="3" width="10" style="2"/>
     <col min="4" max="4" width="12.28515625" style="2"/>
@@ -3142,11 +3142,11 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>29</v>
@@ -3164,10 +3164,10 @@
         <v>38</v>
       </c>
       <c r="J36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$78</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">params!$A$1:$O$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">params!$A$1:$O$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">params!$A$1:$O$78</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
@@ -66,6 +68,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -77,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="232">
   <si>
     <t xml:space="preserve">Variavel</t>
   </si>
@@ -202,7 +206,7 @@
     <t xml:space="preserve">Arbitrado</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimou-se que a vida útil da impressora varia de 5 a 15 anos. Considera-se este fator como incerto, visto que novas tecnologias podem “encurtar” a vida útil de equipamentos já instalados.</t>
+    <t xml:space="preserve">Foi arbitrado um range de vida útil da impressora de 5 a 10 anos. Considera-se este fator como incerto, visto que novas tecnologias podem “encurtar” a vida útil de equipamentos já instalados, tornando-os obsoletos.</t>
   </si>
   <si>
     <t xml:space="preserve">aInitialDiffusionFraction</t>
@@ -253,7 +257,7 @@
     <t xml:space="preserve">Consumidores</t>
   </si>
   <si>
-    <t xml:space="preserve">Este parâmetro define a escala do modelo, e representa uma estimativa do tamanho do mercado disponível para a manufatura aditiva, considerando o preço atual. Considerando que a última demanda anual foi da ordem de 12000 impressoras por ano, e a análise considera que a impressora tem vida útil ao redor de 4 anos, estima-se um mercado para 50.000 impressoras instaladas em um dado momento de tempo.</t>
+    <t xml:space="preserve">Este parâmetro define a escala do modelo, e representa uma estimativa do tamanho do mercado disponível para a manufatura aditiva, considerando o preço atual. Considerando que a última demanda anual foi da ordem de 12000 impressoras por ano, e a análise considera que a impressora tem vida útil de 5 a 10 anos, estimou-se um mercado para 50.000 impressoras instaladas considerando o preço atual. Levando em consideração que o mercado pode expandir em função da descoberta de novas aplicações para a impressão 3D, esta análise considerou que o mercado de impressão 3D, em dez anos, não será menor do que 25.000 impressoras e não será maior do que 200.000 impressoras instaladas, no nível de preço atual.</t>
   </si>
   <si>
     <t xml:space="preserve">aInnovatorAdoptionFraction</t>
@@ -262,7 +266,7 @@
     <t xml:space="preserve">Fração de Consumidores Inovadores</t>
   </si>
   <si>
-    <t xml:space="preserve">Não há base para definição deste parâmetro. Adotado o valor arbitrado por Sterman.</t>
+    <t xml:space="preserve">Não há base para definição deste parâmetro. Adotado o valor arbitrado por Sterman, com um fator de variação 5.</t>
   </si>
   <si>
     <t xml:space="preserve">aWOMStrength</t>
@@ -271,7 +275,7 @@
     <t xml:space="preserve">Força da Difusão do Produto “Boca a Boca”</t>
   </si>
   <si>
-    <t xml:space="preserve">Este parâmetro no caso base foi obtido por tentativa e erro a partir do mercado potencial de 50.000 definido anteriormente. O número “baixo” reflete a adoção relativamente lenta da impressão 3D.</t>
+    <t xml:space="preserve">Utilizado o range testado por Sterman.</t>
   </si>
   <si>
     <t xml:space="preserve">aPopulation</t>
@@ -280,6 +284,9 @@
     <t xml:space="preserve">Número Total de Consumidores no modelo</t>
   </si>
   <si>
+    <t xml:space="preserve">Este parâmetro representa a população total inserida no modelo. Este valor corresponde ao tamanho do mercado máximo arbitrado.</t>
+  </si>
+  <si>
     <t xml:space="preserve">aSwitchForShipmentsInForecast</t>
   </si>
   <si>
@@ -322,6 +329,9 @@
     <t xml:space="preserve">Sensibilidade da atratividade ao tempo de entrega</t>
   </si>
   <si>
+    <t xml:space="preserve">Valor base obtido em Sterman, com uma variação adicionada.</t>
+  </si>
+  <si>
     <t xml:space="preserve">aSensOfAttractToPrice</t>
   </si>
   <si>
@@ -343,6 +353,9 @@
     <t xml:space="preserve">Unidades Produzidas</t>
   </si>
   <si>
+    <t xml:space="preserve">Para simplificação, considerou-se que todos os players iniciam a simulação com o mesmo valor de experiência de produção, equivalente à 20.000 unidades produzidas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">aRatioOfFixedToVarCost</t>
   </si>
   <si>
@@ -484,13 +497,16 @@
     <t xml:space="preserve">aSensOfAttractToPerformance</t>
   </si>
   <si>
+    <t xml:space="preserve">Baseado no parâmetro de maior importância em Sterman.</t>
+  </si>
+  <si>
     <t xml:space="preserve">aReferencePerformance</t>
   </si>
   <si>
     <t xml:space="preserve">aInitialInvestimentoNaoRealizadoPeD</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculado com base no investimento em P&amp;D da 3D Systems nos últimos quatro anos.</t>
+    <t xml:space="preserve">Calculado com base no investimento em P&amp;D da 3D Systems nos últimos quatro anos, estimando que metade de seu investimento em P&amp;D é direcionado para tecnologia embarcada em impressoras 3D.</t>
   </si>
   <si>
     <t xml:space="preserve">aInitialPatentesRequisitadas</t>
@@ -505,9 +521,15 @@
     <t xml:space="preserve">aInitialsPatentesEmDominioPublicoUteis</t>
   </si>
   <si>
+    <t xml:space="preserve">Considerou a existência de patentes em domínio público (ex.: FDM, SLS, etc).</t>
+  </si>
+  <si>
     <t xml:space="preserve">aInitialsInvestimentoPeDDepreciar</t>
   </si>
   <si>
+    <t xml:space="preserve">Estimado considerando o orçamento atual da 3D Systems, aplicado durante 10 anos.</t>
+  </si>
+  <si>
     <t xml:space="preserve">aInitialReorderShare</t>
   </si>
   <si>
@@ -560,9 +582,6 @@
   </si>
   <si>
     <t xml:space="preserve">Percentual de Orçamento Direcionado a PeD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimado</t>
   </si>
   <si>
     <t xml:space="preserve">As despesas com PeD da 3D Systems oscilaram entre 6% e 13% da receita entre 2006 e 2016.</t>
@@ -878,7 +897,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,10 +915,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1444,36 +1459,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.1632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9030612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.29081632653061"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.0561224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.5"/>
     <col collapsed="false" hidden="false" max="1023" min="20" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -1537,7 +1552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,12 +1605,12 @@
         <v>23</v>
       </c>
       <c r="R2" s="0"/>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="1" t="n">
         <f aca="false">J2=[1]params_testeithink!J2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1648,12 +1663,12 @@
         <v>27</v>
       </c>
       <c r="R3" s="0"/>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="1" t="n">
         <f aca="false">J3=[1]params_testeithink!J3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1706,12 +1721,12 @@
         <v>31</v>
       </c>
       <c r="R4" s="0"/>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="1" t="n">
         <f aca="false">J4=[1]params_testeithink!J4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="R5" s="0"/>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="1" t="n">
         <f aca="false">J5=[1]params_testeithink!J5</f>
         <v>1</v>
       </c>
@@ -1798,10 +1813,10 @@
         <f aca="false">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="5" t="n">
         <f aca="false">1/5</f>
         <v>0.2</v>
       </c>
@@ -1829,12 +1844,12 @@
         <v>41</v>
       </c>
       <c r="R6" s="0"/>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="1" t="n">
         <f aca="false">J6=[1]params_testeithink!J6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1861,7 +1876,7 @@
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -1887,54 +1902,54 @@
         <v>46</v>
       </c>
       <c r="R7" s="0"/>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="1" t="n">
         <f aca="false">J7=[1]params_testeithink!J7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="7" t="n">
         <f aca="false">IF(I8="Incerto",MAX(G8,J8-(ABS(F8*J8))),J8)</f>
         <v>107000</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="7" t="n">
         <f aca="false">IF(I8="Incerto",MIN(H8,J8+(ABS(F8*J8))),J8)</f>
         <v>107000</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="9" t="n">
+      <c r="F8" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="8" t="n">
         <v>200000</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="8" t="n">
         <v>200000</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="5" t="n">
         <v>107000</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="6" t="n">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5" t="n">
         <f aca="false">C8=D8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="5" t="n">
         <f aca="false">D8&gt;C8</f>
         <v>0</v>
       </c>
@@ -1948,7 +1963,7 @@
         <f aca="false">107/0.5</f>
         <v>214</v>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="1" t="n">
         <f aca="false">J8=[1]params_testeithink!J8</f>
         <v>0</v>
       </c>
@@ -1980,7 +1995,7 @@
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="1" t="n">
@@ -2009,56 +2024,56 @@
       <c r="Q9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="1" t="n">
         <f aca="false">J9=[1]params_testeithink!J9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <f aca="false">IF(I10="Incerto",MAX(G10,J10-(ABS(F10*J10))),J10)</f>
         <v>25000</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <f aca="false">IF(I10="Incerto",MIN(H10,J10+(ABS(F10*J10))),J10)</f>
-        <v>200000</v>
-      </c>
-      <c r="E10" s="10" t="s">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12" t="n">
+      <c r="F10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="n">
         <f aca="false">J10/2</f>
         <v>25000</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="11" t="n">
         <f aca="false">J10*4</f>
         <v>200000</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="9" t="n">
         <v>60000000</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10" t="n">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="9" t="n">
         <f aca="false">C10=D10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="10" t="n">
+      <c r="O10" s="9" t="n">
         <f aca="false">D10&gt;C10</f>
         <v>1</v>
       </c>
@@ -2068,7 +2083,7 @@
       <c r="Q10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="5" t="n">
+      <c r="S10" s="1" t="n">
         <f aca="false">J10=[1]params_testeithink!J10</f>
         <v>1</v>
       </c>
@@ -2080,19 +2095,19 @@
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <f aca="false">IF(I11="Incerto",MAX(G11,J11-(ABS(F11*J11))),J11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <f aca="false">IF(I11="Incerto",MIN(H11,J11+(ABS(F11*J11))),J11)</f>
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
@@ -2100,7 +2115,7 @@
       <c r="H11" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="1" t="n">
@@ -2125,7 +2140,7 @@
       <c r="Q11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="5" t="n">
+      <c r="S11" s="1" t="n">
         <f aca="false">J11=[1]params_testeithink!J11</f>
         <v>1</v>
       </c>
@@ -2139,11 +2154,11 @@
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">IF(I12="Incerto",MAX(G12,J12-(ABS(F12*J12))),J12)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="2" t="n">
         <f aca="false">IF(I12="Incerto",MIN(H12,J12+(ABS(F12*J12))),J12)</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>53</v>
@@ -2152,15 +2167,15 @@
         <v>6</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I12" s="6" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="K12" s="1" t="n">
@@ -2181,79 +2196,81 @@
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="1" t="n">
         <f aca="false">J12=[1]params_testeithink!J12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="11" t="n">
-        <f aca="false">IF(I13="Incerto",MAX(G13,J13-(ABS(F13*J13))),J13)</f>
-        <v>64250</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <f aca="false">IF(I13="Incerto",MIN(H13,J13+(ABS(F13*J13))),J13)</f>
-        <v>300000</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="10" t="n">
+        <f aca="false">D10</f>
+        <v>100000</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <f aca="false">D10</f>
+        <v>100000</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="11" t="n">
         <f aca="false">J53</f>
         <v>64250</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="11" t="n">
         <f aca="false">J13*10</f>
         <v>500000</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="I13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="9" t="n">
         <v>100000000</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10" t="n">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="9" t="n">
         <f aca="false">C13=D13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9" t="n">
         <f aca="false">D13&gt;C13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="0"/>
-      <c r="S13" s="5" t="n">
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <f aca="false">J13=[1]params_testeithink!J13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">IF(I14="Incerto",MAX(G14,J14-(ABS(F14*J14))),J14)</f>
@@ -2296,39 +2313,41 @@
         <v>10</v>
       </c>
       <c r="Q14" s="0"/>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="1" t="n">
         <f aca="false">J14=[1]params_testeithink!J14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">IF(I15="Incerto",MAX(G15,J15-(ABS(F15*J15))),J15)</f>
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="D15" s="2" t="n">
         <f aca="false">IF(I15="Incerto",MIN(H15,J15+(ABS(F15*J15))),J15)</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="n">
+        <f aca="false">L15</f>
+        <v>0.0625</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">M15</f>
         <v>0.25</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="1" t="n">
@@ -2352,20 +2371,20 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="0"/>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="1" t="n">
         <f aca="false">J15=[1]params_testeithink!J15</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="n">
         <f aca="false">IF(I16="Incerto",MAX(G16,J16-(ABS(F16*J16))),J16)</f>
@@ -2407,20 +2426,20 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="0"/>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="1" t="n">
         <f aca="false">J16=[1]params_testeithink!J16</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="n">
         <f aca="false">IF(I17="Incerto",MAX(G17,J17-(ABS(F17*J17))),J17)</f>
@@ -2442,7 +2461,7 @@
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J17" s="1" t="n">
@@ -2466,20 +2485,20 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="0"/>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="1" t="n">
         <f aca="false">J17=[1]params_testeithink!J17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="n">
         <f aca="false">IF(I18="Incerto",MAX(G18,J18-(ABS(F18*J18))),J18)</f>
@@ -2521,20 +2540,20 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="0"/>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="1" t="n">
         <f aca="false">J18=[1]params_testeithink!J18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">IF(I19="Incerto",MAX(G19,J19-(ABS(F19*J19))),J19)</f>
@@ -2576,20 +2595,20 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="0"/>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="1" t="n">
         <f aca="false">J19=[1]params_testeithink!J19</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">IF(I20="Incerto",MAX(G20,J20-(ABS(F20*J20))),J20)</f>
@@ -2611,7 +2630,7 @@
       <c r="H20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J20" s="1" t="n">
@@ -2631,20 +2650,22 @@
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="0"/>
-      <c r="S20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="S20" s="1" t="n">
         <f aca="false">J20=[1]params_testeithink!J20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">IF(I21="Incerto",MAX(G21,J21-(ABS(F21*J21))),J21)</f>
@@ -2661,12 +2682,12 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I21" s="6" t="s">
+        <v>-4</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J21" s="1" t="n">
@@ -2690,20 +2711,20 @@
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="0"/>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="1" t="n">
         <f aca="false">J21=[1]params_testeithink!J21</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">IF(I22="Incerto",MAX(G22,J22-(ABS(F22*J22))),J22)</f>
@@ -2725,7 +2746,7 @@
       <c r="H22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J22" s="1" t="n">
@@ -2748,45 +2769,45 @@
         <v>40</v>
       </c>
       <c r="Q22" s="0"/>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="1" t="n">
         <f aca="false">J22=[1]params_testeithink!J22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">IF(H23="Incerto",MAX(G23,J23-(ABS(F23*J23))),J23)</f>
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">IF(H23="Incerto",MIN(G23,J23+(ABS(F23*J23))),J23)</f>
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="G23" s="1" t="n">
         <f aca="false">J23/2</f>
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">J23*2</f>
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>10000000</v>
@@ -2804,18 +2825,20 @@
       <c r="P23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="0"/>
-      <c r="S23" s="5" t="n">
+      <c r="Q23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="S23" s="1" t="n">
         <f aca="false">J23=[1]params_testeithink!J23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="n">
         <f aca="false">IF(I24="Incerto",MAX(G24,J24-(ABS(F24*J24))),J24)</f>
@@ -2837,7 +2860,7 @@
       <c r="H24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J24" s="1" t="n">
@@ -2862,24 +2885,24 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="0"/>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="1" t="n">
         <f aca="false">J24=[1]params_testeithink!J24</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">IF(I25="Incerto",MAX(G25,J25-(ABS(F25*J25))),J25)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">IF(I25="Incerto",MIN(H25,J25+(ABS(F25*J25))),J25)</f>
@@ -2897,8 +2920,8 @@
       <c r="H25" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>39</v>
+      <c r="I25" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>0.2</v>
@@ -2910,27 +2933,27 @@
       <c r="M25" s="0"/>
       <c r="N25" s="1" t="n">
         <f aca="false">C25=D25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1" t="n">
         <f aca="false">D25&gt;C25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="0"/>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="1" t="n">
         <f aca="false">J25=[1]params_testeithink!J25</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">IF(I26="Incerto",MAX(G26,J26-(ABS(F26*J26))),J26)</f>
@@ -2952,7 +2975,7 @@
       <c r="H26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J26" s="1" t="n">
@@ -2976,20 +2999,20 @@
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="0"/>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="1" t="n">
         <f aca="false">J26=[1]params_testeithink!J26</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>94</v>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">IF(I27="Incerto",MAX(G27,J27-(ABS(F27*J27))),J27)</f>
@@ -3000,7 +3023,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>0.5</v>
@@ -3036,14 +3059,14 @@
         <v>40</v>
       </c>
       <c r="Q27" s="0"/>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="1" t="n">
         <f aca="false">J27=[1]params_testeithink!J27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
@@ -3066,7 +3089,7 @@
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J28" s="1" t="n">
@@ -3086,20 +3109,20 @@
         <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="0"/>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="1" t="n">
         <f aca="false">J28=[1]params_testeithink!J28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">IF(I29="Incerto",MAX(G29,J29-(ABS(F29*J29))),J29)</f>
@@ -3141,20 +3164,20 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="0"/>
-      <c r="S29" s="5" t="n">
+      <c r="S29" s="1" t="n">
         <f aca="false">J29=[1]params_testeithink!J29</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">IF(I30="Incerto",MAX(G30,J30-(ABS(F30*J30))),J30)</f>
@@ -3196,20 +3219,20 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="0"/>
-      <c r="S30" s="5" t="n">
+      <c r="S30" s="1" t="n">
         <f aca="false">J30=[1]params_testeithink!J30</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2" t="n">
         <f aca="false">IF(I31="Incerto",MAX(G31,J31-(ABS(F31*J31))),J31)</f>
@@ -3231,7 +3254,7 @@
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -3255,20 +3278,20 @@
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="0"/>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="1" t="n">
         <f aca="false">J31=[1]params_testeithink!J31</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="n">
         <f aca="false">IF(I32="Incerto",MAX(G32,J32-(ABS(F32*J32))),J32)</f>
@@ -3290,7 +3313,7 @@
       <c r="H32" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -3314,20 +3337,20 @@
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="0"/>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="1" t="n">
         <f aca="false">J32=[1]params_testeithink!J32</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="n">
         <f aca="false">IF(I33="Incerto",MAX(G33,J33-(ABS(F33*J33))),J33)</f>
@@ -3349,7 +3372,7 @@
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -3373,20 +3396,20 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="0"/>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="1" t="n">
         <f aca="false">J33=[1]params_testeithink!J33</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="n">
         <f aca="false">IF(I34="Incerto",MAX(G34,J34-(ABS(F34*J34))),J34)</f>
@@ -3428,20 +3451,20 @@
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="0"/>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="1" t="n">
         <f aca="false">J34=[1]params_testeithink!J34</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">IF(I35="Incerto",MAX(G35,J35-(ABS(F35*J35))),J35)</f>
@@ -3483,17 +3506,17 @@
         <v>40</v>
       </c>
       <c r="Q35" s="0"/>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="1" t="n">
         <f aca="false">J35=[1]params_testeithink!J35</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="n">
         <f aca="false">IF(I36="Incerto",MAX(G36,J36-(ABS(F36*J36))),J36)</f>
@@ -3515,7 +3538,7 @@
       <c r="H36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J36" s="1" t="n">
@@ -3535,17 +3558,17 @@
         <v>40</v>
       </c>
       <c r="Q36" s="0"/>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="1" t="n">
         <f aca="false">J36=[1]params_testeithink!J36</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="n">
         <f aca="false">IF(I37="Incerto",MAX(G37,J37-(ABS(F37*J37))),J37)</f>
@@ -3556,7 +3579,7 @@
         <v>5805133.33333334</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0.5</v>
@@ -3569,7 +3592,7 @@
         <f aca="false">J37*4</f>
         <v>15480355.5555556</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J37" s="1" t="n">
@@ -3590,23 +3613,23 @@
         <v>40</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="S37" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="S37" s="1" t="n">
         <f aca="false">J37=[1]params_testeithink!J37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="n">
         <f aca="false">IF(I38="Incerto",MAX(G38,J38-(ABS(F38*J38))),J38)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D38" s="2" t="n">
         <f aca="false">IF(I38="Incerto",MIN(H38,J38+(ABS(F38*J38))),J38)</f>
@@ -3619,14 +3642,13 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="1" t="n">
-        <f aca="false">J38/4</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">J38*4</f>
         <v>8</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="1" t="n">
@@ -3646,17 +3668,17 @@
         <v>40</v>
       </c>
       <c r="Q38" s="0"/>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="1" t="n">
         <f aca="false">J38=[1]params_testeithink!J38</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="n">
         <f aca="false">IF(I39="Incerto",MAX(G39,J39-(ABS(F39*J39))),J39)</f>
@@ -3667,7 +3689,7 @@
         <v>0.6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0.5</v>
@@ -3678,7 +3700,7 @@
       <c r="H39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J39" s="1" t="n">
@@ -3698,17 +3720,17 @@
         <v>40</v>
       </c>
       <c r="Q39" s="0"/>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="1" t="n">
         <f aca="false">J39=[1]params_testeithink!J39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="n">
         <f aca="false">IF(I40="Incerto",MAX(G40,J40-(ABS(F40*J40))),J40)</f>
@@ -3752,17 +3774,17 @@
         <v>40</v>
       </c>
       <c r="Q40" s="0"/>
-      <c r="S40" s="5" t="n">
+      <c r="S40" s="1" t="n">
         <f aca="false">J40=[1]params_testeithink!J40</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="n">
         <f aca="false">IF(I41="Incerto",MAX(G41,J41-(ABS(F41*J41))),J41)</f>
@@ -3786,7 +3808,7 @@
         <f aca="false">J41*4</f>
         <v>40</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J41" s="1" t="n">
@@ -3806,46 +3828,46 @@
         <v>40</v>
       </c>
       <c r="Q41" s="0"/>
-      <c r="S41" s="5" t="n">
+      <c r="S41" s="1" t="n">
         <f aca="false">J41=[1]params_testeithink!J41</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C42" s="2" t="n">
         <f aca="false">IF(I42="Incerto",MAX(G42,J42-(ABS(F42*J42))),J42)</f>
-        <v>0.0166666666666667</v>
+        <v>0.0125</v>
       </c>
       <c r="D42" s="2" t="n">
         <f aca="false">IF(I42="Incerto",MIN(H42,J42+(ABS(F42*J42))),J42)</f>
-        <v>0.05</v>
+        <v>0.0375</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="G42" s="1" t="n">
         <f aca="false">J42/4</f>
-        <v>0.00833333333333333</v>
+        <v>0.00625</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">J42*4</f>
-        <v>0.133333333333333</v>
-      </c>
-      <c r="I42" s="6" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J42" s="1" t="n">
-        <f aca="false">1/30</f>
-        <v>0.0333333333333333</v>
+        <f aca="false">1/40</f>
+        <v>0.025</v>
       </c>
       <c r="K42" s="1" t="n">
         <f aca="false">1/30</f>
@@ -3862,17 +3884,17 @@
         <v>40</v>
       </c>
       <c r="Q42" s="0"/>
-      <c r="S42" s="5" t="n">
+      <c r="S42" s="1" t="n">
         <f aca="false">J42=[1]params_testeithink!J42</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="n">
         <f aca="false">IF(I43="Incerto",MAX(G43,J43-(ABS(F43*J43))),J43)</f>
@@ -3914,17 +3936,17 @@
         <v>40</v>
       </c>
       <c r="Q43" s="0"/>
-      <c r="S43" s="5" t="n">
+      <c r="S43" s="1" t="n">
         <f aca="false">J43=[1]params_testeithink!J43</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="n">
         <f aca="false">IF(I44="Incerto",MAX(G44,J44-(ABS(F44*J44))),J44)</f>
@@ -3966,42 +3988,42 @@
         <v>40</v>
       </c>
       <c r="Q44" s="0"/>
-      <c r="S44" s="5" t="n">
+      <c r="S44" s="1" t="n">
         <f aca="false">J44=[1]params_testeithink!J44</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="2" t="n">
         <f aca="false">IF(I45="Incerto",MAX(G45,J45-(ABS(F45*J45))),J45)</f>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="D45" s="2" t="n">
         <f aca="false">IF(I45="Incerto",MIN(H45,J45+(ABS(F45*J45))),J45)</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E45" s="0"/>
       <c r="F45" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6" t="s">
+        <v>-4</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
@@ -4013,15 +4035,17 @@
       <c r="P45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" s="0"/>
-      <c r="S45" s="5" t="n">
+      <c r="Q45" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="S45" s="1" t="n">
         <f aca="false">J45=[1]params_testeithink!J45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="2" t="n">
@@ -4064,14 +4088,14 @@
         <v>40</v>
       </c>
       <c r="Q46" s="0"/>
-      <c r="S46" s="5" t="n">
+      <c r="S46" s="1" t="n">
         <f aca="false">J46=[1]params_testeithink!J46</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="n">
@@ -4094,7 +4118,7 @@
         <f aca="false">J47*4</f>
         <v>2000326666.66666</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J47" s="1" t="n">
@@ -4115,16 +4139,16 @@
         <v>40</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="S47" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="S47" s="1" t="n">
         <f aca="false">J47=[1]params_testeithink!J47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="2" t="n">
@@ -4147,7 +4171,7 @@
         <f aca="false">J48*4</f>
         <v>2400</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="1" t="n">
@@ -4168,16 +4192,16 @@
         <v>40</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="S48" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="S48" s="1" t="n">
         <f aca="false">J48=[1]params_testeithink!J48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="2" t="n">
@@ -4200,7 +4224,7 @@
         <f aca="false">J49*4</f>
         <v>600</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J49" s="1" t="n">
@@ -4221,14 +4245,14 @@
         <v>40</v>
       </c>
       <c r="Q49" s="0"/>
-      <c r="S49" s="5" t="n">
+      <c r="S49" s="1" t="n">
         <f aca="false">J49=[1]params_testeithink!J49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="2" t="n">
@@ -4251,7 +4275,7 @@
         <f aca="false">J50*4</f>
         <v>40</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J50" s="1" t="n">
@@ -4270,15 +4294,17 @@
       <c r="P50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="0"/>
-      <c r="S50" s="5" t="n">
+      <c r="Q50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S50" s="1" t="n">
         <f aca="false">J50=[1]params_testeithink!J50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="2" t="n">
@@ -4301,7 +4327,7 @@
         <f aca="false">J51*4</f>
         <v>8000000000</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J51" s="1" t="n">
@@ -4321,15 +4347,17 @@
       <c r="P51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q51" s="0"/>
-      <c r="S51" s="5" t="n">
+      <c r="Q51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="S51" s="1" t="n">
         <f aca="false">J51=[1]params_testeithink!J51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B52" s="0"/>
       <c r="C52" s="2" t="n">
@@ -4368,48 +4396,48 @@
         <v>40</v>
       </c>
       <c r="Q52" s="0"/>
-      <c r="S52" s="5" t="n">
+      <c r="S52" s="1" t="n">
         <f aca="false">J52=[1]params_testeithink!J52</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="8" t="n">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="n">
         <f aca="false">IF(I53="Incerto",MAX(G53,J53-(ABS(F53*J53))),J53)</f>
         <v>64250</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="7" t="n">
         <f aca="false">IF(I53="Incerto",MIN(H53,J53+(ABS(F53*J53))),J53)</f>
         <v>64250</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="6" t="n">
+      <c r="E53" s="8"/>
+      <c r="F53" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="5" t="n">
         <f aca="false">J53*0.1</f>
         <v>6425</v>
       </c>
-      <c r="H53" s="6" t="n">
+      <c r="H53" s="5" t="n">
         <f aca="false">J53*10</f>
         <v>642500</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="6" t="n">
+      <c r="J53" s="5" t="n">
         <f aca="false">J54*5</f>
         <v>64250</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="6" t="n">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="5" t="n">
         <f aca="false">D53&gt;C53</f>
         <v>0</v>
       </c>
@@ -4417,47 +4445,47 @@
         <v>40</v>
       </c>
       <c r="Q53" s="0"/>
-      <c r="S53" s="5" t="n">
+      <c r="S53" s="1" t="n">
         <f aca="false">J53=[1]params_testeithink!J53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="8" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="7" t="n">
         <f aca="false">IF(I54="Incerto",MAX(G54,J54-(ABS(F54*J54))),J54)</f>
         <v>12850</v>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54" s="7" t="n">
         <f aca="false">IF(I54="Incerto",MIN(H54,J54+(ABS(F54*J54))),J54)</f>
         <v>12850</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="6" t="n">
+      <c r="E54" s="8"/>
+      <c r="F54" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="5" t="n">
         <f aca="false">J54*0.1</f>
         <v>1285</v>
       </c>
-      <c r="H54" s="6" t="n">
+      <c r="H54" s="5" t="n">
         <f aca="false">J54*10</f>
         <v>128500</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="6" t="n">
+      <c r="J54" s="5" t="n">
         <v>12850</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="6" t="n">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="5" t="n">
         <f aca="false">D54&gt;C54</f>
         <v>0</v>
       </c>
@@ -4465,14 +4493,14 @@
         <v>40</v>
       </c>
       <c r="Q54" s="0"/>
-      <c r="S54" s="5" t="n">
+      <c r="S54" s="1" t="n">
         <f aca="false">J54=[1]params_testeithink!J54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="2" t="n">
@@ -4484,7 +4512,7 @@
         <v>0.28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0.5</v>
@@ -4513,14 +4541,14 @@
         <v>40</v>
       </c>
       <c r="Q55" s="0"/>
-      <c r="S55" s="5" t="n">
+      <c r="S55" s="1" t="n">
         <f aca="false">J55=[1]params_testeithink!J55</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="2" t="n">
@@ -4532,7 +4560,7 @@
         <v>0.29</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0.5</v>
@@ -4561,14 +4589,14 @@
         <v>40</v>
       </c>
       <c r="Q56" s="0"/>
-      <c r="S56" s="5" t="n">
+      <c r="S56" s="1" t="n">
         <f aca="false">J56=[1]params_testeithink!J56</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="2" t="n">
@@ -4580,7 +4608,7 @@
         <v>0.15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0.5</v>
@@ -4609,14 +4637,14 @@
         <v>40</v>
       </c>
       <c r="Q57" s="0"/>
-      <c r="S57" s="5" t="n">
+      <c r="S57" s="1" t="n">
         <f aca="false">J57=[1]params_testeithink!J57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="2" t="n">
@@ -4628,7 +4656,7 @@
         <v>0.28</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0.5</v>
@@ -4658,17 +4686,17 @@
         <v>40</v>
       </c>
       <c r="Q58" s="0"/>
-      <c r="S58" s="5" t="n">
+      <c r="S58" s="1" t="n">
         <f aca="false">J58=[1]params_testeithink!J58</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C59" s="2" t="n">
         <f aca="false">IF(I59="Incerto",MAX(G59,J59-(ABS(F59*J59))),J59)</f>
@@ -4679,7 +4707,7 @@
         <v>0.28</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0.5</v>
@@ -4711,14 +4739,14 @@
         <v>40</v>
       </c>
       <c r="Q59" s="0"/>
-      <c r="S59" s="5" t="n">
+      <c r="S59" s="1" t="n">
         <f aca="false">J59=[1]params_testeithink!J59</f>
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="2" t="n">
@@ -4730,7 +4758,7 @@
         <v>0.29</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0.5</v>
@@ -4760,14 +4788,14 @@
         <v>40</v>
       </c>
       <c r="Q60" s="0"/>
-      <c r="S60" s="5" t="n">
+      <c r="S60" s="1" t="n">
         <f aca="false">J60=[1]params_testeithink!J60</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="2" t="n">
@@ -4779,7 +4807,7 @@
         <v>0.15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0.5</v>
@@ -4809,14 +4837,14 @@
         <v>40</v>
       </c>
       <c r="Q61" s="0"/>
-      <c r="S61" s="5" t="n">
+      <c r="S61" s="1" t="n">
         <f aca="false">J61=[1]params_testeithink!J61</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="2" t="n">
@@ -4828,7 +4856,7 @@
         <v>0.28</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0.5</v>
@@ -4858,17 +4886,17 @@
         <v>40</v>
       </c>
       <c r="Q62" s="0"/>
-      <c r="S62" s="5" t="n">
+      <c r="S62" s="1" t="n">
         <f aca="false">J62=[1]params_testeithink!J62</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C63" s="2" t="n">
         <f aca="false">IF(I63="Incerto",MAX(G63,J63-(ABS(F63*J63))),J63)</f>
@@ -4879,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>3</v>
@@ -4908,17 +4936,17 @@
         <v>40</v>
       </c>
       <c r="Q63" s="0"/>
-      <c r="S63" s="5" t="n">
+      <c r="S63" s="1" t="n">
         <f aca="false">J63=[1]params_testeithink!J63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C64" s="2" t="n">
         <f aca="false">IF(I64="Incerto",MAX(G64,J64-(ABS(F64*J64))),J64)</f>
@@ -4929,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>3</v>
@@ -4958,17 +4986,17 @@
         <v>40</v>
       </c>
       <c r="Q64" s="0"/>
-      <c r="S64" s="5" t="n">
+      <c r="S64" s="1" t="n">
         <f aca="false">J64=[1]params_testeithink!J64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C65" s="2" t="n">
         <f aca="false">IF(I65="Incerto",MAX(G65,J65-(ABS(F65*J65))),J65)</f>
@@ -4979,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>3</v>
@@ -5008,28 +5036,28 @@
         <v>40</v>
       </c>
       <c r="Q65" s="0"/>
-      <c r="S65" s="5" t="n">
+      <c r="S65" s="1" t="n">
         <f aca="false">J65=[1]params_testeithink!J65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="13" t="n">
+        <v>166</v>
+      </c>
+      <c r="C66" s="12" t="n">
         <f aca="false">IF(I66="Incerto",MAX(G66,J66-(ABS(F66*J66))),J66)</f>
         <v>0.05</v>
       </c>
-      <c r="D66" s="13" t="n">
+      <c r="D66" s="12" t="n">
         <f aca="false">IF(I66="Incerto",MIN(H66,J66+(ABS(F66*J66))),J66)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>5</v>
@@ -5039,10 +5067,9 @@
         <v>0.05</v>
       </c>
       <c r="H66" s="1" t="n">
-        <f aca="false">MAX(Levers_FullDesign!$D$2:$D$14)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I66" s="6" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J66" s="1" t="n">
@@ -5059,33 +5086,33 @@
         <v>1</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S66" s="5" t="n">
+        <v>167</v>
+      </c>
+      <c r="S66" s="1" t="n">
         <f aca="false">J66=[1]params_testeithink!J66</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="13" t="n">
+        <v>166</v>
+      </c>
+      <c r="C67" s="12" t="n">
         <f aca="false">IF(I67="Incerto",MAX(G67,J67-(ABS(F67*J67))),J67)</f>
         <v>0.05</v>
       </c>
-      <c r="D67" s="13" t="n">
+      <c r="D67" s="12" t="n">
         <f aca="false">IF(I67="Incerto",MIN(H67,J67+(ABS(F67*J67))),J67)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>5</v>
@@ -5095,10 +5122,9 @@
         <v>0.05</v>
       </c>
       <c r="H67" s="1" t="n">
-        <f aca="false">MAX(Levers_FullDesign!$D$2:$D$14)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I67" s="6" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J67" s="1" t="n">
@@ -5115,31 +5141,31 @@
         <v>1</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Q67" s="0"/>
-      <c r="S67" s="5" t="n">
+      <c r="S67" s="1" t="n">
         <f aca="false">J67=[1]params_testeithink!J67</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="13" t="n">
+        <v>166</v>
+      </c>
+      <c r="C68" s="12" t="n">
         <f aca="false">IF(I68="Incerto",MAX(G68,J68-(ABS(F68*J68))),J68)</f>
         <v>0.05</v>
       </c>
-      <c r="D68" s="13" t="n">
+      <c r="D68" s="12" t="n">
         <f aca="false">IF(I68="Incerto",MIN(H68,J68+(ABS(F68*J68))),J68)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>5</v>
@@ -5149,10 +5175,9 @@
         <v>0.05</v>
       </c>
       <c r="H68" s="1" t="n">
-        <f aca="false">MAX(Levers_FullDesign!$D$2:$D$14)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I68" s="6" t="s">
+        <v>0.15</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J68" s="1" t="n">
@@ -5169,20 +5194,20 @@
         <v>1</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Q68" s="0"/>
-      <c r="S68" s="5" t="n">
+      <c r="S68" s="1" t="n">
         <f aca="false">J68=[1]params_testeithink!J68</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C69" s="2" t="n">
         <f aca="false">IF(I69="Incerto",MAX(G69,J69-(ABS(F69*J69))),J69)</f>
@@ -5205,20 +5230,20 @@
       <c r="H69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J69" s="1" t="n">
         <f aca="false">J56</f>
         <v>0.29</v>
       </c>
-      <c r="K69" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L69" s="6" t="n">
+      <c r="K69" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L69" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="M69" s="6" t="n">
+      <c r="M69" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N69" s="1" t="n">
@@ -5233,17 +5258,17 @@
         <v>40</v>
       </c>
       <c r="Q69" s="0"/>
-      <c r="S69" s="5" t="n">
+      <c r="S69" s="1" t="n">
         <f aca="false">J69=[1]params_testeithink!J69</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2" t="n">
         <f aca="false">IF(I70="Incerto",MAX(G70,J70-(ABS(F70*J70))),J70)</f>
@@ -5266,20 +5291,20 @@
       <c r="H70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J70" s="1" t="n">
         <f aca="false">J57</f>
         <v>0.15</v>
       </c>
-      <c r="K70" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L70" s="6" t="n">
+      <c r="K70" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L70" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="M70" s="6" t="n">
+      <c r="M70" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N70" s="1" t="n">
@@ -5294,17 +5319,17 @@
         <v>40</v>
       </c>
       <c r="Q70" s="0"/>
-      <c r="S70" s="5" t="n">
+      <c r="S70" s="1" t="n">
         <f aca="false">J70=[1]params_testeithink!J70</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2" t="n">
         <f aca="false">IF(I71="Incerto",MAX(G71,J71-(ABS(F71*J71))),J71)</f>
@@ -5327,20 +5352,20 @@
       <c r="H71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J71" s="1" t="n">
         <f aca="false">J58</f>
         <v>0.28</v>
       </c>
-      <c r="K71" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L71" s="6" t="n">
+      <c r="K71" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L71" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="M71" s="6" t="n">
+      <c r="M71" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N71" s="1" t="n">
@@ -5355,17 +5380,17 @@
         <v>40</v>
       </c>
       <c r="Q71" s="0"/>
-      <c r="S71" s="5" t="n">
+      <c r="S71" s="1" t="n">
         <f aca="false">J71=[1]params_testeithink!J71</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C72" s="2" t="n">
         <f aca="false">IF(I72="Incerto",MAX(G72,J72-(ABS(F72*J72))),J72)</f>
@@ -5385,7 +5410,7 @@
       <c r="H72" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J72" s="1" t="n">
@@ -5408,17 +5433,17 @@
         <v>40</v>
       </c>
       <c r="Q72" s="0"/>
-      <c r="S72" s="5" t="n">
+      <c r="S72" s="1" t="n">
         <f aca="false">J72=[1]params_testeithink!J72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2" t="n">
         <f aca="false">IF(I73="Incerto",MAX(G73,J73-(ABS(F73*J73))),J73)</f>
@@ -5438,7 +5463,7 @@
       <c r="H73" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J73" s="1" t="n">
@@ -5461,17 +5486,17 @@
         <v>40</v>
       </c>
       <c r="Q73" s="0"/>
-      <c r="S73" s="5" t="n">
+      <c r="S73" s="1" t="n">
         <f aca="false">J73=[1]params_testeithink!J73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="n">
         <f aca="false">IF(I74="Incerto",MAX(G74,J74-(ABS(F74*J74))),J74)</f>
@@ -5491,7 +5516,7 @@
       <c r="H74" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J74" s="1" t="n">
@@ -5514,57 +5539,57 @@
         <v>40</v>
       </c>
       <c r="Q74" s="0"/>
-      <c r="S74" s="5" t="n">
+      <c r="S74" s="1" t="n">
         <f aca="false">J74=[1]params_testeithink!J74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="8" t="n">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="7" t="n">
         <f aca="false">IF(I75="Incerto",MAX(G75,J75-(ABS(F75*J75))),J75)</f>
         <v>107000</v>
       </c>
-      <c r="D75" s="8" t="n">
+      <c r="D75" s="7" t="n">
         <f aca="false">IF(I75="Incerto",MIN(H75,J75+(ABS(F75*J75))),J75)</f>
         <v>107000</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G75" s="6" t="n">
+      <c r="F75" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="5" t="n">
         <f aca="false">J75/10</f>
         <v>10700</v>
       </c>
-      <c r="H75" s="6" t="n">
+      <c r="H75" s="5" t="n">
         <f aca="false">J75*10</f>
         <v>1070000</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="6" t="n">
+      <c r="J75" s="5" t="n">
         <f aca="false">$J$8</f>
         <v>107000</v>
       </c>
-      <c r="K75" s="6" t="n">
+      <c r="K75" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="6" t="n">
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="5" t="n">
         <f aca="false">C73=D75</f>
         <v>1</v>
       </c>
-      <c r="O75" s="6" t="n">
+      <c r="O75" s="5" t="n">
         <f aca="false">D75&gt;C73</f>
         <v>0</v>
       </c>
@@ -5572,57 +5597,57 @@
         <v>40</v>
       </c>
       <c r="Q75" s="0"/>
-      <c r="S75" s="5" t="n">
+      <c r="S75" s="1" t="n">
         <f aca="false">J75=[1]params_testeithink!J75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="8" t="n">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="7" t="n">
         <f aca="false">IF(I76="Incerto",MAX(G76,J76-(ABS(F76*J76))),J76)</f>
         <v>107000</v>
       </c>
-      <c r="D76" s="8" t="n">
+      <c r="D76" s="7" t="n">
         <f aca="false">IF(I76="Incerto",MIN(H76,J76+(ABS(F76*J76))),J76)</f>
         <v>107000</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G76" s="6" t="n">
+      <c r="F76" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="5" t="n">
         <f aca="false">J76/10</f>
         <v>10700</v>
       </c>
-      <c r="H76" s="6" t="n">
+      <c r="H76" s="5" t="n">
         <f aca="false">J76*10</f>
         <v>1070000</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="6" t="n">
+      <c r="J76" s="5" t="n">
         <f aca="false">$J$8</f>
         <v>107000</v>
       </c>
-      <c r="K76" s="6" t="n">
+      <c r="K76" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="6" t="n">
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="5" t="n">
         <f aca="false">C74=D76</f>
         <v>1</v>
       </c>
-      <c r="O76" s="6" t="n">
+      <c r="O76" s="5" t="n">
         <f aca="false">D76&gt;C74</f>
         <v>0</v>
       </c>
@@ -5630,57 +5655,57 @@
         <v>40</v>
       </c>
       <c r="Q76" s="0"/>
-      <c r="S76" s="5" t="n">
+      <c r="S76" s="1" t="n">
         <f aca="false">J76=[1]params_testeithink!J76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="8" t="n">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="7" t="n">
         <f aca="false">IF(I77="Incerto",MAX(G77,J77-(ABS(F77*J77))),J77)</f>
         <v>107000</v>
       </c>
-      <c r="D77" s="8" t="n">
+      <c r="D77" s="7" t="n">
         <f aca="false">IF(I77="Incerto",MIN(H77,J77+(ABS(F77*J77))),J77)</f>
         <v>107000</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F77" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G77" s="6" t="n">
+      <c r="F77" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="5" t="n">
         <f aca="false">J77/10</f>
         <v>10700</v>
       </c>
-      <c r="H77" s="6" t="n">
+      <c r="H77" s="5" t="n">
         <f aca="false">J77*10</f>
         <v>1070000</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="6" t="n">
+      <c r="J77" s="5" t="n">
         <f aca="false">$J$8</f>
         <v>107000</v>
       </c>
-      <c r="K77" s="6" t="n">
+      <c r="K77" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="6" t="n">
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="5" t="n">
         <f aca="false">C75=D77</f>
         <v>1</v>
       </c>
-      <c r="O77" s="6" t="n">
+      <c r="O77" s="5" t="n">
         <f aca="false">D77&gt;C75</f>
         <v>0</v>
       </c>
@@ -5688,57 +5713,57 @@
         <v>40</v>
       </c>
       <c r="Q77" s="0"/>
-      <c r="S77" s="5" t="n">
+      <c r="S77" s="1" t="n">
         <f aca="false">J77=[1]params_testeithink!J77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="8" t="n">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="7" t="n">
         <f aca="false">IF(I78="Incerto",MAX(G78,J78-(ABS(F78*J78))),J78)</f>
         <v>107000</v>
       </c>
-      <c r="D78" s="8" t="n">
+      <c r="D78" s="7" t="n">
         <f aca="false">IF(I78="Incerto",MIN(H78,J78+(ABS(F78*J78))),J78)</f>
         <v>107000</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G78" s="6" t="n">
+      <c r="F78" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="5" t="n">
         <f aca="false">J78/10</f>
         <v>10700</v>
       </c>
-      <c r="H78" s="6" t="n">
+      <c r="H78" s="5" t="n">
         <f aca="false">J78*10</f>
         <v>1070000</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J78" s="6" t="n">
+      <c r="J78" s="5" t="n">
         <f aca="false">$J$8</f>
         <v>107000</v>
       </c>
-      <c r="K78" s="6" t="n">
+      <c r="K78" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="6" t="n">
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="5" t="n">
         <f aca="false">C76=D78</f>
         <v>1</v>
       </c>
-      <c r="O78" s="6" t="n">
+      <c r="O78" s="5" t="n">
         <f aca="false">D78&gt;C76</f>
         <v>0</v>
       </c>
@@ -5746,17 +5771,17 @@
         <v>40</v>
       </c>
       <c r="Q78" s="0"/>
-      <c r="S78" s="5" t="n">
+      <c r="S78" s="1" t="n">
         <f aca="false">J78=[1]params_testeithink!J78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="159.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="159.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C79" s="2" t="n">
         <f aca="false">IF(I79="Incerto",MAX(G79,J79-(ABS(F79*J79))),J79)</f>
@@ -5787,23 +5812,27 @@
       <c r="K79" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="L79" s="0"/>
+      <c r="M79" s="0"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
       <c r="P79" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q79" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="S79" s="5" t="n">
+      <c r="Q79" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="S79" s="1" t="n">
         <f aca="false">J79=[1]params_testeithink!J79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2" t="n">
         <f aca="false">IF(I80="Incerto",MAX(G80,J80-(ABS(F80*J80))),J80)</f>
@@ -5814,7 +5843,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>2</v>
@@ -5841,19 +5870,13 @@
       <c r="P80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S80" s="5" t="n">
+      <c r="S80" s="1" t="n">
         <f aca="false">J80=[1]params_testeithink!J80</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O80">
-    <filterColumn colId="8">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Incerto"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O80"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5873,30 +5896,30 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,7 +5944,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.1</v>
@@ -5946,42 +5969,42 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.88265306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,16 +6070,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>191</v>
+      <c r="A1" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,148 +6120,149 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.0408163265306"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6262,8 +6289,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,7 +6306,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>250</v>
@@ -6291,7 +6318,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>10000</v>
@@ -6303,7 +6330,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>10000</v>
@@ -6315,7 +6342,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10000</v>
@@ -6327,7 +6354,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10000</v>
@@ -6339,7 +6366,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-2</v>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -67,23 +67,18 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">levers!$A$1:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">params!$A$1:$O$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$T$80</definedName>
     <definedName name="TesteOutroNome" localSheetId="2">levers!$A$1:$G$15</definedName>
     <definedName name="TesteOutroNome" localSheetId="0">params!$A$1:$O$78</definedName>
     <definedName name="TesteOutroNome2" localSheetId="2">levers!$A$1:$H$17</definedName>
     <definedName name="Testeoutronome4" localSheetId="0">params!$A$1:$O$78</definedName>
   </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="249">
   <si>
     <t>Variavel</t>
   </si>
@@ -130,9 +125,6 @@
     <t>Inc</t>
   </si>
   <si>
-    <t>Fonte</t>
-  </si>
-  <si>
     <t>Justificativa</t>
   </si>
   <si>
@@ -235,9 +227,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>O Preço médio atual das Impressoras profissionais é de 107 k (Palestra wholers Report). Imagina-se que desde 2007 o preço tenha caído até 50%, logo o preço em 2007 pode ser estimado como 200k.</t>
-  </si>
-  <si>
     <t>aReferenceIndustryDemandElasticity</t>
   </si>
   <si>
@@ -514,9 +503,6 @@
     <t>aInitialPatentesRequisitadas</t>
   </si>
   <si>
-    <t>Dois últimos anos do relatório de patentes.</t>
-  </si>
-  <si>
     <t>aInitialPatentesEmpresa</t>
   </si>
   <si>
@@ -533,9 +519,6 @@
   </si>
   <si>
     <t>aInitialReorderShare</t>
-  </si>
-  <si>
-    <t>aTotalInitialInstalledBase</t>
   </si>
   <si>
     <t>aInitialIndustryShipments</t>
@@ -782,6 +765,69 @@
   </si>
   <si>
     <t>VariacaoDemanda</t>
+  </si>
+  <si>
+    <t>Forma de Definição</t>
+  </si>
+  <si>
+    <t>Fontes Utilizadas</t>
+  </si>
+  <si>
+    <t>(STERMAN 2007)</t>
+  </si>
+  <si>
+    <t>Manteve-se o parâmetro definido por Sterman (2007).</t>
+  </si>
+  <si>
+    <t>(ERNST &amp; YOUNG GMBH, 2016)</t>
+  </si>
+  <si>
+    <t>Estimado</t>
+  </si>
+  <si>
+    <t>O Market Share Inicial das empresas considera que três empresas (3D Systems, Stratasys e EOS) dominam 70% do mercado (ERNST &amp; YOUNG GMBH, 2016, p. 54).</t>
+  </si>
+  <si>
+    <t>Idem à variável anterior.</t>
+  </si>
+  <si>
+    <t>Adota-se o pressuposto que as empresas possuem um share inicial de patentes proporcional ao seu share inicial de mercado. Considera-se este pressuposto coerente, visto que as empresas 3D Systems e Stratasys, que possuem o maior market share inicial também são as empresas que possuem mais patentes relacionadas à impressão 3D, e possuem um número similar de patentes.</t>
+  </si>
+  <si>
+    <t>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</t>
+  </si>
+  <si>
+    <t>(WOHLERS, 2017)</t>
+  </si>
+  <si>
+    <t>Dois últimos anos do relatório de patentes. Pressupõe-se que apenas metade das patentes são relacionadas à tecnologia embarcada em impressoras 3D.</t>
+  </si>
+  <si>
+    <t>Considerando que o maior player possui 90 patentes, que este número corresponde a um share aproximado de 30 % do mercado, e que apenas metade das patentes são diretamente relacionadas à tecnologia embarcada em impressão 3D, estima-se que todas as patentes em impressão 3D atuais correspondem a 0,5 * 90 / 0,3.</t>
+  </si>
+  <si>
+    <t>Considera-se o valor inicial de sistemas de impressão 3D igual a 104 mil USD (WOHLERS, 2017, m. 34:18). Não há informação disponível sobre a precificação individual dos players. Pressupõe-se que o preço inicial será igual para todos os players, e será ajustado pelo modelo conforme o market share desejado pela empresa.</t>
+  </si>
+  <si>
+    <t>Este parâmetro é apenas utilizado pelo modelo como um batente mínimo para a capacidade. O valor definido neste parâmetro serve como um valor de capacidade mínimo, abaixo do qual a capacidade da empresa não pode ser definida. Será arbitrado o valor 120 para que nenhum player possa ter capacidade produtiva menor do que 1% do mercado (aproximadamente 12000 no ano inicial).</t>
+  </si>
+  <si>
+    <t>O módulo PeD deve ser considerado na análise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerado como 18, visto que, no modelo, a patente </t>
+  </si>
+  <si>
+    <t>aTotalInitialInstalledBaseInutilizado</t>
+  </si>
+  <si>
+    <t>(3D HUBS, 2017b)</t>
+  </si>
+  <si>
+    <t>Considerou-se os mesmos valores mínimos e máximos de índices de performance empregados na 3D Printer Index).</t>
+  </si>
+  <si>
+    <t>Como referência, adotou-se o valor de performance máximo.</t>
   </si>
 </sst>
 </file>
@@ -860,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -882,6 +928,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,13 +1733,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI80"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AMJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,17 +1754,19 @@
     <col min="7" max="8" width="6.140625" style="1"/>
     <col min="9" max="9" width="9.42578125" style="1"/>
     <col min="10" max="10" width="7.28515625" style="1"/>
-    <col min="11" max="14" width="6.140625" style="1"/>
-    <col min="15" max="15" width="3.5703125" style="1"/>
+    <col min="11" max="13" width="6.140625" style="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="1"/>
-    <col min="17" max="17" width="17.85546875" style="1"/>
-    <col min="18" max="18" width="7.85546875" style="1"/>
-    <col min="19" max="19" width="13.42578125" style="1"/>
-    <col min="20" max="1023" width="6.140625" style="1"/>
-    <col min="1024" max="1025" width="6.140625"/>
+    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="47.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="1"/>
+    <col min="20" max="20" width="19" style="1" customWidth="1"/>
+    <col min="21" max="1024" width="6.140625" style="1"/>
+    <col min="1025" max="1026" width="6.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1762,24 +1813,27 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C12" si="0">IF(I2="Incerto",MAX(G2,J2-(ABS(F2*J2))),J2)</f>
@@ -1790,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>0.5</v>
@@ -1802,7 +1856,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1823,21 +1877,24 @@
       <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2" s="1" t="b">
+        <f>J2=[1]params_testeithink!J2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R2"/>
-      <c r="S2" s="1" t="b">
-        <f>J2=[1]params_testeithink!J2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
@@ -1848,7 +1905,7 @@
         <v>0.04</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>0.5</v>
@@ -1860,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>0.04</v>
@@ -1881,21 +1938,24 @@
       <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3" s="1" t="b">
+        <f>J3=[1]params_testeithink!J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R3"/>
-      <c r="S3" s="1" t="b">
-        <f>J3=[1]params_testeithink!J3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
@@ -1906,7 +1966,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>0.5</v>
@@ -1918,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <v>0.25</v>
@@ -1939,21 +1999,24 @@
       <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4" s="1" t="b">
+        <f>J4=[1]params_testeithink!J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R4"/>
-      <c r="S4" s="1" t="b">
-        <f>J4=[1]params_testeithink!J4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -1964,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>0.5</v>
@@ -1976,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1997,21 +2060,24 @@
       <c r="P5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" s="1" t="b">
+        <f>J5=[1]params_testeithink!J5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R5"/>
-      <c r="S5" s="1" t="b">
-        <f>J5=[1]params_testeithink!J5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -2022,7 +2088,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -2036,7 +2102,7 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="5">
         <f>1/5</f>
@@ -2060,23 +2126,24 @@
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6"/>
+      <c r="T6" s="1" t="b">
+        <f>J6=[1]params_testeithink!J6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R6"/>
-      <c r="S6" s="1" t="b">
-        <f>J6=[1]params_testeithink!J6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -2087,7 +2154,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>0.5</v>
@@ -2099,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <v>0.05</v>
@@ -2118,23 +2185,24 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7"/>
+      <c r="T7" s="1" t="b">
+        <f>J7=[1]params_testeithink!J7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R7"/>
-      <c r="S7" s="1" t="b">
-        <f>J7=[1]params_testeithink!J7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -2145,7 +2213,7 @@
         <v>107000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7">
         <v>0.5</v>
@@ -2157,7 +2225,7 @@
         <v>200000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="5">
         <v>107000</v>
@@ -2176,26 +2244,29 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="1">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="S8" s="1">
         <f>107/0.5</f>
         <v>214</v>
       </c>
-      <c r="S8" s="1" t="b">
+      <c r="T8" s="1" t="b">
         <f>J8=[1]params_testeithink!J8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -2206,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -2218,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1">
         <v>0.2</v>
@@ -2243,20 +2314,23 @@
       <c r="P9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="1" t="b">
+        <f>J9=[1]params_testeithink!J9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="S9" s="1" t="b">
-        <f>J9=[1]params_testeithink!J9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
@@ -2267,7 +2341,7 @@
         <v>100000</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -2281,7 +2355,7 @@
         <v>200000</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="9">
         <v>50000</v>
@@ -2300,22 +2374,23 @@
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <f>J10=[1]params_testeithink!J10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="S10" s="1" t="b">
-        <f>J10=[1]params_testeithink!J10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
@@ -2326,7 +2401,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -2338,7 +2413,7 @@
         <v>0.5</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1">
         <v>1E-3</v>
@@ -2359,20 +2434,23 @@
       <c r="P11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="1" t="b">
+        <f>J11=[1]params_testeithink!J11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="S11" s="1" t="b">
-        <f>J11=[1]params_testeithink!J11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
@@ -2383,7 +2461,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
@@ -2395,7 +2473,7 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="13">
         <v>0.4</v>
@@ -2420,20 +2498,23 @@
       <c r="P12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="1" t="b">
+        <f>J12=[1]params_testeithink!J12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="S12" s="1" t="b">
-        <f>J12=[1]params_testeithink!J12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="C13" s="10">
         <f>D10</f>
@@ -2444,7 +2525,7 @@
         <v>100000</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10">
         <v>5</v>
@@ -2458,7 +2539,7 @@
         <v>500000</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="9">
         <v>50000</v>
@@ -2477,22 +2558,23 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <f>J13=[1]params_testeithink!J13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="S13" s="1" t="b">
-        <f>J13=[1]params_testeithink!J13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:C22" si="4">IF(I14="Incerto",MAX(G14,J14-(ABS(F14*J14))),J14)</f>
@@ -2513,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2534,18 +2616,23 @@
       <c r="P14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q14"/>
-      <c r="S14" s="1" t="b">
+      <c r="Q14" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R14" t="s">
+        <v>231</v>
+      </c>
+      <c r="T14" s="1" t="b">
         <f>J14=[1]params_testeithink!J14</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -2556,7 +2643,7 @@
         <v>0.25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -2570,7 +2657,7 @@
         <v>0.25</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1">
         <v>0.25</v>
@@ -2595,18 +2682,21 @@
       <c r="P15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q15"/>
-      <c r="S15" s="1" t="b">
+      <c r="Q15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R15"/>
+      <c r="T15" s="1" t="b">
         <f>J15=[1]params_testeithink!J15</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -2617,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
         <v>0.5</v>
@@ -2629,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2650,18 +2740,23 @@
       <c r="P16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q16"/>
-      <c r="S16" s="1" t="b">
+      <c r="Q16" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T16" s="1" t="b">
         <f>J16=[1]params_testeithink!J16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -2672,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2">
         <v>0.5</v>
@@ -2684,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2709,18 +2804,21 @@
       <c r="P17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q17"/>
-      <c r="S17" s="1" t="b">
+      <c r="Q17" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R17"/>
+      <c r="T17" s="1" t="b">
         <f>J17=[1]params_testeithink!J17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -2731,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
@@ -2743,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2764,18 +2862,23 @@
       <c r="P18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q18"/>
-      <c r="S18" s="1" t="b">
+      <c r="Q18" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T18" s="1" t="b">
         <f>J18=[1]params_testeithink!J18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -2786,7 +2889,7 @@
         <v>0.25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2">
         <v>0.5</v>
@@ -2798,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1">
         <v>0.25</v>
@@ -2819,18 +2922,23 @@
       <c r="P19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q19"/>
-      <c r="S19" s="1" t="b">
+      <c r="Q19" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="1" t="b">
         <f>J19=[1]params_testeithink!J19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -2841,7 +2949,7 @@
         <v>-2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2">
         <v>0.5</v>
@@ -2853,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1">
         <v>-4</v>
@@ -2874,20 +2982,23 @@
       <c r="P20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" s="1" t="b">
+        <f>J20=[1]params_testeithink!J20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="S20" s="1" t="b">
-        <f>J20=[1]params_testeithink!J20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -2898,7 +3009,7 @@
         <v>-4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2">
         <v>0.5</v>
@@ -2910,7 +3021,7 @@
         <v>-4</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1">
         <v>-8</v>
@@ -2935,18 +3046,21 @@
       <c r="P21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q21"/>
-      <c r="S21" s="1" t="b">
+      <c r="Q21" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R21"/>
+      <c r="T21" s="1" t="b">
         <f>J21=[1]params_testeithink!J21</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -2957,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2">
         <v>0.5</v>
@@ -2969,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1">
         <v>0.7</v>
@@ -2988,20 +3102,20 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22"/>
-      <c r="S22" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R22"/>
+      <c r="T22" s="1" t="b">
         <f>J22=[1]params_testeithink!J22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2">
         <f>IF(H23="Incerto",MAX(G23,J23-(ABS(F23*J23))),J23)</f>
@@ -3012,7 +3126,7 @@
         <v>100000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2">
         <v>0.5</v>
@@ -3026,7 +3140,7 @@
         <v>200000</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1">
         <v>100000</v>
@@ -3045,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" t="s">
+        <v>88</v>
+      </c>
+      <c r="T23" s="1" t="b">
+        <f>J23=[1]params_testeithink!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="S23" s="1" t="b">
-        <f>J23=[1]params_testeithink!J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:C55" si="6">IF(I24="Incerto",MAX(G24,J24-(ABS(F24*J24))),J24)</f>
@@ -3071,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
@@ -3083,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
@@ -3109,18 +3223,21 @@
       <c r="P24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q24"/>
-      <c r="S24" s="1" t="b">
+      <c r="Q24" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R24"/>
+      <c r="T24" s="1" t="b">
         <f>J24=[1]params_testeithink!J24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
@@ -3131,7 +3248,7 @@
         <v>0.2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2">
         <v>0.5</v>
@@ -3143,7 +3260,7 @@
         <v>0.2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1">
         <v>0.2</v>
@@ -3164,18 +3281,23 @@
       <c r="P25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q25"/>
-      <c r="S25" s="1" t="b">
+      <c r="Q25" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T25" s="1" t="b">
         <f>J25=[1]params_testeithink!J25</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
@@ -3186,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2">
         <v>0.5</v>
@@ -3198,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1">
         <v>0.8</v>
@@ -3223,18 +3345,21 @@
       <c r="P26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q26"/>
-      <c r="S26" s="1" t="b">
+      <c r="Q26" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R26"/>
+      <c r="T26" s="1" t="b">
         <f>J26=[1]params_testeithink!J26</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
@@ -3245,7 +3370,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2">
         <v>0.5</v>
@@ -3259,7 +3384,7 @@
         <v>400</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1">
         <v>200</v>
@@ -3278,20 +3403,22 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27"/>
-      <c r="S27" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>242</v>
+      </c>
+      <c r="T27" s="1" t="b">
         <f>J27=[1]params_testeithink!J27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
@@ -3312,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -3331,20 +3458,21 @@
         <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28"/>
-      <c r="S28" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="18"/>
+      <c r="R28"/>
+      <c r="T28" s="1" t="b">
         <f>J28=[1]params_testeithink!J28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="6"/>
@@ -3355,7 +3483,7 @@
         <v>0.25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2">
         <v>0.5</v>
@@ -3367,7 +3495,7 @@
         <v>0.25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1">
         <v>0.25</v>
@@ -3388,18 +3516,23 @@
       <c r="P29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q29"/>
-      <c r="S29" s="1" t="b">
+      <c r="Q29" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T29" s="1" t="b">
         <f>J29=[1]params_testeithink!J29</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
@@ -3410,7 +3543,7 @@
         <v>0.25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2">
         <v>0.5</v>
@@ -3422,7 +3555,7 @@
         <v>0.25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1">
         <v>0.25</v>
@@ -3443,18 +3576,23 @@
       <c r="P30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q30"/>
-      <c r="S30" s="1" t="b">
+      <c r="Q30" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T30" s="1" t="b">
         <f>J30=[1]params_testeithink!J30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
@@ -3465,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2">
         <v>4</v>
@@ -3477,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -3502,18 +3640,21 @@
       <c r="P31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q31"/>
-      <c r="S31" s="1" t="b">
+      <c r="Q31" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R31"/>
+      <c r="T31" s="1" t="b">
         <f>J31=[1]params_testeithink!J31</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
@@ -3524,7 +3665,7 @@
         <v>0.25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="2">
         <v>4</v>
@@ -3536,7 +3677,7 @@
         <v>0.25</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1">
         <v>0.25</v>
@@ -3561,18 +3702,21 @@
       <c r="P32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q32"/>
-      <c r="S32" s="1" t="b">
+      <c r="Q32" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R32"/>
+      <c r="T32" s="1" t="b">
         <f>J32=[1]params_testeithink!J32</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
@@ -3583,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="2">
         <v>4</v>
@@ -3595,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1">
         <v>-0.1</v>
@@ -3620,18 +3764,21 @@
       <c r="P33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q33"/>
-      <c r="S33" s="1" t="b">
+      <c r="Q33" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R33"/>
+      <c r="T33" s="1" t="b">
         <f>J33=[1]params_testeithink!J33</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
@@ -3642,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="2">
         <v>0.5</v>
@@ -3654,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -3675,18 +3822,23 @@
       <c r="P34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q34"/>
-      <c r="S34" s="1" t="b">
+      <c r="Q34" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="T34" s="1" t="b">
         <f>J34=[1]params_testeithink!J34</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
@@ -3697,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="2">
         <v>0.5</v>
@@ -3709,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -3725,20 +3877,22 @@
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q35"/>
-      <c r="S35" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s">
+        <v>243</v>
+      </c>
+      <c r="T35" s="1" t="b">
         <f>J35=[1]params_testeithink!J35</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
@@ -3749,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2">
         <v>0.5</v>
@@ -3761,7 +3915,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1">
         <v>4</v>
@@ -3777,20 +3931,20 @@
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q36"/>
-      <c r="S36" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R36"/>
+      <c r="T36" s="1" t="b">
         <f>J36=[1]params_testeithink!J36</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
@@ -3801,7 +3955,7 @@
         <v>5805133.3333333349</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="2">
         <v>0.5</v>
@@ -3815,7 +3969,7 @@
         <v>15480355.55555556</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1">
         <f>3870088.88888889</f>
@@ -3832,22 +3986,22 @@
         <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s">
+        <v>118</v>
+      </c>
+      <c r="T37" s="1" t="b">
+        <f>J37=[1]params_testeithink!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="S37" s="1" t="b">
-        <f>J37=[1]params_testeithink!J37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
@@ -3858,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2">
         <v>0.5</v>
@@ -3871,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1">
         <v>2</v>
@@ -3887,20 +4041,20 @@
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38"/>
-      <c r="S38" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R38"/>
+      <c r="T38" s="1" t="b">
         <f>J38=[1]params_testeithink!J38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="6"/>
@@ -3911,7 +4065,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39" s="2">
         <v>0.5</v>
@@ -3923,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="1">
         <v>0.4</v>
@@ -3939,20 +4093,20 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39"/>
-      <c r="S39" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R39"/>
+      <c r="T39" s="1" t="b">
         <f>J39=[1]params_testeithink!J39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="6"/>
@@ -3963,7 +4117,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2">
         <v>0.5</v>
@@ -3977,7 +4131,7 @@
         <v>72</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="1">
         <v>18</v>
@@ -3993,20 +4147,25 @@
         <v>0</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q40"/>
-      <c r="S40" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R40" t="s">
+        <v>244</v>
+      </c>
+      <c r="T40" s="1" t="b">
         <f>J40=[1]params_testeithink!J40</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="6"/>
@@ -4017,7 +4176,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" s="2">
         <v>0.5</v>
@@ -4031,7 +4190,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="1">
         <v>10</v>
@@ -4047,20 +4206,20 @@
         <v>1</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q41"/>
-      <c r="S41" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R41"/>
+      <c r="T41" s="1" t="b">
         <f>J41=[1]params_testeithink!J41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="6"/>
@@ -4071,7 +4230,7 @@
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2">
         <v>0.5</v>
@@ -4085,7 +4244,7 @@
         <v>0.1</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" s="1">
         <f>1/40</f>
@@ -4103,20 +4262,20 @@
         <v>1</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42"/>
-      <c r="S42" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R42"/>
+      <c r="T42" s="1" t="b">
         <f>J42=[1]params_testeithink!J42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="6"/>
@@ -4139,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -4155,20 +4314,25 @@
         <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q43"/>
-      <c r="S43" s="1" t="b">
+        <v>233</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="R43" t="s">
+        <v>247</v>
+      </c>
+      <c r="T43" s="1" t="b">
         <f>J43=[1]params_testeithink!J43</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="6"/>
@@ -4191,7 +4355,7 @@
         <v>40</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="1">
         <v>10</v>
@@ -4207,17 +4371,22 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q44"/>
-      <c r="S44" s="1" t="b">
+        <v>233</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="T44" s="1" t="b">
         <f>J44=[1]params_testeithink!J44</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="2">
@@ -4239,7 +4408,7 @@
         <v>-4</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" s="1">
         <v>-8</v>
@@ -4255,19 +4424,19 @@
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>138</v>
-      </c>
-      <c r="S45" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s">
+        <v>136</v>
+      </c>
+      <c r="T45" s="1" t="b">
         <f>J45=[1]params_testeithink!J45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="2">
@@ -4291,7 +4460,7 @@
         <v>40</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1">
         <v>10</v>
@@ -4307,17 +4476,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q46"/>
-      <c r="S46" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="R46" t="s">
+        <v>248</v>
+      </c>
+      <c r="T46" s="1" t="b">
         <f>J46=[1]params_testeithink!J46</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2">
@@ -4341,7 +4515,7 @@
         <v>2000326666.6666601</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47" s="1">
         <f>1000163333.33333 * 0.5</f>
@@ -4358,19 +4532,19 @@
         <v>1</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>141</v>
-      </c>
-      <c r="S47" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
+        <v>139</v>
+      </c>
+      <c r="T47" s="1" t="b">
         <f>J47=[1]params_testeithink!J47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="2">
@@ -4394,7 +4568,7 @@
         <v>2400</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="1">
         <f>1200 * 0.5</f>
@@ -4410,20 +4584,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>143</v>
-      </c>
-      <c r="S48" s="1" t="b">
+      <c r="P48" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R48" t="s">
+        <v>239</v>
+      </c>
+      <c r="T48" s="1" t="b">
         <f>J48=[1]params_testeithink!J48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B49"/>
       <c r="C49" s="2">
@@ -4447,7 +4624,7 @@
         <v>600</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1">
         <f>90/0.3 * 0.5</f>
@@ -4463,18 +4640,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q49"/>
-      <c r="S49" s="1" t="b">
+      <c r="P49" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R49" t="s">
+        <v>240</v>
+      </c>
+      <c r="T49" s="1" t="b">
         <f>J49=[1]params_testeithink!J49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="2">
@@ -4498,7 +4680,7 @@
         <v>40</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50" s="1">
         <v>10</v>
@@ -4514,19 +4696,19 @@
         <v>1</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>146</v>
-      </c>
-      <c r="S50" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s">
+        <v>143</v>
+      </c>
+      <c r="T50" s="1" t="b">
         <f>J50=[1]params_testeithink!J50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="2">
@@ -4550,7 +4732,7 @@
         <v>8000000000</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J51" s="1">
         <f>60*1000000 * 10 / 0.3</f>
@@ -4567,19 +4749,19 @@
         <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>148</v>
-      </c>
-      <c r="S51" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s">
+        <v>145</v>
+      </c>
+      <c r="T51" s="1" t="b">
         <f>J51=[1]params_testeithink!J51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="2">
@@ -4601,7 +4783,7 @@
         <v>0.8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52" s="1">
         <v>0.4</v>
@@ -4615,17 +4797,17 @@
         <v>1</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q52"/>
-      <c r="S52" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R52"/>
+      <c r="T52" s="1" t="b">
         <f>J52=[1]params_testeithink!J52</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="7">
@@ -4649,7 +4831,7 @@
         <v>642500</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="5">
         <f>J54*5</f>
@@ -4664,17 +4846,17 @@
         <v>0</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q53"/>
-      <c r="S53" s="1" t="b">
+        <v>233</v>
+      </c>
+      <c r="R53"/>
+      <c r="T53" s="1" t="b">
         <f>J53=[1]params_testeithink!J53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="7">
@@ -4698,7 +4880,7 @@
         <v>128500</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="5">
         <v>12850</v>
@@ -4712,17 +4894,17 @@
         <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q54"/>
-      <c r="S54" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R54"/>
+      <c r="T54" s="1" t="b">
         <f>J54=[1]params_testeithink!J54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B55"/>
       <c r="C55" s="2">
@@ -4734,7 +4916,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2">
         <v>0.5</v>
@@ -4746,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" s="1">
         <v>0.28000000000000003</v>
@@ -4760,17 +4942,22 @@
         <v>0</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q55"/>
-      <c r="S55" s="1" t="b">
+        <v>233</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R55" t="s">
+        <v>234</v>
+      </c>
+      <c r="T55" s="1" t="b">
         <f>J55=[1]params_testeithink!J55</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B56"/>
       <c r="C56" s="2">
@@ -4782,7 +4969,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2">
         <v>0.5</v>
@@ -4794,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56" s="1">
         <v>0.28999999999999998</v>
@@ -4807,18 +4994,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q56"/>
-      <c r="S56" s="1" t="b">
+      <c r="P56" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q56" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="R56" t="s">
+        <v>235</v>
+      </c>
+      <c r="T56" s="1" t="b">
         <f>J56=[1]params_testeithink!J56</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B57"/>
       <c r="C57" s="2">
@@ -4830,7 +5022,7 @@
         <v>0.15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2">
         <v>0.5</v>
@@ -4842,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" s="1">
         <v>0.15</v>
@@ -4855,18 +5047,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q57"/>
-      <c r="S57" s="1" t="b">
+      <c r="P57" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q57" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T57" s="1" t="b">
         <f>J57=[1]params_testeithink!J57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2">
@@ -4878,7 +5075,7 @@
         <v>0.27999999999999992</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2">
         <v>0.5</v>
@@ -4890,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" s="1">
         <f>1-SUM(J55:J57)</f>
@@ -4904,21 +5101,26 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q58"/>
-      <c r="S58" s="1" t="b">
+      <c r="P58" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q58" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T58" s="1" t="b">
         <f>J58=[1]params_testeithink!J58</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="11"/>
@@ -4929,7 +5131,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2">
         <v>0.5</v>
@@ -4941,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J59" s="1">
         <f>J55</f>
@@ -4957,18 +5159,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q59"/>
-      <c r="S59" s="1" t="b">
+      <c r="P59" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q59" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R59" t="s">
+        <v>236</v>
+      </c>
+      <c r="T59" s="1" t="b">
         <f>J59=[1]params_testeithink!J59</f>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B60"/>
       <c r="C60" s="2">
@@ -4980,7 +5187,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F60" s="2">
         <v>0.5</v>
@@ -4992,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" s="1">
         <f>J56</f>
@@ -5006,18 +5213,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q60"/>
-      <c r="S60" s="1" t="b">
+      <c r="P60" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q60" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R60" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T60" s="1" t="b">
         <f>J60=[1]params_testeithink!J60</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="2">
@@ -5029,7 +5241,7 @@
         <v>0.15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F61" s="2">
         <v>0.5</v>
@@ -5041,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" s="1">
         <f>J57</f>
@@ -5055,18 +5267,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q61"/>
-      <c r="S61" s="1" t="b">
+      <c r="P61" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q61" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R61" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T61" s="1" t="b">
         <f>J61=[1]params_testeithink!J61</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="2">
@@ -5078,7 +5295,7 @@
         <v>0.27999999999999992</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F62" s="2">
         <v>0.5</v>
@@ -5090,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" s="1">
         <f>J58</f>
@@ -5104,21 +5321,26 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q62"/>
-      <c r="S62" s="1" t="b">
+      <c r="P62" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q62" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R62" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T62" s="1" t="b">
         <f>J62=[1]params_testeithink!J62</f>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="11"/>
@@ -5129,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" s="2">
         <v>3</v>
@@ -5141,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63" s="1">
         <v>0.5</v>
@@ -5155,20 +5377,20 @@
         <v>1</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q63"/>
-      <c r="S63" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R63"/>
+      <c r="T63" s="1" t="b">
         <f>J63=[1]params_testeithink!J63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="11"/>
@@ -5179,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" s="2">
         <v>3</v>
@@ -5191,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J64" s="1">
         <v>0.5</v>
@@ -5205,20 +5427,20 @@
         <v>1</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q64"/>
-      <c r="S64" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R64"/>
+      <c r="T64" s="1" t="b">
         <f>J64=[1]params_testeithink!J64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="11"/>
@@ -5229,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2">
         <v>3</v>
@@ -5241,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65" s="1">
         <v>0.5</v>
@@ -5255,20 +5477,20 @@
         <v>1</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q65"/>
-      <c r="S65" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R65"/>
+      <c r="T65" s="1" t="b">
         <f>J65=[1]params_testeithink!J65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="11"/>
@@ -5279,7 +5501,7 @@
         <v>0.15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" s="2">
         <v>5</v>
@@ -5292,7 +5514,7 @@
         <v>0.15</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66" s="1">
         <v>0.1</v>
@@ -5308,22 +5530,22 @@
         <v>1</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S66" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="T66" s="1" t="b">
         <f>J66=[1]params_testeithink!J66</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="11"/>
@@ -5334,7 +5556,7 @@
         <v>0.15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2">
         <v>5</v>
@@ -5347,7 +5569,7 @@
         <v>0.15</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67" s="1">
         <v>0.1</v>
@@ -5363,20 +5585,20 @@
         <v>1</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q67"/>
-      <c r="S67" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R67"/>
+      <c r="T67" s="1" t="b">
         <f>J67=[1]params_testeithink!J67</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="11"/>
@@ -5387,7 +5609,7 @@
         <v>0.15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
@@ -5400,7 +5622,7 @@
         <v>0.15</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68" s="1">
         <v>0.1</v>
@@ -5416,20 +5638,20 @@
         <v>1</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q68"/>
-      <c r="S68" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R68"/>
+      <c r="T68" s="1" t="b">
         <f>J68=[1]params_testeithink!J68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="11"/>
@@ -5440,7 +5662,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -5453,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J69" s="1">
         <f>J56</f>
@@ -5477,20 +5699,20 @@
         <v>1</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q69"/>
-      <c r="S69" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R69"/>
+      <c r="T69" s="1" t="b">
         <f>J69=[1]params_testeithink!J69</f>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="11"/>
@@ -5501,7 +5723,7 @@
         <v>0.3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -5514,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J70" s="1">
         <f>J57</f>
@@ -5538,20 +5760,20 @@
         <v>1</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q70"/>
-      <c r="S70" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R70"/>
+      <c r="T70" s="1" t="b">
         <f>J70=[1]params_testeithink!J70</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="11"/>
@@ -5562,7 +5784,7 @@
         <v>0.55999999999999983</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -5575,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71" s="1">
         <f>J58</f>
@@ -5599,20 +5821,20 @@
         <v>1</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71"/>
-      <c r="S71" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R71"/>
+      <c r="T71" s="1" t="b">
         <f>J71=[1]params_testeithink!J71</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="11"/>
@@ -5633,7 +5855,7 @@
         <v>2.5</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J72" s="1">
         <v>1.5</v>
@@ -5652,20 +5874,20 @@
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q72"/>
-      <c r="S72" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R72"/>
+      <c r="T72" s="1" t="b">
         <f>J72=[1]params_testeithink!J72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="11"/>
@@ -5686,7 +5908,7 @@
         <v>2.5</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73" s="1">
         <v>1.5</v>
@@ -5705,20 +5927,20 @@
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q73"/>
-      <c r="S73" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R73"/>
+      <c r="T73" s="1" t="b">
         <f>J73=[1]params_testeithink!J73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="11"/>
@@ -5739,7 +5961,7 @@
         <v>2.5</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74" s="1">
         <v>1.5</v>
@@ -5758,20 +5980,20 @@
         <v>1</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q74"/>
-      <c r="S74" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R74"/>
+      <c r="T74" s="1" t="b">
         <f>J74=[1]params_testeithink!J74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="11"/>
@@ -5782,7 +6004,7 @@
         <v>107000</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="7">
         <v>0.5</v>
@@ -5796,7 +6018,7 @@
         <v>1070000</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75" s="5">
         <f>$J$8</f>
@@ -5815,21 +6037,26 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q75"/>
-      <c r="S75" s="1" t="b">
+      <c r="P75" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q75" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="R75" t="s">
+        <v>241</v>
+      </c>
+      <c r="T75" s="1" t="b">
         <f>J75=[1]params_testeithink!J75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="11"/>
@@ -5840,7 +6067,7 @@
         <v>107000</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" s="7">
         <v>0.5</v>
@@ -5854,7 +6081,7 @@
         <v>1070000</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J76" s="5">
         <f>$J$8</f>
@@ -5873,21 +6100,26 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q76"/>
-      <c r="S76" s="1" t="b">
+      <c r="P76" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q76" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="R76" t="s">
+        <v>235</v>
+      </c>
+      <c r="T76" s="1" t="b">
         <f>J76=[1]params_testeithink!J76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="11"/>
@@ -5898,7 +6130,7 @@
         <v>107000</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F77" s="7">
         <v>0.5</v>
@@ -5912,7 +6144,7 @@
         <v>1070000</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" s="5">
         <f>$J$8</f>
@@ -5931,21 +6163,26 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q77"/>
-      <c r="S77" s="1" t="b">
+      <c r="P77" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q77" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="R77" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T77" s="1" t="b">
         <f>J77=[1]params_testeithink!J77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="11"/>
@@ -5956,7 +6193,7 @@
         <v>107000</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" s="7">
         <v>0.5</v>
@@ -5970,7 +6207,7 @@
         <v>1070000</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" s="5">
         <f>$J$8</f>
@@ -5989,21 +6226,26 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q78"/>
-      <c r="S78" s="1" t="b">
+      <c r="P78" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="R78" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="T78" s="1" t="b">
         <f>J78=[1]params_testeithink!J78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="11"/>
@@ -6014,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -6026,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J79" s="2">
         <v>2</v>
@@ -6039,22 +6281,22 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q79" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="S79" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="T79" s="1" t="b">
         <f>J79=[1]params_testeithink!J79</f>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="11"/>
@@ -6065,7 +6307,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F80" s="2">
         <v>2</v>
@@ -6077,7 +6319,7 @@
         <v>50</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80" s="1">
         <v>5</v>
@@ -6090,17 +6332,23 @@
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S80" s="1" t="b">
+        <v>39</v>
+      </c>
+      <c r="T80" s="1" t="b">
         <f>J80=[1]params_testeithink!J80</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O80" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T80" xr:uid="{DA22CF81-2CA1-4C04-ACDB-DC4BF7E98F20}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Fixo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6123,16 +6371,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,25 +6443,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6276,13 +6524,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6321,140 +6569,140 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6490,7 +6738,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>250</v>
@@ -6502,7 +6750,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -6514,7 +6762,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -6526,7 +6774,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -6538,7 +6786,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -6550,7 +6798,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7">
         <v>-2</v>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="265">
   <si>
     <t>Variavel</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Não utilizado.</t>
   </si>
   <si>
-    <t>Este parâmetro não é utilizado com a formulação de inicialização dos estoques atual.</t>
-  </si>
-  <si>
     <t>aReferencePrice</t>
   </si>
   <si>
@@ -257,18 +254,12 @@
     <t>Fração de Consumidores Inovadores</t>
   </si>
   <si>
-    <t>Não há base para definição deste parâmetro. Adotado o valor arbitrado por Sterman, com um fator de variação 5.</t>
-  </si>
-  <si>
     <t>aWOMStrength</t>
   </si>
   <si>
     <t>Força da Difusão do Produto “Boca a Boca”</t>
   </si>
   <si>
-    <t>Utilizado o range testado por Sterman.</t>
-  </si>
-  <si>
     <t>aPopulation</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
   </si>
   <si>
     <t>$ / patente</t>
-  </si>
-  <si>
-    <t>Calculado considerando todo o investimento observado em P&amp;D da 3D Systems, dividido pelo número de patentes indicado no relatório do Gov. Britânico (90)</t>
   </si>
   <si>
     <t>aTempoMedioAvaliacao</t>
@@ -773,18 +761,12 @@
     <t>Fontes Utilizadas</t>
   </si>
   <si>
-    <t>(STERMAN 2007)</t>
-  </si>
-  <si>
     <t>Manteve-se o parâmetro definido por Sterman (2007).</t>
   </si>
   <si>
     <t>(ERNST &amp; YOUNG GMBH, 2016)</t>
   </si>
   <si>
-    <t>Estimado</t>
-  </si>
-  <si>
     <t>O Market Share Inicial das empresas considera que três empresas (3D Systems, Stratasys e EOS) dominam 70% do mercado (ERNST &amp; YOUNG GMBH, 2016, p. 54).</t>
   </si>
   <si>
@@ -812,9 +794,6 @@
     <t>Este parâmetro é apenas utilizado pelo modelo como um batente mínimo para a capacidade. O valor definido neste parâmetro serve como um valor de capacidade mínimo, abaixo do qual a capacidade da empresa não pode ser definida. Será arbitrado o valor 120 para que nenhum player possa ter capacidade produtiva menor do que 1% do mercado (aproximadamente 12000 no ano inicial).</t>
   </si>
   <si>
-    <t>O módulo PeD deve ser considerado na análise.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Considerado como 18, visto que, no modelo, a patente </t>
   </si>
   <si>
@@ -828,6 +807,75 @@
   </si>
   <si>
     <t>Como referência, adotou-se o valor de performance máximo.</t>
+  </si>
+  <si>
+    <t>O módulo PeD deve ser ativado na análise.</t>
+  </si>
+  <si>
+    <t>Variável não utilizada.</t>
+  </si>
+  <si>
+    <t>Utilizou-se a última informação disponível sobre o número de impressoras 3D profissionais vendidas como referência para calibrar as condições iniciais do modelo.</t>
+  </si>
+  <si>
+    <t>Wholers (achar)</t>
+  </si>
+  <si>
+    <t>Arbitrado o valor de 0,7 a 1, pressupondo que o custo será reduzido em 30% caso a empresa produza a mesma quantidade de produtos vendidos inicialmente.</t>
+  </si>
+  <si>
+    <t>Não há fonte de informação para definição deste parâmetro. Adotado o valor arbitrado por Sterman, com um fator de variação 10.</t>
+  </si>
+  <si>
+    <t>Calculado considerando todo o investimento observado em P&amp;D da 3D Systems, dividido pelo número de patentes de posse da 3D systems observado.</t>
+  </si>
+  <si>
+    <t>Tentar fazer busca de patentes pela 3D systems, e olhar apenas patentes ganhas nos últios 5 anos.</t>
+  </si>
+  <si>
+    <t>O tempo médio de avaliação foi considerado como incerto, variando de 1,5 a 3 anos. A média observada é de 1 ano e 8 meses).</t>
+  </si>
+  <si>
+    <t>A Taxa de rejeição média calculada foi de 0,4. Esta variável também foi considerada como incerta, devido ao fato de que o crescimento do número de patentes emitidas pode aumentar esta taxa ao longo do tempo.</t>
+  </si>
+  <si>
+    <t>Considera-se que uma patente em donmínio público não será útil (ou seja, não gerará performance) idenfinidamente. Foram arbitrados tempos máximos e mínimos para esta variável.</t>
+  </si>
+  <si>
+    <t>Arbitrado.</t>
+  </si>
+  <si>
+    <t>(QUANDL, 2017)</t>
+  </si>
+  <si>
+    <t>Não há informação disponível para determinar a fração inicial de pedidos que é oriúnda de substituições de impressoras 3D em fim de vida útil.</t>
+  </si>
+  <si>
+    <t>Variável considerada como incerta, pressupondo que os players podem optar por tornar todo o seu investimento em Patentes Open Source.</t>
+  </si>
+  <si>
+    <t>(STERMAN, 2007)</t>
+  </si>
+  <si>
+    <t>Utilizado o range testado por Sterman (2007).</t>
+  </si>
+  <si>
+    <t>Param. Original</t>
+  </si>
+  <si>
+    <t>Estim. Dados Obs.</t>
+  </si>
+  <si>
+    <t>Foi considerado que o player tem a mesma liberdade de decisão que o player analisado, variando seu market share desejado em 1/3 a mais ou a menos do que seu market share inicial.</t>
+  </si>
+  <si>
+    <t>Foi considerado que o player tem a mesma liberdade de decisão que o player analisado, podendo optar por uma estratégia agressiva ou conservadora. Os ranges de variam entre 0,5 e 2,5 para que, ao arredondados, os valores 1 e 2 tenham a mesma probabilidade de ocorrência.</t>
+  </si>
+  <si>
+    <t>Não há informações disponíveis sobre empresas que atuem no ramo de impressoras profissionais com patentes open source.</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1733,14 +1781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,10 +1860,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
@@ -1875,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
@@ -1935,11 +1982,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>10</v>
+      <c r="P3" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
@@ -1996,11 +2043,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>10</v>
+      <c r="P4" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -2057,11 +2104,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>10</v>
+      <c r="P5" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R5" t="s">
         <v>34</v>
@@ -2072,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -2128,7 +2175,9 @@
       <c r="P6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R6" t="s">
         <v>40</v>
       </c>
@@ -2187,9 +2236,11 @@
       <c r="P7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="S7"/>
       <c r="T7" s="1" t="b">
@@ -2199,10 +2250,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -2213,7 +2264,7 @@
         <v>107000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7">
         <v>0.5</v>
@@ -2244,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S8" s="1">
         <f>107/0.5</f>
@@ -2261,12 +2312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -2277,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -2311,26 +2362,26 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>10</v>
+      <c r="P9" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T9" s="1" t="b">
         <f>J9=[1]params_testeithink!J9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
@@ -2341,7 +2392,7 @@
         <v>100000</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -2376,21 +2427,23 @@
       <c r="P10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T10" s="1" t="b">
         <f>J10=[1]params_testeithink!J10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
@@ -2431,26 +2484,26 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>10</v>
+      <c r="P11" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="T11" s="1" t="b">
         <f>J11=[1]params_testeithink!J11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
@@ -2461,7 +2514,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
@@ -2495,14 +2548,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>10</v>
+      <c r="P12" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R12" t="s">
-        <v>62</v>
+        <v>257</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="T12" s="1" t="b">
         <f>J12=[1]params_testeithink!J12</f>
@@ -2511,10 +2564,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <f>D10</f>
@@ -2525,7 +2578,7 @@
         <v>100000</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="10">
         <v>5</v>
@@ -2560,9 +2613,11 @@
       <c r="P13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T13" s="1" t="b">
         <f>J13=[1]params_testeithink!J13</f>
@@ -2571,10 +2626,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:C22" si="4">IF(I14="Incerto",MAX(G14,J14-(ABS(F14*J14))),J14)</f>
@@ -2613,26 +2668,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>10</v>
+      <c r="P14" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T14" s="1" t="b">
         <f>J14=[1]params_testeithink!J14</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -2679,13 +2734,15 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>10</v>
+      <c r="P15" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R15"/>
+        <v>257</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T15" s="1" t="b">
         <f>J15=[1]params_testeithink!J15</f>
         <v>1</v>
@@ -2693,10 +2750,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -2737,26 +2794,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>10</v>
+      <c r="P16" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T16" s="1" t="b">
         <f>J16=[1]params_testeithink!J16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -2801,13 +2858,15 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>10</v>
+      <c r="P17" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R17"/>
+        <v>257</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T17" s="1" t="b">
         <f>J17=[1]params_testeithink!J17</f>
         <v>1</v>
@@ -2815,10 +2874,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -2859,14 +2918,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>10</v>
+      <c r="P18" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T18" s="1" t="b">
         <f>J18=[1]params_testeithink!J18</f>
@@ -2875,10 +2934,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -2919,26 +2978,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>10</v>
+      <c r="P19" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T19" s="1" t="b">
         <f>J19=[1]params_testeithink!J19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -2979,26 +3038,26 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>10</v>
+      <c r="P20" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T20" s="1" t="b">
         <f>J20=[1]params_testeithink!J20</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -3043,24 +3102,26 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>10</v>
+      <c r="P21" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R21"/>
+        <v>257</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T21" s="1" t="b">
         <f>J21=[1]params_testeithink!J21</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -3104,7 +3165,12 @@
       <c r="P22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R22"/>
+      <c r="Q22" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R22" t="s">
+        <v>246</v>
+      </c>
       <c r="T22" s="1" t="b">
         <f>J22=[1]params_testeithink!J22</f>
         <v>1</v>
@@ -3112,10 +3178,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2">
         <f>IF(H23="Incerto",MAX(G23,J23-(ABS(F23*J23))),J23)</f>
@@ -3126,7 +3192,7 @@
         <v>100000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2">
         <v>0.5</v>
@@ -3161,20 +3227,23 @@
       <c r="P23" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q23" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T23" s="1" t="b">
         <f>J23=[1]params_testeithink!J23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:C55" si="6">IF(I24="Incerto",MAX(G24,J24-(ABS(F24*J24))),J24)</f>
@@ -3220,13 +3289,15 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>10</v>
+      <c r="P24" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R24"/>
+        <v>257</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T24" s="1" t="b">
         <f>J24=[1]params_testeithink!J24</f>
         <v>1</v>
@@ -3234,10 +3305,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
@@ -3278,26 +3349,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>10</v>
+      <c r="P25" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T25" s="1" t="b">
         <f>J25=[1]params_testeithink!J25</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
@@ -3342,13 +3413,15 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>10</v>
+      <c r="P26" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R26"/>
+        <v>257</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T26" s="1" t="b">
         <f>J26=[1]params_testeithink!J26</f>
         <v>1</v>
@@ -3356,10 +3429,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
@@ -3370,7 +3443,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2">
         <v>0.5</v>
@@ -3405,24 +3478,27 @@
       <c r="P27" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q27" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="T27" s="1" t="b">
         <f>J27=[1]params_testeithink!J27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="7"/>
@@ -3439,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -3451,17 +3527,21 @@
       <c r="M28"/>
       <c r="N28" s="1" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="18"/>
-      <c r="R28"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T28" s="1" t="b">
         <f>J28=[1]params_testeithink!J28</f>
         <v>1</v>
@@ -3469,10 +3549,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="6"/>
@@ -3513,14 +3593,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>10</v>
+      <c r="P29" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T29" s="1" t="b">
         <f>J29=[1]params_testeithink!J29</f>
@@ -3529,10 +3609,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
@@ -3573,26 +3653,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>10</v>
+      <c r="P30" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T30" s="1" t="b">
         <f>J30=[1]params_testeithink!J30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
@@ -3637,24 +3717,26 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>10</v>
+      <c r="P31" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R31"/>
+        <v>257</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T31" s="1" t="b">
         <f>J31=[1]params_testeithink!J31</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
@@ -3699,24 +3781,26 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>10</v>
+      <c r="P32" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R32"/>
+        <v>257</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T32" s="1" t="b">
         <f>J32=[1]params_testeithink!J32</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
@@ -3761,13 +3845,15 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>10</v>
+      <c r="P33" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R33"/>
+        <v>257</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>258</v>
+      </c>
       <c r="T33" s="1" t="b">
         <f>J33=[1]params_testeithink!J33</f>
         <v>1</v>
@@ -3775,10 +3861,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
@@ -3819,14 +3905,14 @@
         <f t="shared" ref="O34:O70" si="8">D34&gt;C34</f>
         <v>0</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>10</v>
+      <c r="P34" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T34" s="1" t="b">
         <f>J34=[1]params_testeithink!J34</f>
@@ -3835,10 +3921,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
@@ -3879,28 +3965,31 @@
       <c r="P35" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q35" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T35" s="1" t="b">
         <f>J35=[1]params_testeithink!J35</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>29</v>
@@ -3918,10 +4007,10 @@
         <v>38</v>
       </c>
       <c r="J36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -3933,18 +4022,23 @@
       <c r="P36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R36"/>
+      <c r="Q36" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R36" t="s">
+        <v>253</v>
+      </c>
       <c r="T36" s="1" t="b">
         <f>J36=[1]params_testeithink!J36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
@@ -3955,7 +4049,7 @@
         <v>5805133.3333333349</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F37" s="2">
         <v>0.5</v>
@@ -3985,23 +4079,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>39</v>
+      <c r="P37" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="R37" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="T37" s="1" t="b">
         <f>J37=[1]params_testeithink!J37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
@@ -4040,21 +4137,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R38"/>
+      <c r="P38" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="R38" t="s">
+        <v>250</v>
+      </c>
       <c r="T38" s="1" t="b">
         <f>J38=[1]params_testeithink!J38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="6"/>
@@ -4065,7 +4167,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F39" s="2">
         <v>0.5</v>
@@ -4092,10 +4194,15 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R39"/>
+      <c r="P39" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="R39" t="s">
+        <v>251</v>
+      </c>
       <c r="T39" s="1" t="b">
         <f>J39=[1]params_testeithink!J39</f>
         <v>1</v>
@@ -4103,10 +4210,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="6"/>
@@ -4146,26 +4253,26 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>39</v>
+      <c r="P40" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="Q40" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="R40" t="s">
         <v>237</v>
-      </c>
-      <c r="R40" t="s">
-        <v>244</v>
       </c>
       <c r="T40" s="1" t="b">
         <f>J40=[1]params_testeithink!J40</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="6"/>
@@ -4208,18 +4315,23 @@
       <c r="P41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R41"/>
+      <c r="Q41" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R41" t="s">
+        <v>252</v>
+      </c>
       <c r="T41" s="1" t="b">
         <f>J41=[1]params_testeithink!J41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="6"/>
@@ -4230,7 +4342,7 @@
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F42" s="2">
         <v>0.5</v>
@@ -4264,7 +4376,12 @@
       <c r="P42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R42"/>
+      <c r="Q42" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R42" t="s">
+        <v>253</v>
+      </c>
       <c r="T42" s="1" t="b">
         <f>J42=[1]params_testeithink!J42</f>
         <v>0</v>
@@ -4272,10 +4389,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="6"/>
@@ -4313,14 +4430,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>233</v>
+      <c r="P43" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="R43" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="T43" s="1" t="b">
         <f>J43=[1]params_testeithink!J43</f>
@@ -4329,10 +4446,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="6"/>
@@ -4370,23 +4487,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>233</v>
+      <c r="P44" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="T44" s="1" t="b">
         <f>J44=[1]params_testeithink!J44</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="2">
@@ -4426,8 +4543,11 @@
       <c r="P45" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q45" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T45" s="1" t="b">
         <f>J45=[1]params_testeithink!J45</f>
@@ -4436,7 +4556,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="2">
@@ -4475,23 +4595,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>39</v>
+      <c r="P46" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="R46" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="T46" s="1" t="b">
         <f>J46=[1]params_testeithink!J46</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2">
@@ -4531,11 +4651,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>39</v>
+      <c r="P47" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="R47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T47" s="1" t="b">
         <f>J47=[1]params_testeithink!J47</f>
@@ -4544,7 +4667,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="2">
@@ -4585,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R48" t="s">
         <v>233</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R48" t="s">
-        <v>239</v>
       </c>
       <c r="T48" s="1" t="b">
         <f>J48=[1]params_testeithink!J48</f>
@@ -4600,7 +4723,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B49"/>
       <c r="C49" s="2">
@@ -4641,22 +4764,22 @@
         <v>0</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R49" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="T49" s="1" t="b">
         <f>J49=[1]params_testeithink!J49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="2">
@@ -4698,17 +4821,20 @@
       <c r="P50" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q50" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T50" s="1" t="b">
         <f>J50=[1]params_testeithink!J50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="2">
@@ -4748,20 +4874,23 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>39</v>
+      <c r="P51" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q51" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="R51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="T51" s="1" t="b">
         <f>J51=[1]params_testeithink!J51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="2">
@@ -4799,7 +4928,12 @@
       <c r="P52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R52"/>
+      <c r="Q52" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R52" t="s">
+        <v>255</v>
+      </c>
       <c r="T52" s="1" t="b">
         <f>J52=[1]params_testeithink!J52</f>
         <v>1</v>
@@ -4807,7 +4941,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="7">
@@ -4845,10 +4979,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R53"/>
+      <c r="P53" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R53" t="s">
+        <v>243</v>
+      </c>
       <c r="T53" s="1" t="b">
         <f>J53=[1]params_testeithink!J53</f>
         <v>0</v>
@@ -4856,7 +4995,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="7">
@@ -4893,10 +5032,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R54"/>
+      <c r="P54" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q54" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="R54" t="s">
+        <v>244</v>
+      </c>
       <c r="T54" s="1" t="b">
         <f>J54=[1]params_testeithink!J54</f>
         <v>0</v>
@@ -4904,7 +5048,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B55"/>
       <c r="C55" s="2">
@@ -4916,7 +5060,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2">
         <v>0.5</v>
@@ -4941,14 +5085,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>233</v>
+      <c r="P55" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T55" s="1" t="b">
         <f>J55=[1]params_testeithink!J55</f>
@@ -4957,7 +5101,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B56"/>
       <c r="C56" s="2">
@@ -4969,7 +5113,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2">
         <v>0.5</v>
@@ -4995,13 +5139,13 @@
         <v>0</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R56" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T56" s="1" t="b">
         <f>J56=[1]params_testeithink!J56</f>
@@ -5010,7 +5154,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B57"/>
       <c r="C57" s="2">
@@ -5022,7 +5166,7 @@
         <v>0.15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2">
         <v>0.5</v>
@@ -5048,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T57" s="1" t="b">
         <f>J57=[1]params_testeithink!J57</f>
@@ -5063,7 +5207,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2">
@@ -5075,7 +5219,7 @@
         <v>0.27999999999999992</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F58" s="2">
         <v>0.5</v>
@@ -5102,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T58" s="1" t="b">
         <f>J58=[1]params_testeithink!J58</f>
@@ -5117,10 +5261,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="11"/>
@@ -5131,7 +5275,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F59" s="2">
         <v>0.5</v>
@@ -5160,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="T59" s="1" t="b">
         <f>J59=[1]params_testeithink!J59</f>
@@ -5175,7 +5319,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B60"/>
       <c r="C60" s="2">
@@ -5187,7 +5331,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F60" s="2">
         <v>0.5</v>
@@ -5214,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T60" s="1" t="b">
         <f>J60=[1]params_testeithink!J60</f>
@@ -5229,7 +5373,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="2">
@@ -5241,7 +5385,7 @@
         <v>0.15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F61" s="2">
         <v>0.5</v>
@@ -5268,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T61" s="1" t="b">
         <f>J61=[1]params_testeithink!J61</f>
@@ -5283,7 +5427,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="2">
@@ -5295,7 +5439,7 @@
         <v>0.27999999999999992</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F62" s="2">
         <v>0.5</v>
@@ -5322,25 +5466,25 @@
         <v>0</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T62" s="1" t="b">
         <f>J62=[1]params_testeithink!J62</f>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="11"/>
@@ -5351,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" s="2">
         <v>3</v>
@@ -5379,18 +5523,23 @@
       <c r="P63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R63"/>
+      <c r="Q63" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R63" t="s">
+        <v>256</v>
+      </c>
       <c r="T63" s="1" t="b">
         <f>J63=[1]params_testeithink!J63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="11"/>
@@ -5401,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F64" s="2">
         <v>3</v>
@@ -5429,18 +5578,23 @@
       <c r="P64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R64"/>
+      <c r="Q64" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="T64" s="1" t="b">
         <f>J64=[1]params_testeithink!J64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="11"/>
@@ -5451,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F65" s="2">
         <v>3</v>
@@ -5479,18 +5633,23 @@
       <c r="P65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R65"/>
+      <c r="Q65" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R65" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="T65" s="1" t="b">
         <f>J65=[1]params_testeithink!J65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="11"/>
@@ -5501,7 +5660,7 @@
         <v>0.15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F66" s="2">
         <v>5</v>
@@ -5529,23 +5688,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>39</v>
+      <c r="P66" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q66" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T66" s="1" t="b">
         <f>J66=[1]params_testeithink!J66</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="11"/>
@@ -5556,7 +5718,7 @@
         <v>0.15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F67" s="2">
         <v>5</v>
@@ -5584,21 +5746,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R67"/>
+      <c r="P67" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q67" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="R67" t="s">
+        <v>229</v>
+      </c>
       <c r="T67" s="1" t="b">
         <f>J67=[1]params_testeithink!J67</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="11"/>
@@ -5609,7 +5776,7 @@
         <v>0.15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
@@ -5637,21 +5804,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R68"/>
+      <c r="P68" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q68" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="R68" s="17" t="s">
+        <v>229</v>
+      </c>
       <c r="T68" s="1" t="b">
         <f>J68=[1]params_testeithink!J68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="11"/>
@@ -5698,21 +5870,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R69"/>
+      <c r="P69" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q69" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="R69" t="s">
+        <v>261</v>
+      </c>
       <c r="T69" s="1" t="b">
         <f>J69=[1]params_testeithink!J69</f>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="11"/>
@@ -5759,21 +5936,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R70"/>
+      <c r="P70" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q70" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="R70" t="s">
+        <v>229</v>
+      </c>
       <c r="T70" s="1" t="b">
         <f>J70=[1]params_testeithink!J70</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="11"/>
@@ -5820,21 +6002,26 @@
         <f t="shared" ref="O71:O78" si="14">D71&gt;C69</f>
         <v>1</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R71"/>
+      <c r="P71" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q71" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="R71" s="17" t="s">
+        <v>229</v>
+      </c>
       <c r="T71" s="1" t="b">
         <f>J71=[1]params_testeithink!J71</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="11"/>
@@ -5873,21 +6060,26 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R72"/>
+      <c r="P72" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q72" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R72" s="17" t="s">
+        <v>262</v>
+      </c>
       <c r="T72" s="1" t="b">
         <f>J72=[1]params_testeithink!J72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="11"/>
@@ -5926,21 +6118,26 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R73"/>
+      <c r="P73" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q73" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R73" t="s">
+        <v>229</v>
+      </c>
       <c r="T73" s="1" t="b">
         <f>J73=[1]params_testeithink!J73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="11"/>
@@ -5979,10 +6176,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R74"/>
+      <c r="P74" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q74" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="R74" t="s">
+        <v>229</v>
+      </c>
       <c r="T74" s="1" t="b">
         <f>J74=[1]params_testeithink!J74</f>
         <v>0</v>
@@ -5990,10 +6192,10 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="11"/>
@@ -6004,7 +6206,7 @@
         <v>107000</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F75" s="7">
         <v>0.5</v>
@@ -6038,13 +6240,13 @@
         <v>1</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="T75" s="1" t="b">
         <f>J75=[1]params_testeithink!J75</f>
@@ -6053,10 +6255,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="11"/>
@@ -6067,7 +6269,7 @@
         <v>107000</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" s="7">
         <v>0.5</v>
@@ -6101,13 +6303,13 @@
         <v>1</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R76" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T76" s="1" t="b">
         <f>J76=[1]params_testeithink!J76</f>
@@ -6116,10 +6318,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="11"/>
@@ -6130,7 +6332,7 @@
         <v>107000</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" s="7">
         <v>0.5</v>
@@ -6164,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T77" s="1" t="b">
         <f>J77=[1]params_testeithink!J77</f>
@@ -6179,10 +6381,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="11"/>
@@ -6193,7 +6395,7 @@
         <v>107000</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" s="7">
         <v>0.5</v>
@@ -6227,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R78" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T78" s="1" t="b">
         <f>J78=[1]params_testeithink!J78</f>
@@ -6242,10 +6444,10 @@
     </row>
     <row r="79" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="11"/>
@@ -6283,20 +6485,23 @@
       <c r="P79" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q79" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="R79" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T79" s="1" t="b">
         <f>J79=[1]params_testeithink!J79</f>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="11"/>
@@ -6307,7 +6512,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F80" s="2">
         <v>2</v>
@@ -6334,19 +6539,19 @@
       <c r="P80" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Q80" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="T80" s="1" t="b">
         <f>J80=[1]params_testeithink!J80</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T80" xr:uid="{DA22CF81-2CA1-4C04-ACDB-DC4BF7E98F20}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Fixo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T80" xr:uid="{DA22CF81-2CA1-4C04-ACDB-DC4BF7E98F20}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6371,16 +6576,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,25 +6648,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6524,13 +6729,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,140 +6774,140 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
         <v>195</v>
-      </c>
-      <c r="B1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6738,7 +6943,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>250</v>
@@ -6750,7 +6955,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -6762,7 +6967,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -6774,7 +6979,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -6786,7 +6991,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -6798,7 +7003,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>-2</v>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -818,9 +818,6 @@
     <t>Utilizou-se a última informação disponível sobre o número de impressoras 3D profissionais vendidas como referência para calibrar as condições iniciais do modelo.</t>
   </si>
   <si>
-    <t>Wholers (achar)</t>
-  </si>
-  <si>
     <t>Arbitrado o valor de 0,7 a 1, pressupondo que o custo será reduzido em 30% caso a empresa produza a mesma quantidade de produtos vendidos inicialmente.</t>
   </si>
   <si>
@@ -876,6 +873,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>(WOHLERS ASSOCIATES, 2013, 2014, 2015 ; WHOLERS, 2016)</t>
   </si>
 </sst>
 </file>
@@ -1781,13 +1781,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1922,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
@@ -1936,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1983,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
@@ -1997,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2044,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -2058,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2105,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R5" t="s">
         <v>34</v>
@@ -2176,7 +2177,7 @@
         <v>39</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R6" t="s">
         <v>40</v>
@@ -2187,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R7" t="s">
         <v>243</v>
@@ -2248,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="18" t="s">
         <v>232</v>
@@ -2363,10 +2364,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>51</v>
@@ -2428,7 +2429,7 @@
         <v>39</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R10" t="s">
         <v>55</v>
@@ -2485,13 +2486,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T11" s="1" t="b">
         <f>J11=[1]params_testeithink!J11</f>
@@ -2549,20 +2550,20 @@
         <v>1</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T12" s="1" t="b">
         <f>J12=[1]params_testeithink!J12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>60</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>39</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R13" t="s">
         <v>62</v>
@@ -2624,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -2669,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R14" t="s">
         <v>226</v>
@@ -2735,20 +2736,20 @@
         <v>1</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q15" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T15" s="1" t="b">
         <f>J15=[1]params_testeithink!J15</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2795,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R16" s="17" t="s">
         <v>226</v>
@@ -2859,20 +2860,20 @@
         <v>1</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T17" s="1" t="b">
         <f>J17=[1]params_testeithink!J17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2919,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R18" s="17" t="s">
         <v>226</v>
@@ -2932,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -2979,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R19" s="17" t="s">
         <v>226</v>
@@ -3039,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R20" t="s">
         <v>77</v>
@@ -3103,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q21" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R21" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T21" s="1" t="b">
         <f>J21=[1]params_testeithink!J21</f>
@@ -3166,17 +3167,17 @@
         <v>39</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T22" s="1" t="b">
         <f>J22=[1]params_testeithink!J22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>39</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R23" t="s">
         <v>85</v>
@@ -3290,20 +3291,20 @@
         <v>1</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R24" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T24" s="1" t="b">
         <f>J24=[1]params_testeithink!J24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
@@ -3350,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R25" s="17" t="s">
         <v>226</v>
@@ -3414,20 +3415,20 @@
         <v>1</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R26" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T26" s="1" t="b">
         <f>J26=[1]params_testeithink!J26</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>92</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>39</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R27" t="s">
         <v>236</v>
@@ -3489,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3534,20 +3535,20 @@
         <v>0</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q28" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R28" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T28" s="1" t="b">
         <f>J28=[1]params_testeithink!J28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -3594,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R29" s="17" t="s">
         <v>226</v>
@@ -3607,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
@@ -3654,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R30" s="17" t="s">
         <v>226</v>
@@ -3718,13 +3719,13 @@
         <v>1</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q31" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R31" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T31" s="1" t="b">
         <f>J31=[1]params_testeithink!J31</f>
@@ -3782,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R32" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T32" s="1" t="b">
         <f>J32=[1]params_testeithink!J32</f>
@@ -3846,20 +3847,20 @@
         <v>1</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R33" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="T33" s="1" t="b">
         <f>J33=[1]params_testeithink!J33</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3906,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R34" s="17" t="s">
         <v>226</v>
@@ -3919,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>39</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R35" t="s">
         <v>242</v>
@@ -3985,17 +3986,17 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -4007,7 +4008,7 @@
         <v>38</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1">
         <v>3</v>
@@ -4023,10 +4024,10 @@
         <v>39</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T36" s="1" t="b">
         <f>J36=[1]params_testeithink!J36</f>
@@ -4080,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T37" s="1" t="b">
         <f>J37=[1]params_testeithink!J37</f>
@@ -4138,13 +4139,13 @@
         <v>1</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="18" t="s">
         <v>231</v>
       </c>
       <c r="R38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T38" s="1" t="b">
         <f>J38=[1]params_testeithink!J38</f>
@@ -4195,20 +4196,20 @@
         <v>1</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>231</v>
       </c>
       <c r="R39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T39" s="1" t="b">
         <f>J39=[1]params_testeithink!J39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="18" t="s">
         <v>231</v>
@@ -4316,10 +4317,10 @@
         <v>39</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T41" s="1" t="b">
         <f>J41=[1]params_testeithink!J41</f>
@@ -4335,11 +4336,11 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" si="6"/>
-        <v>1.2500000000000001E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="7"/>
-        <v>3.7500000000000006E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>126</v>
@@ -4349,18 +4350,18 @@
       </c>
       <c r="G42" s="1">
         <f>J42/4</f>
-        <v>6.2500000000000003E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="H42" s="1">
         <f>J42*4</f>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J42" s="1">
-        <f>1/40</f>
-        <v>2.5000000000000001E-2</v>
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K42" s="1">
         <f>1/30</f>
@@ -4377,17 +4378,17 @@
         <v>39</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T42" s="1" t="b">
         <f>J42=[1]params_testeithink!J42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q43" s="18" t="s">
         <v>239</v>
@@ -4444,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q44" s="18" t="s">
         <v>239</v>
@@ -4544,7 +4545,7 @@
         <v>39</v>
       </c>
       <c r="Q45" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R45" t="s">
         <v>132</v>
@@ -4554,18 +4555,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46"/>
       <c r="F46" s="2">
@@ -4573,17 +4574,17 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" ref="G46:G51" si="9">J46/4</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:H51" si="10">J46*4</f>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K46" s="1">
         <v>10</v>
@@ -4596,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q46" s="18" t="s">
         <v>239</v>
@@ -4606,7 +4607,7 @@
       </c>
       <c r="T46" s="1" t="b">
         <f>J46=[1]params_testeithink!J46</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4652,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R47" t="s">
         <v>135</v>
@@ -4665,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>231</v>
@@ -4721,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>137</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q49" s="18" t="s">
         <v>231</v>
@@ -4822,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R50" t="s">
         <v>139</v>
@@ -4875,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R51" t="s">
         <v>141</v>
@@ -4929,17 +4930,17 @@
         <v>39</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T52" s="1" t="b">
         <f>J52=[1]params_testeithink!J52</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>238</v>
       </c>
@@ -4980,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q53" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R53" t="s">
         <v>243</v>
@@ -4993,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>143</v>
       </c>
@@ -5033,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="R54" t="s">
         <v>244</v>
@@ -5046,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>144</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>227</v>
@@ -5099,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>145</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q56" s="18" t="s">
         <v>227</v>
@@ -5152,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>146</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q57" s="18" t="s">
         <v>227</v>
@@ -5205,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q58" s="18" t="s">
         <v>227</v>
@@ -5259,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q59" s="18" t="s">
         <v>231</v>
@@ -5317,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>150</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q60" s="18" t="s">
         <v>231</v>
@@ -5371,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>151</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q61" s="18" t="s">
         <v>231</v>
@@ -5425,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>152</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q62" s="18" t="s">
         <v>231</v>
@@ -5524,10 +5525,10 @@
         <v>39</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T63" s="1" t="b">
         <f>J63=[1]params_testeithink!J63</f>
@@ -5579,10 +5580,10 @@
         <v>39</v>
       </c>
       <c r="Q64" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T64" s="1" t="b">
         <f>J64=[1]params_testeithink!J64</f>
@@ -5634,10 +5635,10 @@
         <v>39</v>
       </c>
       <c r="Q65" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R65" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T65" s="1" t="b">
         <f>J65=[1]params_testeithink!J65</f>
@@ -5689,10 +5690,10 @@
         <v>1</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q66" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>159</v>
@@ -5747,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R67" t="s">
         <v>229</v>
@@ -5805,10 +5806,10 @@
         <v>1</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R68" s="17" t="s">
         <v>229</v>
@@ -5871,13 +5872,13 @@
         <v>1</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q69" s="18" t="s">
         <v>227</v>
       </c>
       <c r="R69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T69" s="1" t="b">
         <f>J69=[1]params_testeithink!J69</f>
@@ -5937,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q70" s="18" t="s">
         <v>227</v>
@@ -6003,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q71" s="18" t="s">
         <v>227</v>
@@ -6061,13 +6062,13 @@
         <v>1</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T72" s="1" t="b">
         <f>J72=[1]params_testeithink!J72</f>
@@ -6119,10 +6120,10 @@
         <v>1</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R73" t="s">
         <v>229</v>
@@ -6177,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R74" t="s">
         <v>229</v>
@@ -6190,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>170</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q75" s="18" t="s">
         <v>232</v>
@@ -6253,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>172</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q76" s="18" t="s">
         <v>232</v>
@@ -6316,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>173</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q77" s="18" t="s">
         <v>232</v>
@@ -6379,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>174</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q78" s="18" t="s">
         <v>232</v>
@@ -6442,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>175</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>39</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>177</v>
@@ -6540,10 +6541,10 @@
         <v>39</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T80" s="1" t="b">
         <f>J80=[1]params_testeithink!J80</f>
@@ -6551,7 +6552,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T80" xr:uid="{DA22CF81-2CA1-4C04-ACDB-DC4BF7E98F20}"/>
+  <autoFilter ref="A1:T80" xr:uid="{DA22CF81-2CA1-4C04-ACDB-DC4BF7E98F20}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Incerto"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6559,10 +6566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6603,17 +6610,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.45</v>
-      </c>
       <c r="D3">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
@@ -6568,8 +6568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6610,11 +6610,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
       <c r="D3">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
       <c r="D4">
         <v>0.15</v>
       </c>

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,6 +46,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">params!$A$1:$T$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="TesteOutroNome" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="TesteOutroNome2" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
@@ -77,6 +79,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1637,33 +1641,33 @@
   </sheetPr>
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="J43" activeCellId="0" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8265306122449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.47959183673469"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="44.9540816326531"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="43.8724489795918"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="17.5510204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -6418,16 +6422,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,7 +6459,7 @@
         <v>0.3</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,10 +6470,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,7 +6481,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.15</v>
@@ -6508,13 +6512,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,7 +6607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,11 +6656,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.8265306122449"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,8 +6825,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6926,16 +6929,16 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,6 +48,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">params!$A$1:$T$80</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="TesteOutroNome" vbProcedure="false">levers!$A$1:$G$15</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="TesteOutroNome2" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
@@ -81,6 +82,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">levers!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1641,33 +1643,33 @@
   </sheetPr>
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6887755102041"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="3.64285714285714"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="43.8724489795918"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="43.3316326530612"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="17.280612244898"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -6427,11 +6429,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,11 +6513,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -6607,7 +6608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,11 +6657,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6887755102041"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,14 +6819,13 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,10 +6904,10 @@
         <v>264</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -6935,10 +6934,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao_opcao1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,81 +9,83 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
-    <sheet name="Levers_FullDesign" sheetId="2" r:id="rId2"/>
-    <sheet name="levers" sheetId="3" r:id="rId3"/>
-    <sheet name="configs" sheetId="4" r:id="rId4"/>
-    <sheet name="VariableNames" sheetId="5" r:id="rId5"/>
-    <sheet name="RangesPlausiveis" sheetId="6" r:id="rId6"/>
-    <sheet name="CalculoEstoquesIniciaisPatentes" sheetId="7" r:id="rId7"/>
+    <sheet name="params_formatados" sheetId="8" r:id="rId2"/>
+    <sheet name="Levers_FullDesign" sheetId="2" r:id="rId3"/>
+    <sheet name="levers" sheetId="3" r:id="rId4"/>
+    <sheet name="configs" sheetId="4" r:id="rId5"/>
+    <sheet name="VariableNames" sheetId="5" r:id="rId6"/>
+    <sheet name="RangesPlausiveis" sheetId="6" r:id="rId7"/>
+    <sheet name="CalculoEstoquesIniciaisPatentes" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_FilterDatabase_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$H$17</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">levers!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">levers!$A$1:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">params!$A$1:$T$80</definedName>
-    <definedName name="nome1" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$H$17</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">levers!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">levers!$A$1:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$T$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">params_formatados!$A$1:$F$80</definedName>
+    <definedName name="nome1" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="nome10" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="nome11" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="nome11" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="nome12" localSheetId="0">params!$A$1:$O$78</definedName>
     <definedName name="nome2" localSheetId="0">params!$A$1:$O$80</definedName>
-    <definedName name="nome3" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="nome3" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="nome4" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="nome5" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="nome5" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="nome6" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="nome7" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="nome7" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="nome8" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="nome9" localSheetId="2">levers!$A$1:$G$15</definedName>
-    <definedName name="TesteOutroNome" localSheetId="2">levers!$A$1:$G$15</definedName>
+    <definedName name="nome9" localSheetId="3">levers!$A$1:$G$15</definedName>
+    <definedName name="TesteOutroNome" localSheetId="3">levers!$A$1:$G$15</definedName>
     <definedName name="TesteOutroNome" localSheetId="0">params!$A$1:$O$78</definedName>
-    <definedName name="TesteOutroNome2" localSheetId="2">levers!$A$1:$H$17</definedName>
+    <definedName name="TesteOutroNome2" localSheetId="3">levers!$A$1:$H$17</definedName>
     <definedName name="Testeoutronome4" localSheetId="0">params!$A$1:$O$78</definedName>
   </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="287">
   <si>
     <t>Variavel</t>
   </si>
@@ -170,9 +172,6 @@
     <t>Fixo</t>
   </si>
   <si>
-    <t>Param. Original</t>
-  </si>
-  <si>
     <t>(STERMAN, 2007)</t>
   </si>
   <si>
@@ -258,9 +257,6 @@
   </si>
   <si>
     <t>$</t>
-  </si>
-  <si>
-    <t>Estim. Dados Obs.</t>
   </si>
   <si>
     <t>(WOHLERS, 2017)</t>
@@ -951,6 +947,21 @@
   </si>
   <si>
     <t>TempoDepreciacao</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Forma de Def.</t>
+  </si>
+  <si>
+    <t>P. Original</t>
+  </si>
+  <si>
+    <t>Estimado</t>
   </si>
 </sst>
 </file>
@@ -960,7 +971,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -983,6 +994,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1017,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1025,11 +1055,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1051,6 +1096,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,11 +1912,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37:P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
       <c r="S2"/>
       <c r="T2" s="1" t="b">
@@ -2009,10 +2065,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
@@ -2023,7 +2079,7 @@
         <v>0.04</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>0.5</v>
@@ -2054,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3"/>
       <c r="T3" s="1" t="b">
@@ -2070,10 +2126,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
@@ -2084,7 +2140,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>0.5</v>
@@ -2115,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4"/>
       <c r="T4" s="1" t="b">
@@ -2131,10 +2187,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -2145,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
         <v>0.5</v>
@@ -2176,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5"/>
       <c r="T5" s="1" t="b">
@@ -2192,10 +2248,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -2206,7 +2262,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -2220,7 +2276,7 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="5">
         <f>1/5</f>
@@ -2244,13 +2300,13 @@
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" t="s">
         <v>44</v>
-      </c>
-      <c r="R6" t="s">
-        <v>45</v>
       </c>
       <c r="S6"/>
       <c r="T6" s="1" t="b">
@@ -2260,10 +2316,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -2274,7 +2330,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2">
         <v>0.5</v>
@@ -2305,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" t="s">
-        <v>50</v>
       </c>
       <c r="S7"/>
       <c r="T7" s="1" t="b">
@@ -2321,10 +2377,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -2335,7 +2391,7 @@
         <v>107000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7">
         <v>0.5</v>
@@ -2366,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="S8" s="1">
         <f>107/0.5</f>
@@ -2385,10 +2441,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -2399,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -2411,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1">
         <v>0.2</v>
@@ -2434,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T9" s="1" t="b">
         <f>J9=[1]params_testeithink!J9</f>
@@ -2449,10 +2505,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
@@ -2463,7 +2519,7 @@
         <v>100000</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -2477,7 +2533,7 @@
         <v>200000</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="9">
         <v>50000</v>
@@ -2496,13 +2552,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T10" s="1" t="b">
         <f>J10=[1]params_testeithink!J10</f>
@@ -2511,10 +2567,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
@@ -2525,7 +2581,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -2537,7 +2593,7 @@
         <v>0.5</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1">
         <v>1E-3</v>
@@ -2556,13 +2612,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T11" s="1" t="b">
         <f>J11=[1]params_testeithink!J11</f>
@@ -2571,10 +2627,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
@@ -2585,7 +2641,7 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
@@ -2597,7 +2653,7 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="13">
         <v>0.4</v>
@@ -2620,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T12" s="1" t="b">
         <f>J12=[1]params_testeithink!J12</f>
@@ -2635,10 +2691,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10">
         <f>D10</f>
@@ -2649,7 +2705,7 @@
         <v>100000</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="10">
         <v>5</v>
@@ -2682,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T13" s="1" t="b">
         <f>J13=[1]params_testeithink!J13</f>
@@ -2697,10 +2753,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:C22" si="4">IF(I14="Incerto",MAX(G14,J14-(ABS(F14*J14))),J14)</f>
@@ -2740,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T14" s="1" t="b">
         <f>J14=[1]params_testeithink!J14</f>
@@ -2755,10 +2811,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -2769,7 +2825,7 @@
         <v>0.25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -2783,7 +2839,7 @@
         <v>0.25</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1">
         <v>0.25</v>
@@ -2806,13 +2862,13 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T15" s="1" t="b">
         <f>J15=[1]params_testeithink!J15</f>
@@ -2821,10 +2877,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -2835,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2">
         <v>0.5</v>
@@ -2866,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T16" s="1" t="b">
         <f>J16=[1]params_testeithink!J16</f>
@@ -2881,10 +2937,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -2895,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2">
         <v>0.5</v>
@@ -2907,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2930,13 +2986,13 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T17" s="1" t="b">
         <f>J17=[1]params_testeithink!J17</f>
@@ -2945,10 +3001,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -2959,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
@@ -2990,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T18" s="1" t="b">
         <f>J18=[1]params_testeithink!J18</f>
@@ -3005,10 +3061,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -3019,7 +3075,7 @@
         <v>0.25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2">
         <v>0.5</v>
@@ -3050,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T19" s="1" t="b">
         <f>J19=[1]params_testeithink!J19</f>
@@ -3065,10 +3121,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -3079,7 +3135,7 @@
         <v>-2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2">
         <v>0.5</v>
@@ -3091,7 +3147,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="1">
         <v>-4</v>
@@ -3110,13 +3166,13 @@
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T20" s="1" t="b">
         <f>J20=[1]params_testeithink!J20</f>
@@ -3125,10 +3181,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -3139,7 +3195,7 @@
         <v>-4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2">
         <v>0.5</v>
@@ -3151,7 +3207,7 @@
         <v>-4</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1">
         <v>-8</v>
@@ -3174,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T21" s="1" t="b">
         <f>J21=[1]params_testeithink!J21</f>
@@ -3189,10 +3245,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -3203,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2">
         <v>0.5</v>
@@ -3215,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1">
         <v>0.7</v>
@@ -3234,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T22" s="1" t="b">
         <f>J22=[1]params_testeithink!J22</f>
@@ -3249,10 +3305,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <f>IF(H23="Incerto",MAX(G23,J23-(ABS(F23*J23))),J23)</f>
@@ -3263,7 +3319,7 @@
         <v>100000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2">
         <v>0.5</v>
@@ -3296,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T23" s="1" t="b">
         <f>J23=[1]params_testeithink!J23</f>
@@ -3311,10 +3367,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ref="C24:C55" si="6">IF(I24="Incerto",MAX(G24,J24-(ABS(F24*J24))),J24)</f>
@@ -3325,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
@@ -3337,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
@@ -3361,13 +3417,13 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T24" s="1" t="b">
         <f>J24=[1]params_testeithink!J24</f>
@@ -3376,10 +3432,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
@@ -3390,7 +3446,7 @@
         <v>0.2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2">
         <v>0.5</v>
@@ -3421,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T25" s="1" t="b">
         <f>J25=[1]params_testeithink!J25</f>
@@ -3436,10 +3492,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
@@ -3450,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2">
         <v>0.5</v>
@@ -3462,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1">
         <v>0.8</v>
@@ -3485,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T26" s="1" t="b">
         <f>J26=[1]params_testeithink!J26</f>
@@ -3500,10 +3556,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
@@ -3514,7 +3570,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2">
         <v>0.5</v>
@@ -3547,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T27" s="1" t="b">
         <f>J27=[1]params_testeithink!J27</f>
@@ -3562,10 +3618,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
@@ -3605,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T28" s="1" t="b">
         <f>J28=[1]params_testeithink!J28</f>
@@ -3620,10 +3676,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="6"/>
@@ -3634,7 +3690,7 @@
         <v>0.25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2">
         <v>0.5</v>
@@ -3665,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T29" s="1" t="b">
         <f>J29=[1]params_testeithink!J29</f>
@@ -3680,10 +3736,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
@@ -3694,7 +3750,7 @@
         <v>0.25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2">
         <v>0.5</v>
@@ -3725,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T30" s="1" t="b">
         <f>J30=[1]params_testeithink!J30</f>
@@ -3740,10 +3796,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
@@ -3754,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="2">
         <v>4</v>
@@ -3766,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -3789,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T31" s="1" t="b">
         <f>J31=[1]params_testeithink!J31</f>
@@ -3804,10 +3860,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
@@ -3818,7 +3874,7 @@
         <v>0.25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2">
         <v>4</v>
@@ -3830,7 +3886,7 @@
         <v>0.25</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32" s="1">
         <v>0.25</v>
@@ -3853,13 +3909,13 @@
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T32" s="1" t="b">
         <f>J32=[1]params_testeithink!J32</f>
@@ -3868,10 +3924,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
@@ -3882,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="2">
         <v>4</v>
@@ -3894,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33" s="1">
         <v>-0.1</v>
@@ -3917,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T33" s="1" t="b">
         <f>J33=[1]params_testeithink!J33</f>
@@ -3932,10 +3988,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
@@ -3946,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="2">
         <v>0.5</v>
@@ -3977,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T34" s="1" t="b">
         <f>J34=[1]params_testeithink!J34</f>
@@ -3992,10 +4048,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
@@ -4006,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="2">
         <v>0.5</v>
@@ -4034,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T35" s="1" t="b">
         <f>J35=[1]params_testeithink!J35</f>
@@ -4049,10 +4105,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
@@ -4063,7 +4119,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -4075,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
@@ -4091,13 +4147,13 @@
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T36" s="1" t="b">
         <f>J36=[1]params_testeithink!J36</f>
@@ -4106,10 +4162,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
@@ -4120,7 +4176,7 @@
         <v>3000000</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37" s="2">
         <v>0.5</v>
@@ -4134,7 +4190,7 @@
         <v>8000000</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37" s="1">
         <f>2*10^6</f>
@@ -4151,13 +4207,13 @@
         <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T37" s="1" t="b">
         <f>J37=[1]params_testeithink!J37</f>
@@ -4166,10 +4222,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
@@ -4180,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2">
         <v>0.5</v>
@@ -4193,7 +4249,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" s="1">
         <v>2</v>
@@ -4209,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T38" s="1" t="b">
         <f>J38=[1]params_testeithink!J38</f>
@@ -4224,10 +4280,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="6"/>
@@ -4238,7 +4294,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2">
         <v>0.5</v>
@@ -4250,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1">
         <v>0.4</v>
@@ -4266,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T39" s="1" t="b">
         <f>J39=[1]params_testeithink!J39</f>
@@ -4281,10 +4337,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="6"/>
@@ -4295,7 +4351,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2">
         <v>0.5</v>
@@ -4325,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T40" s="1" t="b">
         <f>J40=[1]params_testeithink!J40</f>
@@ -4340,10 +4396,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="6"/>
@@ -4354,7 +4410,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2">
         <v>0.5</v>
@@ -4368,7 +4424,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J41" s="1">
         <v>10</v>
@@ -4384,13 +4440,13 @@
         <v>1</v>
       </c>
       <c r="P41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T41" s="1" t="b">
         <f>J41=[1]params_testeithink!J41</f>
@@ -4399,10 +4455,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="6"/>
@@ -4413,7 +4469,7 @@
         <v>3.7191435060448481E-2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2">
         <v>0.5</v>
@@ -4427,7 +4483,7 @@
         <v>9.9177160161195946E-2</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42" s="1">
         <f>CalculoEstoquesIniciaisPatentes!E18</f>
@@ -4445,13 +4501,13 @@
         <v>1</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T42" s="1" t="b">
         <f>J42=[1]params_testeithink!J42</f>
@@ -4460,10 +4516,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="6"/>
@@ -4502,13 +4558,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T43" s="1" t="b">
         <f>J43=[1]params_testeithink!J43</f>
@@ -4517,10 +4573,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="6"/>
@@ -4559,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T44" s="1" t="b">
         <f>J44=[1]params_testeithink!J44</f>
@@ -4574,7 +4630,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="2">
@@ -4596,7 +4652,7 @@
         <v>-4</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J45" s="1">
         <v>-8</v>
@@ -4612,13 +4668,13 @@
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q45" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T45" s="1" t="b">
         <f>J45=[1]params_testeithink!J45</f>
@@ -4627,7 +4683,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="2">
@@ -4667,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T46" s="1" t="b">
         <f>J46=[1]params_testeithink!J46</f>
@@ -4682,7 +4738,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2">
@@ -4723,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T47" s="1" t="b">
         <f>J47=[1]params_testeithink!J47</f>
@@ -4738,7 +4794,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="2">
@@ -4779,13 +4835,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T48" s="1" t="b">
         <f>J48=[1]params_testeithink!J48</f>
@@ -4794,7 +4850,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49"/>
       <c r="C49" s="2">
@@ -4835,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T49" s="1" t="b">
         <f>J49=[1]params_testeithink!J49</f>
@@ -4850,7 +4906,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="2">
@@ -4891,13 +4947,13 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T50" s="1" t="b">
         <f>J50=[1]params_testeithink!J50</f>
@@ -4906,7 +4962,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="2">
@@ -4947,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T51" s="1" t="b">
         <f>J51=[1]params_testeithink!J51</f>
@@ -4962,7 +5018,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="2">
@@ -4984,7 +5040,7 @@
         <v>0.8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52" s="1">
         <v>0.4</v>
@@ -4998,13 +5054,13 @@
         <v>1</v>
       </c>
       <c r="P52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T52" s="1" t="b">
         <f>J52=[1]params_testeithink!J52</f>
@@ -5013,7 +5069,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="7">
@@ -5052,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T53" s="1" t="b">
         <f>J53=[1]params_testeithink!J53</f>
@@ -5067,7 +5123,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="7">
@@ -5105,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T54" s="1" t="b">
         <f>J54=[1]params_testeithink!J54</f>
@@ -5120,7 +5176,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B55"/>
       <c r="C55" s="2">
@@ -5132,7 +5188,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F55" s="2">
         <v>0.5</v>
@@ -5158,13 +5214,13 @@
         <v>0</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T55" s="1" t="b">
         <f>J55=[1]params_testeithink!J55</f>
@@ -5173,7 +5229,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B56"/>
       <c r="C56" s="2">
@@ -5185,7 +5241,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F56" s="2">
         <v>0.5</v>
@@ -5211,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T56" s="1" t="b">
         <f>J56=[1]params_testeithink!J56</f>
@@ -5226,7 +5282,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B57"/>
       <c r="C57" s="2">
@@ -5238,7 +5294,7 @@
         <v>0.15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="2">
         <v>0.5</v>
@@ -5264,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T57" s="1" t="b">
         <f>J57=[1]params_testeithink!J57</f>
@@ -5279,7 +5335,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2">
@@ -5291,7 +5347,7 @@
         <v>0.27999999999999992</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F58" s="2">
         <v>0.5</v>
@@ -5318,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T58" s="1" t="b">
         <f>J58=[1]params_testeithink!J58</f>
@@ -5333,10 +5389,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="11"/>
@@ -5347,7 +5403,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F59" s="2">
         <v>0.5</v>
@@ -5376,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T59" s="1" t="b">
         <f>J59=[1]params_testeithink!J59</f>
@@ -5391,7 +5447,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B60"/>
       <c r="C60" s="2">
@@ -5403,7 +5459,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2">
         <v>0.5</v>
@@ -5430,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T60" s="1" t="b">
         <f>J60=[1]params_testeithink!J60</f>
@@ -5445,7 +5501,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="2">
@@ -5457,7 +5513,7 @@
         <v>0.15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2">
         <v>0.5</v>
@@ -5484,13 +5540,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T61" s="1" t="b">
         <f>J61=[1]params_testeithink!J61</f>
@@ -5499,7 +5555,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="2">
@@ -5511,7 +5567,7 @@
         <v>0.27999999999999992</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F62" s="2">
         <v>0.5</v>
@@ -5538,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T62" s="1" t="b">
         <f>J62=[1]params_testeithink!J62</f>
@@ -5553,10 +5609,10 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="11"/>
@@ -5567,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F63" s="2">
         <v>3</v>
@@ -5579,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J63" s="1">
         <v>0.5</v>
@@ -5593,13 +5649,13 @@
         <v>1</v>
       </c>
       <c r="P63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T63" s="1" t="b">
         <f>J63=[1]params_testeithink!J63</f>
@@ -5608,10 +5664,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="11"/>
@@ -5622,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2">
         <v>3</v>
@@ -5634,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J64" s="1">
         <v>0.5</v>
@@ -5648,13 +5704,13 @@
         <v>1</v>
       </c>
       <c r="P64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R64" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T64" s="1" t="b">
         <f>J64=[1]params_testeithink!J64</f>
@@ -5663,10 +5719,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="11"/>
@@ -5677,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2">
         <v>3</v>
@@ -5689,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65" s="1">
         <v>0.5</v>
@@ -5703,13 +5759,13 @@
         <v>1</v>
       </c>
       <c r="P65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q65" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R65" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T65" s="1" t="b">
         <f>J65=[1]params_testeithink!J65</f>
@@ -5718,10 +5774,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="11"/>
@@ -5732,7 +5788,7 @@
         <v>0.15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F66" s="2">
         <v>5</v>
@@ -5745,7 +5801,7 @@
         <v>0.15</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66" s="1">
         <v>0.1</v>
@@ -5761,13 +5817,13 @@
         <v>1</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T66" s="1" t="b">
         <f>J66=[1]params_testeithink!J66</f>
@@ -5776,10 +5832,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="11"/>
@@ -5790,7 +5846,7 @@
         <v>0.15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F67" s="2">
         <v>5</v>
@@ -5803,7 +5859,7 @@
         <v>0.15</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J67" s="1">
         <v>0.1</v>
@@ -5819,13 +5875,13 @@
         <v>1</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T67" s="1" t="b">
         <f>J67=[1]params_testeithink!J67</f>
@@ -5834,10 +5890,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="11"/>
@@ -5848,7 +5904,7 @@
         <v>0.15</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
@@ -5861,7 +5917,7 @@
         <v>0.15</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J68" s="1">
         <v>0.1</v>
@@ -5877,13 +5933,13 @@
         <v>1</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T68" s="1" t="b">
         <f>J68=[1]params_testeithink!J68</f>
@@ -5892,10 +5948,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="11"/>
@@ -5906,7 +5962,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
@@ -5919,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J69" s="1">
         <f>J56</f>
@@ -5943,13 +5999,13 @@
         <v>1</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T69" s="1" t="b">
         <f>J69=[1]params_testeithink!J69</f>
@@ -5958,10 +6014,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="11"/>
@@ -5972,7 +6028,7 @@
         <v>0.3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
@@ -5985,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J70" s="1">
         <f>J57</f>
@@ -6009,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T70" s="1" t="b">
         <f>J70=[1]params_testeithink!J70</f>
@@ -6024,10 +6080,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="11"/>
@@ -6038,7 +6094,7 @@
         <v>0.55999999999999983</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -6051,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71" s="1">
         <f>J58</f>
@@ -6075,13 +6131,13 @@
         <v>1</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T71" s="1" t="b">
         <f>J71=[1]params_testeithink!J71</f>
@@ -6090,10 +6146,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="11"/>
@@ -6114,7 +6170,7 @@
         <v>2.5</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J72" s="1">
         <v>1.5</v>
@@ -6133,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q72" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R72" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T72" s="1" t="b">
         <f>J72=[1]params_testeithink!J72</f>
@@ -6148,10 +6204,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="11"/>
@@ -6172,7 +6228,7 @@
         <v>2.5</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J73" s="1">
         <v>1.5</v>
@@ -6191,13 +6247,13 @@
         <v>1</v>
       </c>
       <c r="P73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T73" s="1" t="b">
         <f>J73=[1]params_testeithink!J73</f>
@@ -6206,10 +6262,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="11"/>
@@ -6230,7 +6286,7 @@
         <v>2.5</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J74" s="1">
         <v>1.5</v>
@@ -6249,13 +6305,13 @@
         <v>1</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T74" s="1" t="b">
         <f>J74=[1]params_testeithink!J74</f>
@@ -6264,10 +6320,10 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="11"/>
@@ -6278,7 +6334,7 @@
         <v>107000</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F75" s="7">
         <v>0.5</v>
@@ -6312,13 +6368,13 @@
         <v>1</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R75" t="s">
         <v>54</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R75" t="s">
-        <v>56</v>
       </c>
       <c r="T75" s="1" t="b">
         <f>J75=[1]params_testeithink!J75</f>
@@ -6327,10 +6383,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="11"/>
@@ -6341,7 +6397,7 @@
         <v>107000</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F76" s="7">
         <v>0.5</v>
@@ -6375,13 +6431,13 @@
         <v>1</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T76" s="1" t="b">
         <f>J76=[1]params_testeithink!J76</f>
@@ -6390,10 +6446,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="11"/>
@@ -6404,7 +6460,7 @@
         <v>107000</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F77" s="7">
         <v>0.5</v>
@@ -6438,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T77" s="1" t="b">
         <f>J77=[1]params_testeithink!J77</f>
@@ -6453,10 +6509,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="11"/>
@@ -6467,7 +6523,7 @@
         <v>107000</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F78" s="7">
         <v>0.5</v>
@@ -6501,13 +6557,13 @@
         <v>0</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T78" s="1" t="b">
         <f>J78=[1]params_testeithink!J78</f>
@@ -6516,10 +6572,10 @@
     </row>
     <row r="79" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="11"/>
@@ -6530,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -6551,13 +6607,13 @@
         <v>1</v>
       </c>
       <c r="P79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R79" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T79" s="1" t="b">
         <f>J79=[1]params_testeithink!J79</f>
@@ -6566,10 +6622,10 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="11"/>
@@ -6580,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F80" s="2">
         <v>2</v>
@@ -6601,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="P80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q80" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R80" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T80" s="1" t="b">
         <f>J80=[1]params_testeithink!J80</f>
@@ -6622,6 +6678,2108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB94FE-E012-4080-92A2-88A8C5EF8D99}">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="str">
+        <f>params!A1</f>
+        <v>Variavel</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="str">
+        <f>params!A2</f>
+        <v>aUnitsPerHousehold</v>
+      </c>
+      <c r="B2" s="20">
+        <f>params!C2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <f>params!D2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="str">
+        <f>params!P2</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E2" s="19" t="str">
+        <f>params!Q2</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F2" s="19" t="str">
+        <f>params!R2</f>
+        <v>Este parâmetro representa o número de unidades vendidas em média para cada consumidor. Considerando que a estimativa de consumidores é um parâmetro incerto, optou-se por manter este valor igual à um. Sendo assim, o parâmetro que representa o tamanho do mercado corresponderá dimensionalmente ao número de produtos.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="str">
+        <f>params!A3</f>
+        <v>aDiscountRate</v>
+      </c>
+      <c r="B3" s="20">
+        <f>params!C3</f>
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="20">
+        <f>params!D3</f>
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>params!P3</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E3" s="19" t="str">
+        <f>params!Q3</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F3" s="19" t="str">
+        <f>params!R3</f>
+        <v>Mantém-se o parâmetro informado por Sterman, com o propósito de representar um mercado global.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="str">
+        <f>params!A4</f>
+        <v>aNormalDeliveryDelay</v>
+      </c>
+      <c r="B4" s="20">
+        <f>params!C4</f>
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="20">
+        <f>params!D4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>params!P4</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E4" s="19" t="str">
+        <f>params!Q4</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f>params!R4</f>
+        <v>Mantém-se o parâmetro informado por Sterman, visto que o propósito do modelo não é representar uma mudança no tempo de entrega esperado pelos consumidores.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="str">
+        <f>params!A5</f>
+        <v>aSwitchForCapacity</v>
+      </c>
+      <c r="B5" s="20">
+        <f>params!C5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <f>params!D5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>params!P5</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E5" s="19" t="str">
+        <f>params!Q5</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F5" s="19" t="str">
+        <f>params!R5</f>
+        <v>Mantém-se a decisão de permitir que a capacidade limite a produção dos players.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="str">
+        <f>params!A6</f>
+        <v>aFractionalDiscardRate</v>
+      </c>
+      <c r="B6" s="20">
+        <f>params!C6</f>
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="20">
+        <f>params!D6</f>
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>params!P6</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f>params!Q6</f>
+        <v>NA</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f>params!R6</f>
+        <v>Foi arbitrado um range de vida útil da impressora de 5 a 10 anos. Considera-se este fator como incerto, visto que novas tecnologias podem “encurtar” a vida útil de equipamentos já instalados, tornando-os obsoletos.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="str">
+        <f>params!A7</f>
+        <v>aInitialDiffusionFraction</v>
+      </c>
+      <c r="B7" s="20">
+        <f>params!C7</f>
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="20">
+        <f>params!D7</f>
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>params!P7</f>
+        <v>Não utilizado.</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f>params!Q7</f>
+        <v>NA</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f>params!R7</f>
+        <v>Variável não utilizada.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="str">
+        <f>params!A8</f>
+        <v>aReferencePrice</v>
+      </c>
+      <c r="B8" s="20">
+        <f>params!C8</f>
+        <v>107000</v>
+      </c>
+      <c r="C8" s="20">
+        <f>params!D8</f>
+        <v>107000</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>params!P8</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E8" s="19" t="str">
+        <f>params!Q8</f>
+        <v>(WOHLERS, 2017)</v>
+      </c>
+      <c r="F8" s="19" t="str">
+        <f>params!R8</f>
+        <v>Considera-se o valor inicial de sistemas de impressão 3D igual a 104 mil USD (WOHLERS, 2017, m. 34:18). Não há informação disponível sobre a precificação individual dos players. Pressupõe-se que o preço inicial será igual para todos os players, e será ajustado pelo modelo conforme o market share desejado pela empresa.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="str">
+        <f>params!A9</f>
+        <v>aReferenceIndustryDemandElasticity</v>
+      </c>
+      <c r="B9" s="20">
+        <f>params!C9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <f>params!D9</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>params!P9</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E9" s="19" t="str">
+        <f>params!Q9</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f>params!R9</f>
+        <v>Não há série histórica disponível de preços versus demanda para a calibração deste parâmetro. Foram utilizados os limites inseridos por Sterman em sua análise de sensibilidade.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="168" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="str">
+        <f>params!A10</f>
+        <v>aReferencePopulation</v>
+      </c>
+      <c r="B10" s="20">
+        <f>params!C10</f>
+        <v>25000</v>
+      </c>
+      <c r="C10" s="20">
+        <f>params!D10</f>
+        <v>100000</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>params!P10</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E10" s="19" t="str">
+        <f>params!Q10</f>
+        <v>NA</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f>params!R10</f>
+        <v>Este parâmetro define a escala do modelo, e representa uma estimativa do tamanho do mercado disponível para a manufatura aditiva, considerando o preço atual. Considerando que a última demanda anual foi da ordem de 12000 impressoras por ano, e a análise considera que a impressora tem vida útil de 5 a 10 anos, estimou-se um mercado para 50.000 impressoras instaladas considerando o preço atual. Levando em consideração que o mercado pode expandir em função da descoberta de novas aplicações para a impressão 3D, esta análise considerou que o mercado de impressão 3D, em dez anos, não será menor do que 25.000 impressoras e não será maior do que 200.000 impressoras instaladas, no nível de preço atual.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="str">
+        <f>params!A11</f>
+        <v>aInnovatorAdoptionFraction</v>
+      </c>
+      <c r="B11" s="20">
+        <f>params!C11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <f>params!D11</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f>params!P11</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E11" s="19" t="str">
+        <f>params!Q11</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f>params!R11</f>
+        <v>Não há fonte de informação para definição deste parâmetro. Adotado o valor arbitrado por Sterman, com um fator de variação 10.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="str">
+        <f>params!A12</f>
+        <v>aWOMStrength</v>
+      </c>
+      <c r="B12" s="20">
+        <f>params!C12</f>
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="20">
+        <f>params!D12</f>
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>params!P12</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E12" s="19" t="str">
+        <f>params!Q12</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F12" s="19" t="str">
+        <f>params!R12</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="str">
+        <f>params!A13</f>
+        <v>aPopulation</v>
+      </c>
+      <c r="B13" s="20">
+        <f>params!C13</f>
+        <v>100000</v>
+      </c>
+      <c r="C13" s="20">
+        <f>params!D13</f>
+        <v>100000</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f>params!P13</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E13" s="19" t="str">
+        <f>params!Q13</f>
+        <v>NA</v>
+      </c>
+      <c r="F13" s="19" t="str">
+        <f>params!R13</f>
+        <v>Este parâmetro representa a população total inserida no modelo. Este valor corresponde ao tamanho do mercado máximo arbitrado.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="str">
+        <f>params!A14</f>
+        <v>aSwitchForShipmentsInForecast</v>
+      </c>
+      <c r="B14" s="20">
+        <f>params!C14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <f>params!D14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f>params!P14</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E14" s="19" t="str">
+        <f>params!Q14</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F14" s="19" t="str">
+        <f>params!R14</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="str">
+        <f>params!A15</f>
+        <v>aVolumeReportingDelay</v>
+      </c>
+      <c r="B15" s="20">
+        <f>params!C15</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C15" s="20">
+        <f>params!D15</f>
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>params!P15</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E15" s="19" t="str">
+        <f>params!Q15</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F15" s="19" t="str">
+        <f>params!R15</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="str">
+        <f>params!A16</f>
+        <v>aForecastHorizon</v>
+      </c>
+      <c r="B16" s="20">
+        <f>params!C16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="20">
+        <f>params!D16</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>params!P16</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E16" s="19" t="str">
+        <f>params!Q16</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F16" s="19" t="str">
+        <f>params!R16</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="str">
+        <f>params!A17</f>
+        <v>aCapacityAcquisitionDelay</v>
+      </c>
+      <c r="B17" s="20">
+        <f>params!C17</f>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="20">
+        <f>params!D17</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f>params!P17</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E17" s="19" t="str">
+        <f>params!Q17</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f>params!R17</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="str">
+        <f>params!A18</f>
+        <v>aTimeForHistoricalVolume</v>
+      </c>
+      <c r="B18" s="20">
+        <f>params!C18</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="20">
+        <f>params!D18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>params!P18</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E18" s="19" t="str">
+        <f>params!Q18</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F18" s="19" t="str">
+        <f>params!R18</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="str">
+        <f>params!A19</f>
+        <v>aReferenceDeliveryDelay</v>
+      </c>
+      <c r="B19" s="20">
+        <f>params!C19</f>
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="20">
+        <f>params!D19</f>
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>params!P19</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E19" s="19" t="str">
+        <f>params!Q19</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F19" s="19" t="str">
+        <f>params!R19</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="str">
+        <f>params!A20</f>
+        <v>aSensOfAttractToAvailability</v>
+      </c>
+      <c r="B20" s="20">
+        <f>params!C20</f>
+        <v>-6</v>
+      </c>
+      <c r="C20" s="20">
+        <f>params!D20</f>
+        <v>-2</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f>params!P20</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E20" s="19" t="str">
+        <f>params!Q20</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F20" s="19" t="str">
+        <f>params!R20</f>
+        <v>Valor base obtido em Sterman, com uma variação adicionada.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="str">
+        <f>params!A21</f>
+        <v>aSensOfAttractToPrice</v>
+      </c>
+      <c r="B21" s="20">
+        <f>params!C21</f>
+        <v>-12</v>
+      </c>
+      <c r="C21" s="20">
+        <f>params!D21</f>
+        <v>-4</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f>params!P21</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E21" s="19" t="str">
+        <f>params!Q21</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F21" s="19" t="str">
+        <f>params!R21</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="str">
+        <f>params!A22</f>
+        <v>aLCStrength</v>
+      </c>
+      <c r="B22" s="20">
+        <f>params!C22</f>
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="20">
+        <f>params!D22</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f>params!P22</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E22" s="19" t="str">
+        <f>params!Q22</f>
+        <v>NA</v>
+      </c>
+      <c r="F22" s="19" t="str">
+        <f>params!R22</f>
+        <v>Arbitrado o valor de 0,7 a 1, pressupondo que o custo será reduzido em 30% caso a empresa produza a mesma quantidade de produtos vendidos inicialmente.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="str">
+        <f>params!A23</f>
+        <v>aInitialProductionExperience</v>
+      </c>
+      <c r="B23" s="20">
+        <f>params!C23</f>
+        <v>100000</v>
+      </c>
+      <c r="C23" s="20">
+        <f>params!D23</f>
+        <v>100000</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>params!P23</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E23" s="19" t="str">
+        <f>params!Q23</f>
+        <v>NA</v>
+      </c>
+      <c r="F23" s="19" t="str">
+        <f>params!R23</f>
+        <v>Para simplificação, considerou-se que todos os players iniciam a simulação com o mesmo valor de experiência de produção, equivalente à 20.000 unidades produzidas.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="str">
+        <f>params!A24</f>
+        <v>aRatioOfFixedToVarCost</v>
+      </c>
+      <c r="B24" s="20">
+        <f>params!C24</f>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C24" s="20">
+        <f>params!D24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f>params!P24</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E24" s="19" t="str">
+        <f>params!Q24</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F24" s="19" t="str">
+        <f>params!R24</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="str">
+        <f>params!A25</f>
+        <v>aNormalProfitMargin</v>
+      </c>
+      <c r="B25" s="20">
+        <f>params!C25</f>
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="20">
+        <f>params!D25</f>
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f>params!P25</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E25" s="19" t="str">
+        <f>params!Q25</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F25" s="19" t="str">
+        <f>params!R25</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="str">
+        <f>params!A26</f>
+        <v>aNormalCapacityUtilization</v>
+      </c>
+      <c r="B26" s="20">
+        <f>params!C26</f>
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="20">
+        <f>params!D26</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f>params!P26</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E26" s="19" t="str">
+        <f>params!Q26</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F26" s="19" t="str">
+        <f>params!R26</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="str">
+        <f>params!A27</f>
+        <v>aMinimumEfficientScale</v>
+      </c>
+      <c r="B27" s="20">
+        <f>params!C27</f>
+        <v>200</v>
+      </c>
+      <c r="C27" s="20">
+        <f>params!D27</f>
+        <v>200</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f>params!P27</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E27" s="19" t="str">
+        <f>params!Q27</f>
+        <v>NA</v>
+      </c>
+      <c r="F27" s="19" t="str">
+        <f>params!R27</f>
+        <v>Este parâmetro é apenas utilizado pelo modelo como um batente mínimo para a capacidade. O valor definido neste parâmetro serve como um valor de capacidade mínimo, abaixo do qual a capacidade da empresa não pode ser definida. Será arbitrado o valor 120 para que nenhum player possa ter capacidade produtiva menor do que 1% do mercado (aproximadamente 12000 no ano inicial).</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="str">
+        <f>params!A28</f>
+        <v>aWeightOnSupplyLine</v>
+      </c>
+      <c r="B28" s="20">
+        <f>params!C28</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="20">
+        <f>params!D28</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f>params!P28</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E28" s="19" t="str">
+        <f>params!Q28</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F28" s="19" t="str">
+        <f>params!R28</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="str">
+        <f>params!A29</f>
+        <v>aTimeToPerceiveCompTargetCapacity</v>
+      </c>
+      <c r="B29" s="20">
+        <f>params!C29</f>
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="20">
+        <f>params!D29</f>
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f>params!P29</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E29" s="19" t="str">
+        <f>params!Q29</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f>params!R29</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="str">
+        <f>params!A30</f>
+        <v>aPriceAdjustmentTime</v>
+      </c>
+      <c r="B30" s="20">
+        <f>params!C30</f>
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="20">
+        <f>params!D30</f>
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <f>params!P30</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E30" s="19" t="str">
+        <f>params!Q30</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f>params!R30</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="str">
+        <f>params!A31</f>
+        <v>aSensOfPriceToCosts</v>
+      </c>
+      <c r="B31" s="20">
+        <f>params!C31</f>
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="20">
+        <f>params!D31</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="19" t="str">
+        <f>params!P31</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E31" s="19" t="str">
+        <f>params!Q31</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F31" s="19" t="str">
+        <f>params!R31</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="str">
+        <f>params!A32</f>
+        <v>aSensOfPriceToDSBalance</v>
+      </c>
+      <c r="B32" s="20">
+        <f>params!C32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="20">
+        <f>params!D32</f>
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f>params!P32</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E32" s="19" t="str">
+        <f>params!Q32</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f>params!R32</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="str">
+        <f>params!A33</f>
+        <v>aSensOfPriceToShare</v>
+      </c>
+      <c r="B33" s="20">
+        <f>params!C33</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C33" s="20">
+        <f>params!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f>params!P33</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E33" s="19" t="str">
+        <f>params!Q33</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F33" s="19" t="str">
+        <f>params!R33</f>
+        <v>Utilizado o range testado por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="str">
+        <f>params!A34</f>
+        <v>aSwitchForPerfectCapacity</v>
+      </c>
+      <c r="B34" s="20">
+        <f>params!C34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="20">
+        <f>params!D34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f>params!P34</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E34" s="19" t="str">
+        <f>params!Q34</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f>params!R34</f>
+        <v>Manteve-se o parâmetro definido por Sterman (2007).</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="str">
+        <f>params!A35</f>
+        <v>aPeDLigado</v>
+      </c>
+      <c r="B35" s="20">
+        <f>params!C35</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="20">
+        <f>params!D35</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f>params!P35</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E35" s="19" t="str">
+        <f>params!Q35</f>
+        <v>NA</v>
+      </c>
+      <c r="F35" s="19" t="str">
+        <f>params!R35</f>
+        <v>O módulo PeD deve ser ativado na análise.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="str">
+        <f>params!A36</f>
+        <v>aTempoMedioRealizacaoPeD</v>
+      </c>
+      <c r="B36" s="20">
+        <f>params!C36</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="20">
+        <f>params!D36</f>
+        <v>4</v>
+      </c>
+      <c r="D36" s="19" t="str">
+        <f>params!P36</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E36" s="19" t="str">
+        <f>params!Q36</f>
+        <v>NA</v>
+      </c>
+      <c r="F36" s="19" t="str">
+        <f>params!R36</f>
+        <v>Arbitrado.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="str">
+        <f>params!A37</f>
+        <v>aCustoMedioPatente</v>
+      </c>
+      <c r="B37" s="20">
+        <f>params!C37</f>
+        <v>1000000</v>
+      </c>
+      <c r="C37" s="20">
+        <f>params!D37</f>
+        <v>3000000</v>
+      </c>
+      <c r="D37" s="19" t="str">
+        <f>params!P37</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E37" s="19" t="str">
+        <f>params!Q37</f>
+        <v>Tentar fazer busca de patentes pela 3D systems, e olhar apenas patentes ganhas nos últios 5 anos.</v>
+      </c>
+      <c r="F37" s="19" t="str">
+        <f>params!R37</f>
+        <v>Calculado considerando todo o investimento observado em P&amp;D da 3D Systems, dividido pelo número de patentes de posse da 3D systems observado.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="str">
+        <f>params!A38</f>
+        <v>aTempoMedioAvaliacao</v>
+      </c>
+      <c r="B38" s="20">
+        <f>params!C38</f>
+        <v>1.5</v>
+      </c>
+      <c r="C38" s="20">
+        <f>params!D38</f>
+        <v>3</v>
+      </c>
+      <c r="D38" s="19" t="str">
+        <f>params!P38</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E38" s="19" t="str">
+        <f>params!Q38</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f>params!R38</f>
+        <v>O tempo médio de avaliação foi considerado como incerto, variando de 1,5 a 3 anos. A média observada é de 1 ano e 8 meses).</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="str">
+        <f>params!A39</f>
+        <v>aTaxaRejeicao</v>
+      </c>
+      <c r="B39" s="20">
+        <f>params!C39</f>
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="20">
+        <f>params!D39</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D39" s="19" t="str">
+        <f>params!P39</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E39" s="19" t="str">
+        <f>params!Q39</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F39" s="19" t="str">
+        <f>params!R39</f>
+        <v>A Taxa de rejeição média calculada foi de 0,4. Esta variável também foi considerada como incerta, devido ao fato de que o crescimento do número de patentes emitidas pode aumentar esta taxa ao longo do tempo.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="str">
+        <f>params!A40</f>
+        <v>aTempoVencimentoPatentes</v>
+      </c>
+      <c r="B40" s="20">
+        <f>params!C40</f>
+        <v>18</v>
+      </c>
+      <c r="C40" s="20">
+        <f>params!D40</f>
+        <v>18</v>
+      </c>
+      <c r="D40" s="19" t="str">
+        <f>params!P40</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E40" s="19" t="str">
+        <f>params!Q40</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F40" s="19" t="str">
+        <f>params!R40</f>
+        <v xml:space="preserve">Considerado como 18, visto que, no modelo, a patente </v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="str">
+        <f>params!A41</f>
+        <v>aTempodeInutilizacaoPatente</v>
+      </c>
+      <c r="B41" s="20">
+        <f>params!C41</f>
+        <v>5</v>
+      </c>
+      <c r="C41" s="20">
+        <f>params!D41</f>
+        <v>15</v>
+      </c>
+      <c r="D41" s="19" t="str">
+        <f>params!P41</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E41" s="19" t="str">
+        <f>params!Q41</f>
+        <v>NA</v>
+      </c>
+      <c r="F41" s="19" t="str">
+        <f>params!R41</f>
+        <v>Considera-se que uma patente em donmínio público não será útil (ou seja, não gerará performance) idenfinidamente. Foram arbitrados tempos máximos e mínimos para esta variável.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="str">
+        <f>params!A42</f>
+        <v>aPerfSlope</v>
+      </c>
+      <c r="B42" s="20">
+        <f>params!C42</f>
+        <v>1.2397145020149493E-2</v>
+      </c>
+      <c r="C42" s="20">
+        <f>params!D42</f>
+        <v>3.7191435060448481E-2</v>
+      </c>
+      <c r="D42" s="19" t="str">
+        <f>params!P42</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E42" s="19" t="str">
+        <f>params!Q42</f>
+        <v>NA</v>
+      </c>
+      <c r="F42" s="19" t="str">
+        <f>params!R42</f>
+        <v>Arbitrado.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="str">
+        <f>params!A43</f>
+        <v>aPerfMin</v>
+      </c>
+      <c r="B43" s="20">
+        <f>params!C43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="20">
+        <f>params!D43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="19" t="str">
+        <f>params!P43</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E43" s="19" t="str">
+        <f>params!Q43</f>
+        <v>(3D HUBS, 2017b)</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f>params!R43</f>
+        <v>Considerou-se os mesmos valores mínimos e máximos de índices de performance empregados na 3D Printer Index).</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="str">
+        <f>params!A44</f>
+        <v>aPerfMax</v>
+      </c>
+      <c r="B44" s="20">
+        <f>params!C44</f>
+        <v>10</v>
+      </c>
+      <c r="C44" s="20">
+        <f>params!D44</f>
+        <v>10</v>
+      </c>
+      <c r="D44" s="19" t="str">
+        <f>params!P44</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E44" s="19" t="str">
+        <f>params!Q44</f>
+        <v>(3D HUBS, 2017b)</v>
+      </c>
+      <c r="F44" s="19" t="str">
+        <f>params!R44</f>
+        <v>Considerou-se os mesmos valores mínimos e máximos de índices de performance empregados na 3D Printer Index).</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="str">
+        <f>params!A45</f>
+        <v>aSensOfAttractToPerformance</v>
+      </c>
+      <c r="B45" s="20">
+        <f>params!C45</f>
+        <v>-12</v>
+      </c>
+      <c r="C45" s="20">
+        <f>params!D45</f>
+        <v>-4</v>
+      </c>
+      <c r="D45" s="19" t="str">
+        <f>params!P45</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E45" s="19" t="str">
+        <f>params!Q45</f>
+        <v>NA</v>
+      </c>
+      <c r="F45" s="19" t="str">
+        <f>params!R45</f>
+        <v>Baseado no parâmetro de maior importância em Sterman.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="str">
+        <f>params!A46</f>
+        <v>aReferencePerformance</v>
+      </c>
+      <c r="B46" s="20">
+        <f>params!C46</f>
+        <v>6</v>
+      </c>
+      <c r="C46" s="20">
+        <f>params!D46</f>
+        <v>6</v>
+      </c>
+      <c r="D46" s="19" t="str">
+        <f>params!P46</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E46" s="19" t="str">
+        <f>params!Q46</f>
+        <v>(3D HUBS, 2017b)</v>
+      </c>
+      <c r="F46" s="19" t="str">
+        <f>params!R46</f>
+        <v>Como referência, adotou-se o valor de performance máximo.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="str">
+        <f>params!A47</f>
+        <v>aInitialInvestimentoNaoRealizadoPeD</v>
+      </c>
+      <c r="B47" s="21">
+        <f>params!C47</f>
+        <v>247491000</v>
+      </c>
+      <c r="C47" s="21">
+        <f>params!D47</f>
+        <v>247491000</v>
+      </c>
+      <c r="D47" s="19" t="str">
+        <f>params!P47</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E47" s="19" t="str">
+        <f>params!Q47</f>
+        <v>(QUANDL, 2017)</v>
+      </c>
+      <c r="F47" s="19" t="str">
+        <f>params!R47</f>
+        <v>Calculado com base no investimento em P&amp;D da 3D Systems nos últimos quatro anos, estimando que metade de seu investimento em P&amp;D é direcionado para tecnologia embarcada em impressoras 3D.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="str">
+        <f>params!A48</f>
+        <v>aInitialPatentesRequisitadas</v>
+      </c>
+      <c r="B48" s="20">
+        <f>params!C48</f>
+        <v>109.996</v>
+      </c>
+      <c r="C48" s="20">
+        <f>params!D48</f>
+        <v>109.996</v>
+      </c>
+      <c r="D48" s="19" t="str">
+        <f>params!P48</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E48" s="19" t="str">
+        <f>params!Q48</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f>params!R48</f>
+        <v>Dois últimos anos do relatório de patentes. Pressupõe-se que apenas metade das patentes são relacionadas à tecnologia embarcada em impressoras 3D.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="str">
+        <f>params!A49</f>
+        <v>aInitialPatentesEmpresa</v>
+      </c>
+      <c r="B49" s="20">
+        <f>params!C49</f>
+        <v>371.23649999999998</v>
+      </c>
+      <c r="C49" s="20">
+        <f>params!D49</f>
+        <v>371.23649999999998</v>
+      </c>
+      <c r="D49" s="19" t="str">
+        <f>params!P49</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E49" s="19" t="str">
+        <f>params!Q49</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f>params!R49</f>
+        <v>Considerando que o maior player possui 90 patentes, que este número corresponde a um share aproximado de 30 % do mercado, e que apenas metade das patentes são diretamente relacionadas à tecnologia embarcada em impressão 3D, estima-se que todas as patentes em impressão 3D atuais correspondem a 0,5 * 90 / 0,3.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="str">
+        <f>params!A50</f>
+        <v>aInitialsPatentesEmDominioPublicoUteis</v>
+      </c>
+      <c r="B50" s="20">
+        <f>params!C50</f>
+        <v>123.74550000000001</v>
+      </c>
+      <c r="C50" s="20">
+        <f>params!D50</f>
+        <v>123.74550000000001</v>
+      </c>
+      <c r="D50" s="19" t="str">
+        <f>params!P50</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E50" s="19" t="str">
+        <f>params!Q50</f>
+        <v>NA</v>
+      </c>
+      <c r="F50" s="19" t="str">
+        <f>params!R50</f>
+        <v>Considerou a existência de patentes em domínio público (ex.: FDM, SLS, etc).</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="str">
+        <f>params!A51</f>
+        <v>aInitialsInvestimentoPeDDepreciar</v>
+      </c>
+      <c r="B51" s="21">
+        <f>params!C51</f>
+        <v>1209956000</v>
+      </c>
+      <c r="C51" s="21">
+        <f>params!D51</f>
+        <v>1209956000</v>
+      </c>
+      <c r="D51" s="19" t="str">
+        <f>params!P51</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E51" s="19" t="str">
+        <f>params!Q51</f>
+        <v>(QUANDL, 2017)</v>
+      </c>
+      <c r="F51" s="19" t="str">
+        <f>params!R51</f>
+        <v>Estimado considerando o orçamento atual da 3D Systems, aplicado durante 10 anos.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="str">
+        <f>params!A52</f>
+        <v>aInitialReorderShare</v>
+      </c>
+      <c r="B52" s="20">
+        <f>params!C52</f>
+        <v>0.1</v>
+      </c>
+      <c r="C52" s="20">
+        <f>params!D52</f>
+        <v>0.8</v>
+      </c>
+      <c r="D52" s="19" t="str">
+        <f>params!P52</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E52" s="19" t="str">
+        <f>params!Q52</f>
+        <v>NA</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f>params!R52</f>
+        <v>Não há informação disponível para determinar a fração inicial de pedidos que é oriúnda de substituições de impressoras 3D em fim de vida útil.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="str">
+        <f>params!A53</f>
+        <v>aTotalInitialInstalledBaseInutilizado</v>
+      </c>
+      <c r="B53" s="20">
+        <f>params!C53</f>
+        <v>64250</v>
+      </c>
+      <c r="C53" s="20">
+        <f>params!D53</f>
+        <v>64250</v>
+      </c>
+      <c r="D53" s="19" t="str">
+        <f>params!P53</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E53" s="19" t="str">
+        <f>params!Q53</f>
+        <v>NA</v>
+      </c>
+      <c r="F53" s="19" t="str">
+        <f>params!R53</f>
+        <v>Variável não utilizada.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="str">
+        <f>params!A54</f>
+        <v>aInitialIndustryShipments</v>
+      </c>
+      <c r="B54" s="20">
+        <f>params!C54</f>
+        <v>12850</v>
+      </c>
+      <c r="C54" s="20">
+        <f>params!D54</f>
+        <v>12850</v>
+      </c>
+      <c r="D54" s="19" t="str">
+        <f>params!P54</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E54" s="19" t="str">
+        <f>params!Q54</f>
+        <v>(WOHLERS ASSOCIATES, 2013, 2014, 2015 ; WHOLERS, 2016)</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f>params!R54</f>
+        <v>Utilizou-se a última informação disponível sobre o número de impressoras 3D profissionais vendidas como referência para calibrar as condições iniciais do modelo.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="str">
+        <f>params!A55</f>
+        <v>aInitialSharePlayers1</v>
+      </c>
+      <c r="B55" s="20">
+        <f>params!C55</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C55" s="20">
+        <f>params!D55</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D55" s="19" t="str">
+        <f>params!P55</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E55" s="19" t="str">
+        <f>params!Q55</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f>params!R55</f>
+        <v>O Market Share Inicial das empresas considera que três empresas (3D Systems, Stratasys e EOS) dominam 70% do mercado (ERNST &amp; YOUNG GMBH, 2016, p. 54).</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="str">
+        <f>params!A56</f>
+        <v>aInitialSharePlayers2</v>
+      </c>
+      <c r="B56" s="20">
+        <f>params!C56</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C56" s="20">
+        <f>params!D56</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D56" s="19" t="str">
+        <f>params!P56</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E56" s="19" t="str">
+        <f>params!Q56</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f>params!R56</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="str">
+        <f>params!A57</f>
+        <v>aInitialSharePlayers3</v>
+      </c>
+      <c r="B57" s="20">
+        <f>params!C57</f>
+        <v>0.15</v>
+      </c>
+      <c r="C57" s="20">
+        <f>params!D57</f>
+        <v>0.15</v>
+      </c>
+      <c r="D57" s="19" t="str">
+        <f>params!P57</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E57" s="19" t="str">
+        <f>params!Q57</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F57" s="19" t="str">
+        <f>params!R57</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="str">
+        <f>params!A58</f>
+        <v>aInitialSharePlayers4</v>
+      </c>
+      <c r="B58" s="20">
+        <f>params!C58</f>
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="C58" s="20">
+        <f>params!D58</f>
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="D58" s="19" t="str">
+        <f>params!P58</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E58" s="19" t="str">
+        <f>params!Q58</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f>params!R58</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="str">
+        <f>params!A59</f>
+        <v>aPatentShare1</v>
+      </c>
+      <c r="B59" s="20">
+        <f>params!C59</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C59" s="20">
+        <f>params!D59</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D59" s="19" t="str">
+        <f>params!P59</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E59" s="19" t="str">
+        <f>params!Q59</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f>params!R59</f>
+        <v>Adota-se o pressuposto que as empresas possuem um share inicial de patentes proporcional ao seu share inicial de mercado. Considera-se este pressuposto coerente, visto que as empresas 3D Systems e Stratasys, que possuem o maior market share inicial também são as empresas que possuem mais patentes relacionadas à impressão 3D, e possuem um número similar de patentes.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="str">
+        <f>params!A60</f>
+        <v>aPatentShare2</v>
+      </c>
+      <c r="B60" s="20">
+        <f>params!C60</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C60" s="20">
+        <f>params!D60</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D60" s="19" t="str">
+        <f>params!P60</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E60" s="19" t="str">
+        <f>params!Q60</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f>params!R60</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="str">
+        <f>params!A61</f>
+        <v>aPatentShare3</v>
+      </c>
+      <c r="B61" s="20">
+        <f>params!C61</f>
+        <v>0.15</v>
+      </c>
+      <c r="C61" s="20">
+        <f>params!D61</f>
+        <v>0.15</v>
+      </c>
+      <c r="D61" s="19" t="str">
+        <f>params!P61</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E61" s="19" t="str">
+        <f>params!Q61</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f>params!R61</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="str">
+        <f>params!A62</f>
+        <v>aPatentShare4</v>
+      </c>
+      <c r="B62" s="20">
+        <f>params!C62</f>
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="C62" s="20">
+        <f>params!D62</f>
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="D62" s="19" t="str">
+        <f>params!P62</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E62" s="19" t="str">
+        <f>params!Q62</f>
+        <v>(UK INTELLECTUAL PROPERTY OFFICE, 2013)</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f>params!R62</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="str">
+        <f>params!A63</f>
+        <v>aPercPeDAberto2</v>
+      </c>
+      <c r="B63" s="20">
+        <f>params!C63</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="20">
+        <f>params!D63</f>
+        <v>1</v>
+      </c>
+      <c r="D63" s="19" t="str">
+        <f>params!P63</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E63" s="19" t="str">
+        <f>params!Q63</f>
+        <v>NA</v>
+      </c>
+      <c r="F63" s="19" t="str">
+        <f>params!R63</f>
+        <v>Variável considerada como incerta, pressupondo que os players podem optar por tornar todo o seu investimento em Patentes Open Source.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="str">
+        <f>params!A64</f>
+        <v>aPercPeDAberto3</v>
+      </c>
+      <c r="B64" s="20">
+        <f>params!C64</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="20">
+        <f>params!D64</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="19" t="str">
+        <f>params!P64</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E64" s="19" t="str">
+        <f>params!Q64</f>
+        <v>NA</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f>params!R64</f>
+        <v>Variável considerada como incerta, pressupondo que os players podem optar por tornar todo o seu investimento em Patentes Open Source.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="str">
+        <f>params!A65</f>
+        <v>aPercPeDAberto4</v>
+      </c>
+      <c r="B65" s="20">
+        <f>params!C65</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="20">
+        <f>params!D65</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="19" t="str">
+        <f>params!P65</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E65" s="19" t="str">
+        <f>params!Q65</f>
+        <v>NA</v>
+      </c>
+      <c r="F65" s="19" t="str">
+        <f>params!R65</f>
+        <v>Variável considerada como incerta, pressupondo que os players podem optar por tornar todo o seu investimento em Patentes Open Source.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="str">
+        <f>params!A66</f>
+        <v>aOrcamentoPeD2</v>
+      </c>
+      <c r="B66" s="20">
+        <f>params!C66</f>
+        <v>0.05</v>
+      </c>
+      <c r="C66" s="20">
+        <f>params!D66</f>
+        <v>0.15</v>
+      </c>
+      <c r="D66" s="19" t="str">
+        <f>params!P66</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E66" s="19" t="str">
+        <f>params!Q66</f>
+        <v>(QUANDL, 2017)</v>
+      </c>
+      <c r="F66" s="19" t="str">
+        <f>params!R66</f>
+        <v>As despesas com PeD da 3D Systems oscilaram entre 6% e 13% da receita entre 2006 e 2016.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="str">
+        <f>params!A67</f>
+        <v>aOrcamentoPeD3</v>
+      </c>
+      <c r="B67" s="20">
+        <f>params!C67</f>
+        <v>0.05</v>
+      </c>
+      <c r="C67" s="20">
+        <f>params!D67</f>
+        <v>0.15</v>
+      </c>
+      <c r="D67" s="19" t="str">
+        <f>params!P67</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E67" s="19" t="str">
+        <f>params!Q67</f>
+        <v>(QUANDL, 2017)</v>
+      </c>
+      <c r="F67" s="19" t="str">
+        <f>params!R67</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="str">
+        <f>params!A68</f>
+        <v>aOrcamentoPeD4</v>
+      </c>
+      <c r="B68" s="20">
+        <f>params!C68</f>
+        <v>0.05</v>
+      </c>
+      <c r="C68" s="20">
+        <f>params!D68</f>
+        <v>0.15</v>
+      </c>
+      <c r="D68" s="19" t="str">
+        <f>params!P68</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E68" s="19" t="str">
+        <f>params!Q68</f>
+        <v>(QUANDL, 2017)</v>
+      </c>
+      <c r="F68" s="19" t="str">
+        <f>params!R68</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="str">
+        <f>params!A69</f>
+        <v>aDesiredMarketShare2</v>
+      </c>
+      <c r="B69" s="20">
+        <f>params!C69</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C69" s="20">
+        <f>params!D69</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D69" s="19" t="str">
+        <f>params!P69</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E69" s="19" t="str">
+        <f>params!Q69</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F69" s="19" t="str">
+        <f>params!R69</f>
+        <v>Foi considerado que o player tem a mesma liberdade de decisão que o player analisado, variando seu market share desejado em 1/3 a mais ou a menos do que seu market share inicial.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="str">
+        <f>params!A70</f>
+        <v>aDesiredMarketShare3</v>
+      </c>
+      <c r="B70" s="20">
+        <f>params!C70</f>
+        <v>0.15</v>
+      </c>
+      <c r="C70" s="20">
+        <f>params!D70</f>
+        <v>0.3</v>
+      </c>
+      <c r="D70" s="19" t="str">
+        <f>params!P70</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E70" s="19" t="str">
+        <f>params!Q70</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F70" s="19" t="str">
+        <f>params!R70</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="str">
+        <f>params!A71</f>
+        <v>aDesiredMarketShare4</v>
+      </c>
+      <c r="B71" s="20">
+        <f>params!C71</f>
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="C71" s="20">
+        <f>params!D71</f>
+        <v>0.55999999999999983</v>
+      </c>
+      <c r="D71" s="19" t="str">
+        <f>params!P71</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E71" s="19" t="str">
+        <f>params!Q71</f>
+        <v>(ERNST &amp; YOUNG GMBH, 2016)</v>
+      </c>
+      <c r="F71" s="19" t="str">
+        <f>params!R71</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="str">
+        <f>params!A72</f>
+        <v>aSwitchForCapacityStrategy2</v>
+      </c>
+      <c r="B72" s="20">
+        <f>params!C72</f>
+        <v>0.51</v>
+      </c>
+      <c r="C72" s="20">
+        <f>params!D72</f>
+        <v>2.5</v>
+      </c>
+      <c r="D72" s="19" t="str">
+        <f>params!P72</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E72" s="19" t="str">
+        <f>params!Q72</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F72" s="19" t="str">
+        <f>params!R72</f>
+        <v>Foi considerado que o player tem a mesma liberdade de decisão que o player analisado, podendo optar por uma estratégia agressiva ou conservadora. Os ranges de variam entre 0,5 e 2,5 para que, ao arredondados, os valores 1 e 2 tenham a mesma probabilidade de ocorrência.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="str">
+        <f>params!A73</f>
+        <v>aSwitchForCapacityStrategy3</v>
+      </c>
+      <c r="B73" s="20">
+        <f>params!C73</f>
+        <v>0.51</v>
+      </c>
+      <c r="C73" s="20">
+        <f>params!D73</f>
+        <v>2.5</v>
+      </c>
+      <c r="D73" s="19" t="str">
+        <f>params!P73</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E73" s="19" t="str">
+        <f>params!Q73</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f>params!R73</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="str">
+        <f>params!A74</f>
+        <v>aSwitchForCapacityStrategy4</v>
+      </c>
+      <c r="B74" s="20">
+        <f>params!C74</f>
+        <v>0.51</v>
+      </c>
+      <c r="C74" s="20">
+        <f>params!D74</f>
+        <v>2.5</v>
+      </c>
+      <c r="D74" s="19" t="str">
+        <f>params!P74</f>
+        <v>P. Original</v>
+      </c>
+      <c r="E74" s="19" t="str">
+        <f>params!Q74</f>
+        <v>(STERMAN, 2007)</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f>params!R74</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="str">
+        <f>params!A75</f>
+        <v>aInitialPrice1</v>
+      </c>
+      <c r="B75" s="20">
+        <f>params!C75</f>
+        <v>107000</v>
+      </c>
+      <c r="C75" s="20">
+        <f>params!D75</f>
+        <v>107000</v>
+      </c>
+      <c r="D75" s="19" t="str">
+        <f>params!P75</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E75" s="19" t="str">
+        <f>params!Q75</f>
+        <v>(WOHLERS, 2017)</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f>params!R75</f>
+        <v>Considera-se o valor inicial de sistemas de impressão 3D igual a 104 mil USD (WOHLERS, 2017, m. 34:18). Não há informação disponível sobre a precificação individual dos players. Pressupõe-se que o preço inicial será igual para todos os players, e será ajustado pelo modelo conforme o market share desejado pela empresa.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="str">
+        <f>params!A76</f>
+        <v>aInitialPrice2</v>
+      </c>
+      <c r="B76" s="20">
+        <f>params!C76</f>
+        <v>107000</v>
+      </c>
+      <c r="C76" s="20">
+        <f>params!D76</f>
+        <v>107000</v>
+      </c>
+      <c r="D76" s="19" t="str">
+        <f>params!P76</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E76" s="19" t="str">
+        <f>params!Q76</f>
+        <v>(WOHLERS, 2017)</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <f>params!R76</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="str">
+        <f>params!A77</f>
+        <v>aInitialPrice3</v>
+      </c>
+      <c r="B77" s="20">
+        <f>params!C77</f>
+        <v>107000</v>
+      </c>
+      <c r="C77" s="20">
+        <f>params!D77</f>
+        <v>107000</v>
+      </c>
+      <c r="D77" s="19" t="str">
+        <f>params!P77</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E77" s="19" t="str">
+        <f>params!Q77</f>
+        <v>(WOHLERS, 2017)</v>
+      </c>
+      <c r="F77" s="19" t="str">
+        <f>params!R77</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="str">
+        <f>params!A78</f>
+        <v>aInitialPrice4</v>
+      </c>
+      <c r="B78" s="20">
+        <f>params!C78</f>
+        <v>107000</v>
+      </c>
+      <c r="C78" s="20">
+        <f>params!D78</f>
+        <v>107000</v>
+      </c>
+      <c r="D78" s="19" t="str">
+        <f>params!P78</f>
+        <v>Estimado</v>
+      </c>
+      <c r="E78" s="19" t="str">
+        <f>params!Q78</f>
+        <v>(WOHLERS, 2017)</v>
+      </c>
+      <c r="F78" s="19" t="str">
+        <f>params!R78</f>
+        <v>Idem à variável anterior.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="str">
+        <f>params!A79</f>
+        <v>aModoInitialCumulativeAdopters</v>
+      </c>
+      <c r="B79" s="20">
+        <f>params!C79</f>
+        <v>2</v>
+      </c>
+      <c r="C79" s="20">
+        <f>params!D79</f>
+        <v>2</v>
+      </c>
+      <c r="D79" s="19" t="str">
+        <f>params!P79</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E79" s="19" t="str">
+        <f>params!Q79</f>
+        <v>NA</v>
+      </c>
+      <c r="F79" s="19" t="str">
+        <f>params!R79</f>
+        <v>1 - Tradicional: Industry Demand X Initial Diffusion Fraction (Sterman)
+2 - ReorderShare -&gt; Intalled Base -&gt; Adopters (Novo)
+3 - ReorderShare -&gt; InitialAdoptionRate -&gt; Initial Cumulative Adopters (Implementado Inicialmente)
+}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="str">
+        <f>params!A80</f>
+        <v>aInitialPatentLefts</v>
+      </c>
+      <c r="B80" s="20">
+        <f>params!C80</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="20">
+        <f>params!D80</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="19" t="str">
+        <f>params!P80</f>
+        <v>Arbitrado</v>
+      </c>
+      <c r="E80" s="19" t="str">
+        <f>params!Q80</f>
+        <v>NA</v>
+      </c>
+      <c r="F80" s="19" t="str">
+        <f>params!R80</f>
+        <v>Não há informações disponíveis sobre empresas que atuem no ramo de impressoras profissionais com patentes open source.</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F80" xr:uid="{3C841078-18CE-4AD3-B31D-AB283F6921A1}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -6639,16 +8797,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,7 +8858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
@@ -6721,25 +8879,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6787,7 +8945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6802,13 +8960,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6828,7 +8986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6846,140 +9004,140 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
         <v>232</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6988,7 +9146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7014,7 +9172,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>250</v>
@@ -7026,7 +9184,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -7038,7 +9196,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <v>10000</v>
@@ -7050,7 +9208,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -7062,7 +9220,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -7074,7 +9232,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7">
         <v>-0.5</v>
@@ -7093,7 +9251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -7111,15 +9269,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2">
         <f>params!J54</f>
@@ -7128,7 +9286,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <f>params!J75</f>
@@ -7137,7 +9295,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4">
         <f>B3*B2</f>
@@ -7146,7 +9304,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5">
         <f>B4*params!J66</f>
@@ -7155,7 +9313,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" s="1">
         <f>params!J37</f>
@@ -7164,7 +9322,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1">
         <f>params!J39</f>
@@ -7176,12 +9334,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -7189,7 +9347,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11">
         <f>B5*params!J36*B10</f>
@@ -7202,26 +9360,26 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B14">
         <v>0.8</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <f>B5 * B14* params!J38 / B6</f>
@@ -7242,13 +9400,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B17">
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -7256,7 +9414,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" s="1">
         <f>B5 * B17* (1-B7) * params!J40 / B6</f>
@@ -7267,7 +9425,7 @@
         <v>123.74549999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E18">
         <f>F17/E15</f>
@@ -7276,7 +9434,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B20">
         <v>0.3</v>
@@ -7284,7 +9442,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1">
         <f>B5 * B20* (1-B7) *params!J41/ B6</f>
@@ -7297,7 +9455,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B24">
         <f>params!J38+params!J40+params!J36</f>
@@ -7306,7 +9464,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25">
         <f>B11+(B15+B18) * B6</f>
